--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.2.3-indonesia-v3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-indonesia\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3534303-761F-4780-9CAD-98498A4EE077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="51195" windowHeight="18240"/>
+    <workbookView xWindow="2490" yWindow="1020" windowWidth="24765" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="10" r:id="rId1"/>
@@ -22,8 +23,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PolicyLevers!$A$1:$Q$255</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -32,12 +41,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jeffrey Rissman</author>
   </authors>
   <commentList>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L86" authorId="0" shapeId="0">
+    <comment ref="L86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="811">
   <si>
     <t>Short Name</t>
   </si>
@@ -2710,7 +2719,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -3593,6 +3602,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3602,23 +3614,20 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Body: normal cell 2" xfId="5"/>
-    <cellStyle name="Comma 6" xfId="6"/>
+    <cellStyle name="Body: normal cell 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Header: bottom row 2" xfId="4"/>
+    <cellStyle name="Header: bottom row 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3651,7 +3660,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3706,7 +3721,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3761,7 +3782,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3816,7 +3843,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4128,7 +4161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4199,7 +4232,7 @@
     <row r="17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -4207,7 +4240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4221,9 +4254,9 @@
     <col min="2" max="2" width="28.42578125" style="6" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" style="2" customWidth="1"/>
     <col min="4" max="5" width="18.85546875" style="6" customWidth="1"/>
-    <col min="6" max="7" width="18.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="21.28515625" style="8" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" style="6" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="18.42578125" style="6" customWidth="1"/>
+    <col min="8" max="9" width="21.28515625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" style="6" customWidth="1"/>
     <col min="11" max="12" width="21.28515625" style="125" customWidth="1"/>
     <col min="13" max="13" width="19" style="6" customWidth="1"/>
     <col min="14" max="15" width="19.140625" style="2" customWidth="1"/>
@@ -13378,8 +13411,8 @@
         <v>116</v>
       </c>
       <c r="G180" s="6"/>
-      <c r="H180" s="8" t="s">
-        <v>237</v>
+      <c r="H180" s="8">
+        <v>185</v>
       </c>
       <c r="I180" s="12" t="str">
         <f t="shared" si="70"/>
@@ -18091,7 +18124,7 @@
       <c r="L272" s="136"/>
     </row>
   </sheetData>
-  <sortState ref="A119:I139">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A119:I139">
     <sortCondition ref="B119:B139"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18104,7 +18137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18814,7 +18847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -18856,7 +18889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -18943,7 +18976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AM194"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -18973,13 +19006,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="152" t="s">
@@ -19048,13 +19081,13 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="151" t="s">
+      <c r="A60" s="148" t="s">
         <v>205</v>
       </c>
-      <c r="B60" s="151"/>
-      <c r="C60" s="151"/>
-      <c r="D60" s="151"/>
-      <c r="E60" s="151"/>
+      <c r="B60" s="148"/>
+      <c r="C60" s="148"/>
+      <c r="D60" s="148"/>
+      <c r="E60" s="148"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="65"/>
@@ -19166,13 +19199,13 @@
       </c>
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A89" s="151" t="s">
+      <c r="A89" s="148" t="s">
         <v>206</v>
       </c>
-      <c r="B89" s="151"/>
-      <c r="C89" s="151"/>
-      <c r="D89" s="151"/>
-      <c r="E89" s="151"/>
+      <c r="B89" s="148"/>
+      <c r="C89" s="148"/>
+      <c r="D89" s="148"/>
+      <c r="E89" s="148"/>
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
@@ -19259,13 +19292,13 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="151" t="s">
+      <c r="A98" s="148" t="s">
         <v>207</v>
       </c>
-      <c r="B98" s="151"/>
-      <c r="C98" s="151"/>
-      <c r="D98" s="151"/>
-      <c r="E98" s="151"/>
+      <c r="B98" s="148"/>
+      <c r="C98" s="148"/>
+      <c r="D98" s="148"/>
+      <c r="E98" s="148"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="42">
@@ -19349,13 +19382,13 @@
       <c r="A108" s="69"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="151" t="s">
+      <c r="A109" s="148" t="s">
         <v>209</v>
       </c>
-      <c r="B109" s="151"/>
-      <c r="C109" s="151"/>
-      <c r="D109" s="151"/>
-      <c r="E109" s="151"/>
+      <c r="B109" s="148"/>
+      <c r="C109" s="148"/>
+      <c r="D109" s="148"/>
+      <c r="E109" s="148"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19368,13 +19401,13 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="151" t="s">
+      <c r="A113" s="148" t="s">
         <v>208</v>
       </c>
-      <c r="B113" s="151"/>
-      <c r="C113" s="151"/>
-      <c r="D113" s="151"/>
-      <c r="E113" s="151"/>
+      <c r="B113" s="148"/>
+      <c r="C113" s="148"/>
+      <c r="D113" s="148"/>
+      <c r="E113" s="148"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="42">
@@ -19455,13 +19488,13 @@
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="151" t="s">
+      <c r="A124" s="148" t="s">
         <v>499</v>
       </c>
-      <c r="B124" s="151"/>
-      <c r="C124" s="151"/>
-      <c r="D124" s="151"/>
-      <c r="E124" s="151"/>
+      <c r="B124" s="148"/>
+      <c r="C124" s="148"/>
+      <c r="D124" s="148"/>
+      <c r="E124" s="148"/>
       <c r="L124" s="44"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -19552,13 +19585,13 @@
       <c r="C133" s="43"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" s="151" t="s">
+      <c r="A134" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="B134" s="151"/>
-      <c r="C134" s="151"/>
-      <c r="D134" s="151"/>
-      <c r="E134" s="151"/>
+      <c r="B134" s="148"/>
+      <c r="C134" s="148"/>
+      <c r="D134" s="148"/>
+      <c r="E134" s="148"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="76" t="s">
@@ -19573,25 +19606,25 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="78"/>
-      <c r="B136" s="148" t="s">
+      <c r="B136" s="149" t="s">
         <v>521</v>
       </c>
-      <c r="C136" s="149"/>
-      <c r="D136" s="149"/>
-      <c r="E136" s="150"/>
+      <c r="C136" s="150"/>
+      <c r="D136" s="150"/>
+      <c r="E136" s="151"/>
       <c r="F136" s="77"/>
       <c r="G136" s="77"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="79"/>
-      <c r="B137" s="148" t="s">
+      <c r="B137" s="149" t="s">
         <v>522</v>
       </c>
-      <c r="C137" s="150"/>
-      <c r="D137" s="148" t="s">
+      <c r="C137" s="151"/>
+      <c r="D137" s="149" t="s">
         <v>523</v>
       </c>
-      <c r="E137" s="150"/>
+      <c r="E137" s="151"/>
       <c r="F137" s="77"/>
       <c r="G137" s="77"/>
     </row>
@@ -20138,13 +20171,13 @@
       <c r="G163" s="77"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="151" t="s">
+      <c r="A165" s="148" t="s">
         <v>212</v>
       </c>
-      <c r="B165" s="151"/>
-      <c r="C165" s="151"/>
-      <c r="D165" s="151"/>
-      <c r="E165" s="151"/>
+      <c r="B165" s="148"/>
+      <c r="C165" s="148"/>
+      <c r="D165" s="148"/>
+      <c r="E165" s="148"/>
       <c r="H165"/>
     </row>
     <row r="166" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20171,10 +20204,10 @@
       <c r="H168"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="151" t="s">
+      <c r="A169" s="148" t="s">
         <v>507</v>
       </c>
-      <c r="B169" s="151"/>
+      <c r="B169" s="148"/>
       <c r="H169"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -20209,13 +20242,13 @@
       <c r="B173" s="55"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="151" t="s">
+      <c r="A174" s="148" t="s">
         <v>222</v>
       </c>
-      <c r="B174" s="151"/>
-      <c r="C174" s="151"/>
-      <c r="D174" s="151"/>
-      <c r="E174" s="151"/>
+      <c r="B174" s="148"/>
+      <c r="C174" s="148"/>
+      <c r="D174" s="148"/>
+      <c r="E174" s="148"/>
     </row>
     <row r="175" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="46" t="s">
@@ -20235,13 +20268,13 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="151" t="s">
+      <c r="A178" s="148" t="s">
         <v>215</v>
       </c>
-      <c r="B178" s="151"/>
-      <c r="C178" s="151"/>
-      <c r="D178" s="151"/>
-      <c r="E178" s="151"/>
+      <c r="B178" s="148"/>
+      <c r="C178" s="148"/>
+      <c r="D178" s="148"/>
+      <c r="E178" s="148"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="47" t="s">
@@ -20269,13 +20302,13 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="151" t="s">
+      <c r="A183" s="148" t="s">
         <v>217</v>
       </c>
-      <c r="B183" s="151"/>
-      <c r="C183" s="151"/>
-      <c r="D183" s="151"/>
-      <c r="E183" s="151"/>
+      <c r="B183" s="148"/>
+      <c r="C183" s="148"/>
+      <c r="D183" s="148"/>
+      <c r="E183" s="148"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="74" t="s">
@@ -20309,13 +20342,13 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="151" t="s">
+      <c r="A188" s="148" t="s">
         <v>234</v>
       </c>
-      <c r="B188" s="151"/>
-      <c r="C188" s="151"/>
-      <c r="D188" s="151"/>
-      <c r="E188" s="151"/>
+      <c r="B188" s="148"/>
+      <c r="C188" s="148"/>
+      <c r="D188" s="148"/>
+      <c r="E188" s="148"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="44" t="s">
@@ -20375,12 +20408,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A188:E188"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -20395,6 +20422,12 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A188:E188"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-indonesia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Indonesia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3534303-761F-4780-9CAD-98498A4EE077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C46FAD-C8B9-4B84-A5E0-307B4238E940}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1020" windowWidth="24765" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11280" yWindow="285" windowWidth="17310" windowHeight="16095" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="10" r:id="rId1"/>
     <sheet name="PolicyLevers" sheetId="1" r:id="rId2"/>
     <sheet name="OutputGraphs" sheetId="8" r:id="rId3"/>
     <sheet name="ReferenceScenarios" sheetId="9" r:id="rId4"/>
-    <sheet name="Targets" sheetId="14" r:id="rId5"/>
+    <sheet name="Target Calculations" sheetId="14" r:id="rId5"/>
     <sheet name="MaxBoundCalculations" sheetId="13" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PolicyLevers!$A$1:$Q$255</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="824">
   <si>
     <t>Short Name</t>
   </si>
@@ -2714,6 +2714,45 @@
   </si>
   <si>
     <t>Output Total CO Emissions</t>
+  </si>
+  <si>
+    <t>Scenario_BAU.cin</t>
+  </si>
+  <si>
+    <t>Include?</t>
+  </si>
+  <si>
+    <t>Target 1 Title</t>
+  </si>
+  <si>
+    <t>Target 1 Year</t>
+  </si>
+  <si>
+    <t>Target 1 Min Value</t>
+  </si>
+  <si>
+    <t>Target 1 Max Value</t>
+  </si>
+  <si>
+    <t>Target 1 Description</t>
+  </si>
+  <si>
+    <t>Target 2 Title</t>
+  </si>
+  <si>
+    <t>Target 2 Year</t>
+  </si>
+  <si>
+    <t>Target 2 Min Value</t>
+  </si>
+  <si>
+    <t>Target 2 Max Value</t>
+  </si>
+  <si>
+    <t>Target 2 Description</t>
+  </si>
+  <si>
+    <t>reduction wedge</t>
   </si>
 </sst>
 </file>
@@ -3213,7 +3252,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3602,9 +3641,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3614,8 +3650,17 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3630,7 +3675,28 @@
     <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4164,7 +4230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -18138,709 +18204,903 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" style="125" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" style="125" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="125" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="69" style="6" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="28" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="6"/>
+    <col min="3" max="3" width="15.7109375" style="125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="125" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="69" style="6" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="28" style="6" customWidth="1"/>
+    <col min="10" max="18" width="22" style="125" customWidth="1"/>
+    <col min="19" max="19" width="25.42578125" style="125" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="144" t="s">
         <v>756</v>
       </c>
       <c r="B1" s="145" t="s">
         <v>757</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="153" t="s">
+        <v>812</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="145" t="s">
+      <c r="H1" s="145" t="s">
         <v>763</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="270" x14ac:dyDescent="0.25">
       <c r="A2" s="146" t="s">
         <v>758</v>
       </c>
       <c r="B2" s="132" t="s">
         <v>759</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="154">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="125" t="s">
+      <c r="E2" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="J2" s="125" t="str">
+        <f>'Target Calculations'!A2</f>
+        <v>Unconditional Target</v>
+      </c>
+      <c r="K2" s="125">
+        <f>'Target Calculations'!B2</f>
+        <v>2030</v>
+      </c>
+      <c r="L2" s="125">
+        <f>'Target Calculations'!C2</f>
+        <v>2122.619728128268</v>
+      </c>
+      <c r="M2" s="125">
+        <f>'Target Calculations'!D2</f>
+        <v>2122.619728128268</v>
+      </c>
+      <c r="N2" s="125" t="str">
+        <f>'Target Calculations'!E2</f>
+        <v>In its Nationally Determined Contribution (NDC) to the U.N. Framework Convention on Climate Change, Indonesia committed to reduce greenhouse gas emissions 29 percent relative to a business-as-usual case by 2030.</v>
+      </c>
+      <c r="O2" s="125" t="str">
+        <f>'Target Calculations'!A3</f>
+        <v>Conditional Target</v>
+      </c>
+      <c r="P2" s="125">
+        <f>'Target Calculations'!B3</f>
+        <v>2030</v>
+      </c>
+      <c r="Q2" s="125">
+        <f>'Target Calculations'!C3</f>
+        <v>1864.8581387242943</v>
+      </c>
+      <c r="R2" s="125">
+        <f>'Target Calculations'!D3</f>
+        <v>1864.8581387242943</v>
+      </c>
+      <c r="S2" s="125" t="str">
+        <f>'Target Calculations'!E3</f>
+        <v>In its Nationally Determined Contribution (NDC) to the U.N. Framework Convention on Climate Change, Indonesia committed to reduce greenhouse gas emissions up to 41 percent relative to a business-as-usual case by 2030, subject to availability of international support for finance, technology transfer, and development and capacity-building.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="146" t="s">
         <v>758</v>
       </c>
       <c r="B3" s="131" t="s">
         <v>760</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="154">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="125" t="s">
+      <c r="E3" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="147" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="131" t="s">
         <v>785</v>
       </c>
       <c r="B4" s="131" t="s">
         <v>786</v>
       </c>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="154">
+        <v>1</v>
+      </c>
+      <c r="D4" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="132" t="s">
+      <c r="E4" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="132" t="s">
+      <c r="F4" s="132" t="s">
         <v>464</v>
       </c>
-      <c r="F4" s="132" t="s">
+      <c r="G4" s="132" t="s">
         <v>787</v>
       </c>
-      <c r="G4" s="132"/>
-    </row>
-    <row r="5" spans="1:8" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="132"/>
+    </row>
+    <row r="5" spans="1:19" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="131" t="s">
         <v>785</v>
       </c>
       <c r="B5" s="146" t="s">
         <v>788</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="154">
+        <v>1</v>
+      </c>
+      <c r="D5" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="132" t="s">
+      <c r="E5" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="F5" s="132" t="s">
         <v>464</v>
       </c>
-      <c r="F5" s="132" t="s">
+      <c r="G5" s="132" t="s">
         <v>789</v>
       </c>
-      <c r="G5" s="132"/>
-    </row>
-    <row r="6" spans="1:8" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="132"/>
+    </row>
+    <row r="6" spans="1:19" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="131" t="s">
         <v>785</v>
       </c>
       <c r="B6" s="146" t="s">
         <v>790</v>
       </c>
-      <c r="C6" s="132" t="s">
+      <c r="C6" s="154">
+        <v>1</v>
+      </c>
+      <c r="D6" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="132" t="s">
+      <c r="E6" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="132" t="s">
+      <c r="F6" s="132" t="s">
         <v>464</v>
       </c>
-      <c r="F6" s="132" t="s">
+      <c r="G6" s="132" t="s">
         <v>791</v>
       </c>
-      <c r="G6" s="132"/>
-    </row>
-    <row r="7" spans="1:8" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="132"/>
+    </row>
+    <row r="7" spans="1:19" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="131" t="s">
         <v>785</v>
       </c>
       <c r="B7" s="146" t="s">
         <v>792</v>
       </c>
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="154">
+        <v>1</v>
+      </c>
+      <c r="D7" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="132" t="s">
+      <c r="E7" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="132" t="s">
+      <c r="F7" s="132" t="s">
         <v>464</v>
       </c>
-      <c r="F7" s="132" t="s">
+      <c r="G7" s="132" t="s">
         <v>793</v>
       </c>
-      <c r="G7" s="132"/>
-    </row>
-    <row r="8" spans="1:8" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="132"/>
+    </row>
+    <row r="8" spans="1:19" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="131" t="s">
         <v>785</v>
       </c>
       <c r="B8" s="146" t="s">
         <v>794</v>
       </c>
-      <c r="C8" s="132" t="s">
+      <c r="C8" s="154">
+        <v>1</v>
+      </c>
+      <c r="D8" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="132" t="s">
+      <c r="E8" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="132" t="s">
+      <c r="F8" s="132" t="s">
         <v>795</v>
       </c>
-      <c r="F8" s="132" t="s">
+      <c r="G8" s="132" t="s">
         <v>796</v>
       </c>
-      <c r="G8" s="132"/>
-    </row>
-    <row r="9" spans="1:8" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="132"/>
+    </row>
+    <row r="9" spans="1:19" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="131" t="s">
         <v>785</v>
       </c>
       <c r="B9" s="146" t="s">
         <v>797</v>
       </c>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="154">
+        <v>1</v>
+      </c>
+      <c r="D9" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="132" t="s">
+      <c r="E9" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="132" t="s">
+      <c r="F9" s="132" t="s">
         <v>795</v>
       </c>
-      <c r="F9" s="132" t="s">
+      <c r="G9" s="132" t="s">
         <v>798</v>
       </c>
-      <c r="G9" s="132"/>
-    </row>
-    <row r="10" spans="1:8" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="132"/>
+    </row>
+    <row r="10" spans="1:19" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="131" t="s">
         <v>785</v>
       </c>
       <c r="B10" s="146" t="s">
         <v>799</v>
       </c>
-      <c r="C10" s="132" t="s">
+      <c r="C10" s="154">
+        <v>1</v>
+      </c>
+      <c r="D10" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="132" t="s">
+      <c r="E10" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="132" t="s">
+      <c r="F10" s="132" t="s">
         <v>795</v>
       </c>
-      <c r="F10" s="132" t="s">
+      <c r="G10" s="132" t="s">
         <v>800</v>
       </c>
-      <c r="G10" s="132"/>
-    </row>
-    <row r="11" spans="1:8" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="132"/>
+    </row>
+    <row r="11" spans="1:19" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
         <v>785</v>
       </c>
       <c r="B11" s="146" t="s">
         <v>801</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="154">
+        <v>1</v>
+      </c>
+      <c r="D11" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="132" t="s">
+      <c r="E11" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="132" t="s">
+      <c r="F11" s="132" t="s">
         <v>795</v>
       </c>
-      <c r="F11" s="132" t="s">
+      <c r="G11" s="132" t="s">
         <v>802</v>
       </c>
-      <c r="G11" s="132"/>
-    </row>
-    <row r="12" spans="1:8" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="132"/>
+    </row>
+    <row r="12" spans="1:19" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="131" t="s">
         <v>785</v>
       </c>
       <c r="B12" s="146" t="s">
         <v>803</v>
       </c>
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="154">
+        <v>1</v>
+      </c>
+      <c r="D12" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="132" t="s">
+      <c r="E12" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="132" t="s">
+      <c r="F12" s="132" t="s">
         <v>464</v>
       </c>
-      <c r="F12" s="132" t="s">
+      <c r="G12" s="132" t="s">
         <v>804</v>
       </c>
-      <c r="G12" s="132"/>
-    </row>
-    <row r="13" spans="1:8" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="132"/>
+    </row>
+    <row r="13" spans="1:19" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="131" t="s">
         <v>785</v>
       </c>
       <c r="B13" s="146" t="s">
         <v>805</v>
       </c>
-      <c r="C13" s="132" t="s">
+      <c r="C13" s="154">
+        <v>1</v>
+      </c>
+      <c r="D13" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="132" t="s">
+      <c r="E13" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="132" t="s">
+      <c r="F13" s="132" t="s">
         <v>795</v>
       </c>
-      <c r="F13" s="132" t="s">
+      <c r="G13" s="132" t="s">
         <v>806</v>
       </c>
-      <c r="G13" s="132"/>
-    </row>
-    <row r="14" spans="1:8" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="132"/>
+    </row>
+    <row r="14" spans="1:19" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="131" t="s">
         <v>785</v>
       </c>
       <c r="B14" s="146" t="s">
         <v>807</v>
       </c>
-      <c r="C14" s="132" t="s">
+      <c r="C14" s="154">
+        <v>1</v>
+      </c>
+      <c r="D14" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="132" t="s">
+      <c r="E14" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="132" t="s">
+      <c r="F14" s="132" t="s">
         <v>464</v>
       </c>
-      <c r="F14" s="132" t="s">
+      <c r="G14" s="132" t="s">
         <v>808</v>
       </c>
-      <c r="G14" s="132"/>
-    </row>
-    <row r="15" spans="1:8" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="132"/>
+    </row>
+    <row r="15" spans="1:19" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="131" t="s">
         <v>785</v>
       </c>
       <c r="B15" s="146" t="s">
         <v>809</v>
       </c>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="154">
+        <v>1</v>
+      </c>
+      <c r="D15" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="132" t="s">
+      <c r="E15" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="132" t="s">
+      <c r="F15" s="132" t="s">
         <v>464</v>
       </c>
-      <c r="F15" s="132" t="s">
+      <c r="G15" s="132" t="s">
         <v>810</v>
       </c>
-      <c r="G15" s="132"/>
-    </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="132"/>
+    </row>
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="131" t="s">
         <v>468</v>
       </c>
       <c r="B16" s="120"/>
-      <c r="C16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="120" t="s">
+      <c r="C16" s="154">
+        <v>1</v>
+      </c>
+      <c r="D16" s="125" t="s">
+        <v>823</v>
+      </c>
+      <c r="E16" s="120" t="s">
         <v>730</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="120"/>
+    </row>
+    <row r="17" spans="1:19" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="131" t="s">
         <v>469</v>
       </c>
       <c r="B17" s="131" t="s">
         <v>761</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="154">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="120" t="s">
+      <c r="E17" s="120" t="s">
         <v>731</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" s="120" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="120"/>
+      <c r="Q17" s="120"/>
+      <c r="R17" s="120"/>
+      <c r="S17" s="120"/>
+    </row>
+    <row r="18" spans="1:19" s="120" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="131" t="s">
         <v>469</v>
       </c>
       <c r="B18" s="131" t="s">
         <v>762</v>
       </c>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="154">
+        <v>1</v>
+      </c>
+      <c r="D18" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="120" t="s">
+      <c r="E18" s="120" t="s">
         <v>731</v>
       </c>
-      <c r="E18" s="120" t="s">
+      <c r="F18" s="120" t="s">
         <v>735</v>
       </c>
-      <c r="F18" s="120" t="s">
+      <c r="G18" s="120" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="131" t="s">
         <v>764</v>
       </c>
       <c r="B19" s="131" t="s">
         <v>765</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="154">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="E19" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="131" t="s">
         <v>764</v>
       </c>
       <c r="B20" s="131" t="s">
         <v>766</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="154">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="125" t="s">
+      <c r="E20" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="131" t="s">
         <v>764</v>
       </c>
       <c r="B21" s="131" t="s">
         <v>767</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="154">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="125" t="s">
+      <c r="E21" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="H21" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="131" t="s">
         <v>768</v>
       </c>
       <c r="B22" s="131" t="s">
         <v>769</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="154">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="125" t="s">
+      <c r="E22" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="131" t="s">
         <v>768</v>
       </c>
       <c r="B23" s="131" t="s">
         <v>770</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="154">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="125" t="s">
+      <c r="E23" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="131" t="s">
         <v>771</v>
       </c>
       <c r="B24" s="131" t="s">
         <v>772</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="154">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="125" t="s">
+      <c r="E24" s="125" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="131" t="s">
         <v>771</v>
       </c>
       <c r="B25" s="131" t="s">
         <v>773</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="154">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="125" t="s">
+      <c r="E25" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="I25" s="6" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="131" t="s">
         <v>771</v>
       </c>
       <c r="B26" s="131" t="s">
         <v>774</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="154">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="125" t="s">
+      <c r="E26" s="125" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A27" s="131" t="s">
         <v>771</v>
       </c>
       <c r="B27" s="131" t="s">
         <v>775</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="154">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="125" t="s">
+      <c r="E27" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="H27" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="147" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="131" t="s">
         <v>738</v>
       </c>
       <c r="B28" s="131" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="132" t="s">
+      <c r="C28" s="154">
+        <v>1</v>
+      </c>
+      <c r="D28" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="132" t="s">
+      <c r="E28" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="132" t="s">
+      <c r="F28" s="132" t="s">
         <v>466</v>
       </c>
-      <c r="F28" s="132" t="s">
+      <c r="G28" s="132" t="s">
         <v>776</v>
       </c>
-      <c r="G28" s="132"/>
-    </row>
-    <row r="29" spans="1:8" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="132"/>
+    </row>
+    <row r="29" spans="1:19" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="131" t="s">
         <v>738</v>
       </c>
       <c r="B29" s="131" t="s">
         <v>777</v>
       </c>
-      <c r="C29" s="132" t="s">
+      <c r="C29" s="154">
+        <v>1</v>
+      </c>
+      <c r="D29" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="132" t="s">
+      <c r="E29" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="125" t="s">
+      <c r="F29" s="125" t="s">
         <v>778</v>
       </c>
-      <c r="F29" s="132" t="s">
+      <c r="G29" s="132" t="s">
         <v>784</v>
       </c>
-      <c r="G29" s="132"/>
-    </row>
-    <row r="30" spans="1:8" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="132"/>
+    </row>
+    <row r="30" spans="1:19" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="131" t="s">
         <v>738</v>
       </c>
       <c r="B30" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="132" t="s">
+      <c r="C30" s="154">
+        <v>1</v>
+      </c>
+      <c r="D30" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="132" t="s">
+      <c r="E30" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="125" t="s">
+      <c r="F30" s="125" t="s">
         <v>779</v>
       </c>
-      <c r="F30" s="132" t="s">
+      <c r="G30" s="132" t="s">
         <v>780</v>
       </c>
-      <c r="G30" s="132"/>
-    </row>
-    <row r="31" spans="1:8" s="147" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="132"/>
+    </row>
+    <row r="31" spans="1:19" s="147" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="131" t="s">
         <v>738</v>
       </c>
       <c r="B31" s="131" t="s">
         <v>781</v>
       </c>
-      <c r="C31" s="132" t="s">
+      <c r="C31" s="154">
+        <v>1</v>
+      </c>
+      <c r="D31" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="132" t="s">
+      <c r="E31" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="125" t="s">
+      <c r="F31" s="125" t="s">
         <v>782</v>
       </c>
-      <c r="F31" s="132" t="s">
+      <c r="G31" s="132" t="s">
         <v>783</v>
       </c>
-      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C31">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -18850,7 +19110,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18871,7 +19133,7 @@
         <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -18892,7 +19154,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19006,13 +19270,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="152" t="s">
@@ -19081,13 +19345,13 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="148" t="s">
+      <c r="A60" s="151" t="s">
         <v>205</v>
       </c>
-      <c r="B60" s="148"/>
-      <c r="C60" s="148"/>
-      <c r="D60" s="148"/>
-      <c r="E60" s="148"/>
+      <c r="B60" s="151"/>
+      <c r="C60" s="151"/>
+      <c r="D60" s="151"/>
+      <c r="E60" s="151"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="65"/>
@@ -19199,13 +19463,13 @@
       </c>
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A89" s="148" t="s">
+      <c r="A89" s="151" t="s">
         <v>206</v>
       </c>
-      <c r="B89" s="148"/>
-      <c r="C89" s="148"/>
-      <c r="D89" s="148"/>
-      <c r="E89" s="148"/>
+      <c r="B89" s="151"/>
+      <c r="C89" s="151"/>
+      <c r="D89" s="151"/>
+      <c r="E89" s="151"/>
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
@@ -19292,13 +19556,13 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="148" t="s">
+      <c r="A98" s="151" t="s">
         <v>207</v>
       </c>
-      <c r="B98" s="148"/>
-      <c r="C98" s="148"/>
-      <c r="D98" s="148"/>
-      <c r="E98" s="148"/>
+      <c r="B98" s="151"/>
+      <c r="C98" s="151"/>
+      <c r="D98" s="151"/>
+      <c r="E98" s="151"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="42">
@@ -19382,13 +19646,13 @@
       <c r="A108" s="69"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="148" t="s">
+      <c r="A109" s="151" t="s">
         <v>209</v>
       </c>
-      <c r="B109" s="148"/>
-      <c r="C109" s="148"/>
-      <c r="D109" s="148"/>
-      <c r="E109" s="148"/>
+      <c r="B109" s="151"/>
+      <c r="C109" s="151"/>
+      <c r="D109" s="151"/>
+      <c r="E109" s="151"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -19401,13 +19665,13 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="148" t="s">
+      <c r="A113" s="151" t="s">
         <v>208</v>
       </c>
-      <c r="B113" s="148"/>
-      <c r="C113" s="148"/>
-      <c r="D113" s="148"/>
-      <c r="E113" s="148"/>
+      <c r="B113" s="151"/>
+      <c r="C113" s="151"/>
+      <c r="D113" s="151"/>
+      <c r="E113" s="151"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="42">
@@ -19488,13 +19752,13 @@
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="148" t="s">
+      <c r="A124" s="151" t="s">
         <v>499</v>
       </c>
-      <c r="B124" s="148"/>
-      <c r="C124" s="148"/>
-      <c r="D124" s="148"/>
-      <c r="E124" s="148"/>
+      <c r="B124" s="151"/>
+      <c r="C124" s="151"/>
+      <c r="D124" s="151"/>
+      <c r="E124" s="151"/>
       <c r="L124" s="44"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -19585,13 +19849,13 @@
       <c r="C133" s="43"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" s="148" t="s">
+      <c r="A134" s="151" t="s">
         <v>125</v>
       </c>
-      <c r="B134" s="148"/>
-      <c r="C134" s="148"/>
-      <c r="D134" s="148"/>
-      <c r="E134" s="148"/>
+      <c r="B134" s="151"/>
+      <c r="C134" s="151"/>
+      <c r="D134" s="151"/>
+      <c r="E134" s="151"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="76" t="s">
@@ -19606,25 +19870,25 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="78"/>
-      <c r="B136" s="149" t="s">
+      <c r="B136" s="148" t="s">
         <v>521</v>
       </c>
-      <c r="C136" s="150"/>
-      <c r="D136" s="150"/>
-      <c r="E136" s="151"/>
+      <c r="C136" s="149"/>
+      <c r="D136" s="149"/>
+      <c r="E136" s="150"/>
       <c r="F136" s="77"/>
       <c r="G136" s="77"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="79"/>
-      <c r="B137" s="149" t="s">
+      <c r="B137" s="148" t="s">
         <v>522</v>
       </c>
-      <c r="C137" s="151"/>
-      <c r="D137" s="149" t="s">
+      <c r="C137" s="150"/>
+      <c r="D137" s="148" t="s">
         <v>523</v>
       </c>
-      <c r="E137" s="151"/>
+      <c r="E137" s="150"/>
       <c r="F137" s="77"/>
       <c r="G137" s="77"/>
     </row>
@@ -20171,13 +20435,13 @@
       <c r="G163" s="77"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="148" t="s">
+      <c r="A165" s="151" t="s">
         <v>212</v>
       </c>
-      <c r="B165" s="148"/>
-      <c r="C165" s="148"/>
-      <c r="D165" s="148"/>
-      <c r="E165" s="148"/>
+      <c r="B165" s="151"/>
+      <c r="C165" s="151"/>
+      <c r="D165" s="151"/>
+      <c r="E165" s="151"/>
       <c r="H165"/>
     </row>
     <row r="166" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20204,10 +20468,10 @@
       <c r="H168"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="148" t="s">
+      <c r="A169" s="151" t="s">
         <v>507</v>
       </c>
-      <c r="B169" s="148"/>
+      <c r="B169" s="151"/>
       <c r="H169"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -20242,13 +20506,13 @@
       <c r="B173" s="55"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="148" t="s">
+      <c r="A174" s="151" t="s">
         <v>222</v>
       </c>
-      <c r="B174" s="148"/>
-      <c r="C174" s="148"/>
-      <c r="D174" s="148"/>
-      <c r="E174" s="148"/>
+      <c r="B174" s="151"/>
+      <c r="C174" s="151"/>
+      <c r="D174" s="151"/>
+      <c r="E174" s="151"/>
     </row>
     <row r="175" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="46" t="s">
@@ -20268,13 +20532,13 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="148" t="s">
+      <c r="A178" s="151" t="s">
         <v>215</v>
       </c>
-      <c r="B178" s="148"/>
-      <c r="C178" s="148"/>
-      <c r="D178" s="148"/>
-      <c r="E178" s="148"/>
+      <c r="B178" s="151"/>
+      <c r="C178" s="151"/>
+      <c r="D178" s="151"/>
+      <c r="E178" s="151"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="47" t="s">
@@ -20302,13 +20566,13 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="148" t="s">
+      <c r="A183" s="151" t="s">
         <v>217</v>
       </c>
-      <c r="B183" s="148"/>
-      <c r="C183" s="148"/>
-      <c r="D183" s="148"/>
-      <c r="E183" s="148"/>
+      <c r="B183" s="151"/>
+      <c r="C183" s="151"/>
+      <c r="D183" s="151"/>
+      <c r="E183" s="151"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="74" t="s">
@@ -20342,13 +20606,13 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="148" t="s">
+      <c r="A188" s="151" t="s">
         <v>234</v>
       </c>
-      <c r="B188" s="148"/>
-      <c r="C188" s="148"/>
-      <c r="D188" s="148"/>
-      <c r="E188" s="148"/>
+      <c r="B188" s="151"/>
+      <c r="C188" s="151"/>
+      <c r="D188" s="151"/>
+      <c r="E188" s="151"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="44" t="s">
@@ -20408,6 +20672,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A188:E188"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -20422,12 +20692,6 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A188:E188"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swenzel\Dropbox (Energy Innovation)\My PC (energy044)\Documents\GitHub_Repositories\eps-indonesia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1D6BFF-AEC5-4733-ACD4-02306DF6AF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FEACAA-CEFB-4224-AE86-BFC0E31BE61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="10" r:id="rId1"/>
@@ -2457,9 +2457,6 @@
     <t>**Description:** This policy causes additional transmission capacity to be built relative to the BAU case.  Transmission increases the flexibility of the grid, allowing for the integration of more wind and solar PV, if the electricity system is flexibility-constrained. // **Guidance for setting values:** Indonesia has roughly 7.1 million kV-km of transmission lines with little growth projected in the BAU case.</t>
   </si>
   <si>
-    <t>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Coal:** Indonesia had slightly over 27 GW of coal power plants in 2016, so at a setting of 3000 MW/year retired early, all existing coal plants would retire in 10 years.</t>
-  </si>
-  <si>
     <t>**Description:** This policy represents regulations that cause more demand response (DR) capacity to be added to the electric grid.  Demand response provides flexibility that allows for the integration of more wind and solar PV, if the electricity system is flexibility-constrained. // **Guidance for setting values:** A 100% setting provides for an additional 5.97 GW of demand response capacity in 2050 (on top of a BAU quantity of 0 GW).</t>
   </si>
   <si>
@@ -2496,9 +2493,6 @@
     <t xml:space="preserve">**Description:** Transportation Demand Management (TDM) represents a set of policies aimed at reducing demand for certain modes of travel. Passenger Transportation Demand Management (TDM) is aimed at reducing demand for passenger travel, especially in private automobiles.  These policies can include improved public transit systems, more walking and bike paths, zoning for higher density along transit corridors, zoning for mixed-use developments, roadway and congestion pricing, and increased parking fees.  Freight Transportation Demand Management (TDM) represents a set of policies aimed primarily at shifting freight from trucks to rail.  We use the International Energy Agency's BLUE Shifts scenario (from the 2009 report "Transport, Energy, and CO2: Moving Toward Sustainability") to represent passenger TDM policies as a whole. // **Guidance for setting values:** A value of "100%" fully implements the IEA's BLUE Shifts scenario by 2050, which is in line with IEA expectations (since their scenario assumes implementation by 2050). </t>
   </si>
   <si>
-    <t>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** This policy is phased in linearly from 2017-2050. // **Guidance for setting values:** Indonesia recently enacted a fuel economy standard for LDVs of 20 km per liter.  No future scheduled increase in that standard has yet been enacted. // **HDVs:** Indonesia has enacted the Euro II standards for truck emissions but has no specific standard for truck fuel economy.  New freight HDV fuel economy is not projected to change significantly from 2016-2050 in the BAU case. // **Aircraft:** Indonesia currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 26% from 2016-2050 in the BAU case. // **Rail:** Indonesia currently does not have fuel economy standards for trains.  In the absence of standards, new freight train fuel economy is projected to improve roughly 30% from 2016-2050 in the BAU case. // **Ships:** Indonesia currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 31% from 2016-2050 in the BAU case. // **Motorbikes:** Indonesia currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2016-2050 in the BAU case.</t>
-  </si>
-  <si>
     <t>**Description:** This policy implements a fee on sales of inefficient light-duty vehicles (LDVs; namely cars and SUVs) that is rebated to buyers of efficient LDVs.  The feebate policy is revenue-neutral, as the pivot point (the efficiency level that incurs neither a rebate nor a fee) is set such that the total of all fees equals the total of all rebates. // **Guidance for setting values:** The feebate is set as a fraction of the global best practice feebate rate.  The global best practice feebate rate is $2000 per (hundredth gal/mile), which equates to a $2000 fee on an LDV that gets 20 mpg if the pivot point is 25 mpg.  (To see this: 20 mpg is 0.04 gpm.  25 mpg is 0.05 gpm.  The difference is -.01 gpm.  So in order to levy a $2000 fee on the 20 mpg car when the pivot point is 25 mpg, we need a rate of $2000/.01 gpm.)</t>
   </si>
   <si>
@@ -2506,6 +2500,12 @@
   </si>
   <si>
     <t>This tab contains information about each policy that does not vary by subscripted element of that policy.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Indonesia recently enacted a fuel economy standard for LDVs of 20 km per liter.  No future scheduled increase in that standard has yet been enacted. // **HDVs:** Indonesia has enacted the Euro II standards for truck emissions but has no specific standard for truck fuel economy.  New freight HDV fuel economy is not projected to change significantly from 2016-2050 in the BAU case. // **Aircraft:** Indonesia currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 26% from 2016-2050 in the BAU case. // **Rail:** Indonesia currently does not have fuel economy standards for trains.  In the absence of standards, new freight train fuel economy is projected to improve roughly 30% from 2016-2050 in the BAU case. // **Ships:** Indonesia currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 31% from 2016-2050 in the BAU case. // **Motorbikes:** Indonesia currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2016-2050 in the BAU case.</t>
+  </si>
+  <si>
+    <t>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** Indonesia had slightly over 27 GW of coal power plants in 2016, so at a setting of 3000 MW/year retired early, all existing coal plants would retire in 10 years.</t>
   </si>
 </sst>
 </file>
@@ -2520,7 +2520,7 @@
     <numFmt numFmtId="167" formatCode="###0;###0"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2659,12 +2659,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3414,21 +3408,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3477,8 +3456,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4145,8 +4139,8 @@
   </sheetPr>
   <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="G17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -4163,62 +4157,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A1" s="172" t="s">
-        <v>718</v>
-      </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
+      <c r="A1" s="167" t="s">
+        <v>716</v>
+      </c>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.75">
-      <c r="A2" s="171" t="s">
-        <v>717</v>
-      </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
+      <c r="A2" s="166" t="s">
+        <v>715</v>
+      </c>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
     </row>
     <row r="3" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="167" t="s">
+      <c r="C3" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="169" t="s">
+      <c r="D3" s="164" t="s">
         <v>446</v>
       </c>
-      <c r="E3" s="167" t="s">
+      <c r="E3" s="162" t="s">
         <v>605</v>
       </c>
-      <c r="F3" s="168" t="s">
+      <c r="F3" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="168" t="s">
+      <c r="G3" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="168" t="s">
+      <c r="H3" s="163" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="167" t="s">
+      <c r="I3" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="167" t="s">
+      <c r="J3" s="162" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4235,7 +4229,7 @@
       <c r="D4" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="161"/>
+      <c r="E4" s="156"/>
       <c r="F4" s="121">
         <v>0</v>
       </c>
@@ -4249,7 +4243,7 @@
         <v>591</v>
       </c>
       <c r="J4" s="124" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="171" customHeight="1" x14ac:dyDescent="0.75">
@@ -4265,7 +4259,7 @@
       <c r="D5" s="149" t="s">
         <v>447</v>
       </c>
-      <c r="E5" s="161"/>
+      <c r="E5" s="156"/>
       <c r="F5" s="121">
         <v>0</v>
       </c>
@@ -4278,8 +4272,8 @@
       <c r="I5" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="J5" s="162" t="s">
-        <v>715</v>
+      <c r="J5" s="157" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.75">
@@ -4295,7 +4289,7 @@
       <c r="D6" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="161"/>
+      <c r="E6" s="156"/>
       <c r="F6" s="23">
         <v>0</v>
       </c>
@@ -4309,7 +4303,7 @@
         <v>47</v>
       </c>
       <c r="J6" s="124" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.75">
@@ -4325,7 +4319,7 @@
       <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="160"/>
+      <c r="E7" s="155"/>
       <c r="F7" s="121">
         <v>0</v>
       </c>
@@ -4339,7 +4333,7 @@
         <v>46</v>
       </c>
       <c r="J7" s="95" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="135.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -4355,7 +4349,7 @@
       <c r="D8" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="161"/>
+      <c r="E8" s="156"/>
       <c r="F8" s="21">
         <v>0</v>
       </c>
@@ -4368,8 +4362,8 @@
       <c r="I8" s="125" t="s">
         <v>140</v>
       </c>
-      <c r="J8" s="162" t="s">
-        <v>712</v>
+      <c r="J8" s="157" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -4385,13 +4379,13 @@
       <c r="D9" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="161"/>
+      <c r="E9" s="156"/>
       <c r="F9" s="103"/>
       <c r="G9" s="103"/>
       <c r="H9" s="103"/>
       <c r="I9" s="95"/>
-      <c r="J9" s="162" t="s">
-        <v>711</v>
+      <c r="J9" s="157" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.75">
@@ -4407,7 +4401,7 @@
       <c r="D10" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="161"/>
+      <c r="E10" s="156"/>
       <c r="F10" s="125">
         <v>0</v>
       </c>
@@ -4421,7 +4415,7 @@
         <v>38</v>
       </c>
       <c r="J10" s="124" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.75">
@@ -4437,7 +4431,7 @@
       <c r="D11" s="149" t="s">
         <v>448</v>
       </c>
-      <c r="E11" s="161"/>
+      <c r="E11" s="156"/>
       <c r="F11" s="125">
         <v>0</v>
       </c>
@@ -4450,8 +4444,8 @@
       <c r="I11" s="125" t="s">
         <v>314</v>
       </c>
-      <c r="J11" s="162" t="s">
-        <v>709</v>
+      <c r="J11" s="157" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.75">
@@ -4467,7 +4461,7 @@
       <c r="D12" s="149" t="s">
         <v>448</v>
       </c>
-      <c r="E12" s="161"/>
+      <c r="E12" s="156"/>
       <c r="F12" s="95"/>
       <c r="G12" s="103"/>
       <c r="H12" s="97"/>
@@ -4487,7 +4481,7 @@
       <c r="D13" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="161"/>
+      <c r="E13" s="156"/>
       <c r="F13" s="125">
         <v>0</v>
       </c>
@@ -4501,7 +4495,7 @@
         <v>38</v>
       </c>
       <c r="J13" s="124" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="144.75" customHeight="1" x14ac:dyDescent="0.75">
@@ -4517,7 +4511,7 @@
       <c r="D14" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="161"/>
+      <c r="E14" s="156"/>
       <c r="F14" s="21">
         <v>0</v>
       </c>
@@ -4532,7 +4526,7 @@
         <v>45</v>
       </c>
       <c r="J14" s="124" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -4548,13 +4542,13 @@
       <c r="D15" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="161"/>
+      <c r="E15" s="156"/>
       <c r="F15" s="95"/>
       <c r="G15" s="95"/>
       <c r="H15" s="95"/>
       <c r="I15" s="95"/>
       <c r="J15" s="124" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="39.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -4570,7 +4564,7 @@
       <c r="D16" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="E16" s="161"/>
+      <c r="E16" s="156"/>
       <c r="F16" s="3">
         <v>0</v>
       </c>
@@ -4583,8 +4577,8 @@
       <c r="I16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="162" t="s">
-        <v>705</v>
+      <c r="J16" s="157" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -4600,7 +4594,7 @@
       <c r="D17" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E17" s="161"/>
+      <c r="E17" s="156"/>
       <c r="F17" s="100"/>
       <c r="G17" s="100"/>
       <c r="H17" s="100"/>
@@ -4620,7 +4614,7 @@
       <c r="D18" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E18" s="161"/>
+      <c r="E18" s="156"/>
       <c r="F18" s="31">
         <v>-0.5</v>
       </c>
@@ -4634,7 +4628,7 @@
         <v>325</v>
       </c>
       <c r="J18" s="95" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="37.75" customHeight="1" x14ac:dyDescent="0.75">
@@ -4650,7 +4644,7 @@
       <c r="D19" s="125" t="s">
         <v>367</v>
       </c>
-      <c r="E19" s="161"/>
+      <c r="E19" s="156"/>
       <c r="F19" s="125"/>
       <c r="G19" s="125"/>
       <c r="H19" s="125"/>
@@ -4670,7 +4664,7 @@
       <c r="D20" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="161"/>
+      <c r="E20" s="156"/>
       <c r="F20" s="121">
         <v>0</v>
       </c>
@@ -4683,8 +4677,8 @@
       <c r="I20" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="J20" s="162" t="s">
-        <v>703</v>
+      <c r="J20" s="157" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="56" customHeight="1" x14ac:dyDescent="0.75">
@@ -4700,7 +4694,7 @@
       <c r="D21" s="125" t="s">
         <v>155</v>
       </c>
-      <c r="E21" s="161"/>
+      <c r="E21" s="156"/>
       <c r="F21" s="27">
         <v>0</v>
       </c>
@@ -4713,8 +4707,8 @@
       <c r="I21" s="125" t="s">
         <v>236</v>
       </c>
-      <c r="J21" s="162" t="s">
-        <v>702</v>
+      <c r="J21" s="157" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="43.25" customHeight="1" x14ac:dyDescent="0.75">
@@ -4730,7 +4724,7 @@
       <c r="D22" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="161"/>
+      <c r="E22" s="156"/>
       <c r="F22" s="103"/>
       <c r="G22" s="103"/>
       <c r="H22" s="112"/>
@@ -4750,7 +4744,7 @@
       <c r="D23" s="125" t="s">
         <v>159</v>
       </c>
-      <c r="E23" s="161"/>
+      <c r="E23" s="156"/>
       <c r="F23" s="121">
         <v>0</v>
       </c>
@@ -4763,7 +4757,7 @@
       <c r="I23" s="125" t="s">
         <v>160</v>
       </c>
-      <c r="J23" s="162" t="s">
+      <c r="J23" s="157" t="s">
         <v>701</v>
       </c>
     </row>
@@ -4780,7 +4774,7 @@
       <c r="D24" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="161"/>
+      <c r="E24" s="156"/>
       <c r="F24" s="125"/>
       <c r="G24" s="125"/>
       <c r="H24" s="125"/>
@@ -4800,7 +4794,7 @@
       <c r="D25" s="125" t="s">
         <v>462</v>
       </c>
-      <c r="E25" s="161"/>
+      <c r="E25" s="156"/>
       <c r="F25" s="125"/>
       <c r="G25" s="125"/>
       <c r="H25" s="125"/>
@@ -4820,7 +4814,7 @@
       <c r="D26" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="161"/>
+      <c r="E26" s="156"/>
       <c r="F26" s="125"/>
       <c r="G26" s="125"/>
       <c r="H26" s="125"/>
@@ -4840,7 +4834,7 @@
       <c r="D27" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E27" s="166"/>
+      <c r="E27" s="161"/>
       <c r="F27" s="31">
         <v>0</v>
       </c>
@@ -4853,7 +4847,7 @@
       <c r="I27" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="J27" s="162" t="s">
+      <c r="J27" s="157" t="s">
         <v>700</v>
       </c>
     </row>
@@ -4870,7 +4864,7 @@
       <c r="D28" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="E28" s="165"/>
+      <c r="E28" s="160"/>
       <c r="F28" s="31">
         <v>0</v>
       </c>
@@ -4883,7 +4877,7 @@
       <c r="I28" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="J28" s="162" t="s">
+      <c r="J28" s="157" t="s">
         <v>699</v>
       </c>
     </row>
@@ -4900,7 +4894,7 @@
       <c r="D29" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="165"/>
+      <c r="E29" s="160"/>
       <c r="F29" s="21">
         <v>0</v>
       </c>
@@ -4913,7 +4907,7 @@
       <c r="I29" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="J29" s="162" t="s">
+      <c r="J29" s="157" t="s">
         <v>698</v>
       </c>
     </row>
@@ -4930,7 +4924,7 @@
       <c r="D30" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="161"/>
+      <c r="E30" s="156"/>
       <c r="F30" s="3">
         <v>0</v>
       </c>
@@ -4943,7 +4937,7 @@
       <c r="I30" s="101" t="s">
         <v>592</v>
       </c>
-      <c r="J30" s="162" t="s">
+      <c r="J30" s="157" t="s">
         <v>697</v>
       </c>
     </row>
@@ -4960,7 +4954,7 @@
       <c r="D31" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="161"/>
+      <c r="E31" s="156"/>
       <c r="F31" s="21">
         <v>0</v>
       </c>
@@ -4990,7 +4984,7 @@
       <c r="D32" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="161"/>
+      <c r="E32" s="156"/>
       <c r="F32" s="21">
         <v>0</v>
       </c>
@@ -5020,7 +5014,7 @@
       <c r="D33" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="161"/>
+      <c r="E33" s="156"/>
       <c r="F33" s="21">
         <v>0</v>
       </c>
@@ -5050,7 +5044,7 @@
       <c r="D34" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="E34" s="161"/>
+      <c r="E34" s="156"/>
       <c r="F34" s="23">
         <v>0</v>
       </c>
@@ -5063,7 +5057,7 @@
       <c r="I34" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="J34" s="162" t="s">
+      <c r="J34" s="157" t="s">
         <v>693</v>
       </c>
     </row>
@@ -5080,7 +5074,7 @@
       <c r="D35" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="164"/>
+      <c r="E35" s="159"/>
       <c r="F35" s="21">
         <v>0</v>
       </c>
@@ -5110,14 +5104,14 @@
       <c r="D36" s="125" t="s">
         <v>451</v>
       </c>
-      <c r="E36" s="164"/>
+      <c r="E36" s="159"/>
       <c r="F36" s="21">
         <v>0</v>
       </c>
       <c r="G36" s="21">
         <v>0.25</v>
       </c>
-      <c r="H36" s="155">
+      <c r="H36" s="150">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I36" s="125" t="s">
@@ -5140,14 +5134,14 @@
       <c r="D37" s="125" t="s">
         <v>451</v>
       </c>
-      <c r="E37" s="164"/>
+      <c r="E37" s="159"/>
       <c r="F37" s="21">
         <v>0</v>
       </c>
       <c r="G37" s="21">
         <v>0.25</v>
       </c>
-      <c r="H37" s="155">
+      <c r="H37" s="150">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I37" s="125" t="s">
@@ -5170,7 +5164,7 @@
       <c r="D38" s="149" t="s">
         <v>452</v>
       </c>
-      <c r="E38" s="164"/>
+      <c r="E38" s="159"/>
       <c r="F38" s="21">
         <v>0</v>
       </c>
@@ -5200,7 +5194,7 @@
       <c r="D39" s="149" t="s">
         <v>452</v>
       </c>
-      <c r="E39" s="161"/>
+      <c r="E39" s="156"/>
       <c r="F39" s="21">
         <v>0</v>
       </c>
@@ -5230,7 +5224,7 @@
       <c r="D40" s="125" t="s">
         <v>443</v>
       </c>
-      <c r="E40" s="161"/>
+      <c r="E40" s="156"/>
       <c r="F40" s="21">
         <v>0</v>
       </c>
@@ -5260,7 +5254,7 @@
       <c r="D41" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="161"/>
+      <c r="E41" s="156"/>
       <c r="F41" s="21">
         <v>0</v>
       </c>
@@ -5290,7 +5284,7 @@
       <c r="D42" s="125" t="s">
         <v>181</v>
       </c>
-      <c r="E42" s="161"/>
+      <c r="E42" s="156"/>
       <c r="F42" s="21">
         <v>0</v>
       </c>
@@ -5320,7 +5314,7 @@
       <c r="D43" s="125" t="s">
         <v>311</v>
       </c>
-      <c r="E43" s="161"/>
+      <c r="E43" s="156"/>
       <c r="F43" s="103">
         <v>0</v>
       </c>
@@ -5350,7 +5344,7 @@
       <c r="D44" s="125" t="s">
         <v>546</v>
       </c>
-      <c r="E44" s="161"/>
+      <c r="E44" s="156"/>
       <c r="F44" s="103">
         <v>0</v>
       </c>
@@ -5380,12 +5374,12 @@
       <c r="D45" s="125" t="s">
         <v>235</v>
       </c>
-      <c r="E45" s="161"/>
+      <c r="E45" s="156"/>
       <c r="F45" s="103"/>
       <c r="G45" s="97"/>
       <c r="H45" s="97"/>
       <c r="I45" s="95"/>
-      <c r="J45" s="162"/>
+      <c r="J45" s="157"/>
     </row>
     <row r="46" spans="1:10" ht="50.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A46" s="125" t="s">
@@ -5400,12 +5394,12 @@
       <c r="D46" s="125" t="s">
         <v>178</v>
       </c>
-      <c r="E46" s="161"/>
+      <c r="E46" s="156"/>
       <c r="F46" s="103"/>
       <c r="G46" s="97"/>
       <c r="H46" s="97"/>
       <c r="I46" s="95"/>
-      <c r="J46" s="162"/>
+      <c r="J46" s="157"/>
     </row>
     <row r="47" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A47" s="125" t="s">
@@ -5420,12 +5414,12 @@
       <c r="D47" s="125" t="s">
         <v>182</v>
       </c>
-      <c r="E47" s="161"/>
+      <c r="E47" s="156"/>
       <c r="F47" s="103"/>
       <c r="G47" s="97"/>
       <c r="H47" s="97"/>
       <c r="I47" s="95"/>
-      <c r="J47" s="162"/>
+      <c r="J47" s="157"/>
     </row>
     <row r="48" spans="1:10" ht="53.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A48" s="125" t="s">
@@ -5440,7 +5434,7 @@
       <c r="D48" s="125" t="s">
         <v>180</v>
       </c>
-      <c r="E48" s="161"/>
+      <c r="E48" s="156"/>
       <c r="F48" s="21">
         <v>0</v>
       </c>
@@ -5470,7 +5464,7 @@
       <c r="D49" s="125" t="s">
         <v>544</v>
       </c>
-      <c r="E49" s="161"/>
+      <c r="E49" s="156"/>
       <c r="F49" s="103">
         <v>0</v>
       </c>
@@ -5500,7 +5494,7 @@
       <c r="D50" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="E50" s="161"/>
+      <c r="E50" s="156"/>
       <c r="F50" s="21">
         <v>0</v>
       </c>
@@ -5530,12 +5524,12 @@
       <c r="D51" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="161"/>
+      <c r="E51" s="156"/>
       <c r="F51" s="100"/>
       <c r="G51" s="100"/>
       <c r="H51" s="100"/>
       <c r="I51" s="101"/>
-      <c r="J51" s="163"/>
+      <c r="J51" s="158"/>
     </row>
     <row r="52" spans="1:10" ht="41.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A52" s="3" t="s">
@@ -5550,12 +5544,12 @@
       <c r="D52" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E52" s="161"/>
+      <c r="E52" s="156"/>
       <c r="F52" s="100"/>
       <c r="G52" s="100"/>
       <c r="H52" s="100"/>
       <c r="I52" s="95"/>
-      <c r="J52" s="163"/>
+      <c r="J52" s="158"/>
     </row>
     <row r="53" spans="1:10" ht="56" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A53" s="125" t="s">
@@ -5570,7 +5564,7 @@
       <c r="D53" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="E53" s="161"/>
+      <c r="E53" s="156"/>
       <c r="F53" s="121">
         <v>0</v>
       </c>
@@ -5600,7 +5594,7 @@
       <c r="D54" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="161"/>
+      <c r="E54" s="156"/>
       <c r="F54" s="125">
         <v>0</v>
       </c>
@@ -5613,7 +5607,7 @@
       <c r="I54" s="95" t="s">
         <v>593</v>
       </c>
-      <c r="J54" s="162" t="s">
+      <c r="J54" s="157" t="s">
         <v>678</v>
       </c>
     </row>
@@ -5630,7 +5624,7 @@
       <c r="D55" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="E55" s="161"/>
+      <c r="E55" s="156"/>
       <c r="F55" s="31">
         <v>0</v>
       </c>
@@ -5643,7 +5637,7 @@
       <c r="I55" s="125" t="s">
         <v>186</v>
       </c>
-      <c r="J55" s="162" t="s">
+      <c r="J55" s="157" t="s">
         <v>677</v>
       </c>
     </row>
@@ -5660,7 +5654,7 @@
       <c r="D56" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E56" s="161"/>
+      <c r="E56" s="156"/>
       <c r="F56" s="125"/>
       <c r="G56" s="125"/>
       <c r="H56" s="125"/>
@@ -5680,7 +5674,7 @@
       <c r="D57" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="161"/>
+      <c r="E57" s="156"/>
       <c r="F57" s="121">
         <v>0</v>
       </c>
@@ -5693,7 +5687,7 @@
       <c r="I57" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="J57" s="162" t="s">
+      <c r="J57" s="157" t="s">
         <v>676</v>
       </c>
     </row>
@@ -5710,7 +5704,7 @@
       <c r="D58" s="125" t="s">
         <v>454</v>
       </c>
-      <c r="E58" s="160"/>
+      <c r="E58" s="155"/>
       <c r="F58" s="23">
         <v>0</v>
       </c>
@@ -5740,7 +5734,7 @@
       <c r="D59" s="125" t="s">
         <v>454</v>
       </c>
-      <c r="E59" s="161"/>
+      <c r="E59" s="156"/>
       <c r="F59" s="23">
         <v>0</v>
       </c>
@@ -5770,7 +5764,7 @@
       <c r="D60" s="125" t="s">
         <v>454</v>
       </c>
-      <c r="E60" s="160"/>
+      <c r="E60" s="155"/>
       <c r="F60" s="23">
         <v>0</v>
       </c>
@@ -5800,7 +5794,7 @@
       <c r="D61" s="125" t="s">
         <v>454</v>
       </c>
-      <c r="E61" s="160"/>
+      <c r="E61" s="155"/>
       <c r="F61" s="23">
         <v>0</v>
       </c>
@@ -5830,7 +5824,7 @@
       <c r="D62" s="125" t="s">
         <v>454</v>
       </c>
-      <c r="E62" s="160"/>
+      <c r="E62" s="155"/>
       <c r="F62" s="23">
         <v>0</v>
       </c>
@@ -5860,7 +5854,7 @@
       <c r="D63" s="125" t="s">
         <v>455</v>
       </c>
-      <c r="E63" s="160"/>
+      <c r="E63" s="155"/>
       <c r="F63" s="23">
         <v>0</v>
       </c>
@@ -5890,7 +5884,7 @@
       <c r="D64" s="125" t="s">
         <v>455</v>
       </c>
-      <c r="E64" s="160"/>
+      <c r="E64" s="155"/>
       <c r="F64" s="23">
         <v>0</v>
       </c>
@@ -5920,7 +5914,7 @@
       <c r="D65" s="125" t="s">
         <v>455</v>
       </c>
-      <c r="E65" s="160"/>
+      <c r="E65" s="155"/>
       <c r="F65" s="23">
         <v>0</v>
       </c>
@@ -5950,7 +5944,7 @@
       <c r="D66" s="125" t="s">
         <v>455</v>
       </c>
-      <c r="E66" s="161"/>
+      <c r="E66" s="156"/>
       <c r="F66" s="23">
         <v>0</v>
       </c>
@@ -5980,7 +5974,7 @@
       <c r="D67" s="125" t="s">
         <v>455</v>
       </c>
-      <c r="E67" s="160"/>
+      <c r="E67" s="155"/>
       <c r="F67" s="23">
         <v>0</v>
       </c>
@@ -6003,10 +5997,10 @@
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="158"/>
-      <c r="G68" s="158"/>
-      <c r="H68" s="158"/>
-      <c r="I68" s="157"/>
+      <c r="F68" s="153"/>
+      <c r="G68" s="153"/>
+      <c r="H68" s="153"/>
+      <c r="I68" s="152"/>
       <c r="J68" s="130"/>
     </row>
     <row r="69" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.75">
@@ -6018,7 +6012,7 @@
       <c r="F69" s="125"/>
       <c r="G69" s="125"/>
       <c r="H69" s="125"/>
-      <c r="I69" s="157"/>
+      <c r="I69" s="152"/>
       <c r="J69" s="130"/>
     </row>
     <row r="70" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.75">
@@ -6039,9 +6033,9 @@
       <c r="C71" s="125"/>
       <c r="D71" s="125"/>
       <c r="E71" s="125"/>
-      <c r="F71" s="156"/>
-      <c r="G71" s="156"/>
-      <c r="H71" s="159"/>
+      <c r="F71" s="151"/>
+      <c r="G71" s="151"/>
+      <c r="H71" s="154"/>
       <c r="I71" s="130"/>
       <c r="J71" s="130"/>
     </row>
@@ -6053,7 +6047,7 @@
       <c r="E72" s="125"/>
       <c r="F72" s="23"/>
       <c r="G72" s="23"/>
-      <c r="H72" s="156"/>
+      <c r="H72" s="151"/>
       <c r="I72" s="130"/>
       <c r="J72" s="130"/>
     </row>
@@ -6065,7 +6059,7 @@
       <c r="E73" s="125"/>
       <c r="F73" s="23"/>
       <c r="G73" s="23"/>
-      <c r="H73" s="156"/>
+      <c r="H73" s="151"/>
       <c r="I73" s="130"/>
       <c r="J73" s="130"/>
     </row>
@@ -6077,7 +6071,7 @@
       <c r="E74" s="125"/>
       <c r="F74" s="23"/>
       <c r="G74" s="23"/>
-      <c r="H74" s="156"/>
+      <c r="H74" s="151"/>
       <c r="I74" s="130"/>
       <c r="J74" s="130"/>
     </row>
@@ -6089,7 +6083,7 @@
       <c r="E75" s="125"/>
       <c r="F75" s="23"/>
       <c r="G75" s="23"/>
-      <c r="H75" s="156"/>
+      <c r="H75" s="151"/>
       <c r="I75" s="130"/>
       <c r="J75" s="130"/>
     </row>
@@ -6101,7 +6095,7 @@
       <c r="E76" s="125"/>
       <c r="F76" s="23"/>
       <c r="G76" s="23"/>
-      <c r="H76" s="156"/>
+      <c r="H76" s="151"/>
       <c r="I76" s="130"/>
       <c r="J76" s="130"/>
     </row>
@@ -6110,12 +6104,12 @@
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
-      <c r="E77" s="158"/>
+      <c r="E77" s="153"/>
       <c r="F77" s="23"/>
       <c r="G77" s="23"/>
-      <c r="H77" s="156"/>
+      <c r="H77" s="151"/>
       <c r="I77" s="130"/>
-      <c r="J77" s="157"/>
+      <c r="J77" s="152"/>
     </row>
     <row r="78" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A78" s="125"/>
@@ -6125,7 +6119,7 @@
       <c r="E78" s="125"/>
       <c r="F78" s="23"/>
       <c r="G78" s="23"/>
-      <c r="H78" s="156"/>
+      <c r="H78" s="151"/>
       <c r="I78" s="130"/>
       <c r="J78" s="130"/>
     </row>
@@ -6137,7 +6131,7 @@
       <c r="E79" s="125"/>
       <c r="F79" s="23"/>
       <c r="G79" s="23"/>
-      <c r="H79" s="156"/>
+      <c r="H79" s="151"/>
       <c r="I79" s="130"/>
       <c r="J79" s="130"/>
     </row>
@@ -6149,7 +6143,7 @@
       <c r="E80" s="125"/>
       <c r="F80" s="23"/>
       <c r="G80" s="23"/>
-      <c r="H80" s="156"/>
+      <c r="H80" s="151"/>
       <c r="I80" s="130"/>
       <c r="J80" s="130"/>
     </row>
@@ -6161,7 +6155,7 @@
       <c r="E81" s="125"/>
       <c r="F81" s="23"/>
       <c r="G81" s="23"/>
-      <c r="H81" s="156"/>
+      <c r="H81" s="151"/>
       <c r="I81" s="130"/>
       <c r="J81" s="130"/>
     </row>
@@ -6173,7 +6167,7 @@
       <c r="E82" s="125"/>
       <c r="F82" s="23"/>
       <c r="G82" s="23"/>
-      <c r="H82" s="156"/>
+      <c r="H82" s="151"/>
       <c r="I82" s="130"/>
       <c r="J82" s="130"/>
     </row>
@@ -6184,8 +6178,8 @@
       <c r="D83" s="125"/>
       <c r="E83" s="125"/>
       <c r="F83" s="23"/>
-      <c r="G83" s="155"/>
-      <c r="H83" s="155"/>
+      <c r="G83" s="150"/>
+      <c r="H83" s="150"/>
       <c r="I83" s="125"/>
       <c r="J83" s="125"/>
     </row>
@@ -6209,7 +6203,7 @@
       <c r="E85" s="125"/>
       <c r="F85" s="23"/>
       <c r="G85" s="23"/>
-      <c r="H85" s="156"/>
+      <c r="H85" s="151"/>
       <c r="I85" s="130"/>
       <c r="J85" s="130"/>
     </row>
@@ -6219,9 +6213,9 @@
       <c r="C86" s="125"/>
       <c r="D86" s="125"/>
       <c r="E86" s="125"/>
-      <c r="F86" s="155"/>
-      <c r="G86" s="155"/>
-      <c r="H86" s="155"/>
+      <c r="F86" s="150"/>
+      <c r="G86" s="150"/>
+      <c r="H86" s="150"/>
       <c r="I86" s="125"/>
       <c r="J86" s="130"/>
     </row>
@@ -6233,7 +6227,7 @@
       <c r="E87" s="125"/>
       <c r="F87" s="23"/>
       <c r="G87" s="23"/>
-      <c r="H87" s="156"/>
+      <c r="H87" s="151"/>
       <c r="I87" s="130"/>
       <c r="J87" s="130"/>
     </row>
@@ -6245,7 +6239,7 @@
       <c r="E88" s="125"/>
       <c r="F88" s="23"/>
       <c r="G88" s="23"/>
-      <c r="H88" s="156"/>
+      <c r="H88" s="151"/>
       <c r="I88" s="130"/>
       <c r="J88" s="130"/>
     </row>
@@ -6257,7 +6251,7 @@
       <c r="E89" s="125"/>
       <c r="F89" s="23"/>
       <c r="G89" s="23"/>
-      <c r="H89" s="156"/>
+      <c r="H89" s="151"/>
       <c r="I89" s="130"/>
       <c r="J89" s="130"/>
     </row>
@@ -6269,7 +6263,7 @@
       <c r="E90" s="125"/>
       <c r="F90" s="23"/>
       <c r="G90" s="23"/>
-      <c r="H90" s="156"/>
+      <c r="H90" s="151"/>
       <c r="I90" s="130"/>
       <c r="J90" s="130"/>
     </row>
@@ -6281,7 +6275,7 @@
       <c r="E91" s="125"/>
       <c r="F91" s="23"/>
       <c r="G91" s="23"/>
-      <c r="H91" s="155"/>
+      <c r="H91" s="150"/>
       <c r="I91" s="125"/>
       <c r="J91" s="125"/>
     </row>
@@ -6427,7 +6421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q263" sqref="Q263"/>
     </sheetView>
@@ -6553,7 +6547,7 @@
       <c r="P2" s="124" t="s">
         <v>591</v>
       </c>
-      <c r="Q2" s="173" t="str">
+      <c r="Q2" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C2,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy implements a fee on sales of inefficient light-duty vehicles (LDVs; namely cars and SUVs) that is rebated to buyers of efficient LDVs.  The feebate policy is revenue-neutral, as the pivot point (the efficiency level that incurs neither a rebate nor a fee) is set such that the total of all fees equals the total of all rebates. // **Guidance for setting values:** The feebate is set as a fraction of the global best practice feebate rate.  The global best practice feebate rate is $2000 per (hundredth gal/mile), which equates to a $2000 fee on an LDV that gets 20 mpg if the pivot point is 25 mpg.  (To see this: 20 mpg is 0.04 gpm.  25 mpg is 0.05 gpm.  The difference is -.01 gpm.  So in order to levy a $2000 fee on the 20 mpg car when the pivot point is 25 mpg, we need a rate of $2000/.01 gpm.)</v>
       </c>
@@ -6611,9 +6605,9 @@
       <c r="P3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="Q3" s="173" t="str">
+      <c r="Q3" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C3,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** This policy is phased in linearly from 2017-2050. // **Guidance for setting values:** Indonesia recently enacted a fuel economy standard for LDVs of 20 km per liter.  No future scheduled increase in that standard has yet been enacted. // **HDVs:** Indonesia has enacted the Euro II standards for truck emissions but has no specific standard for truck fuel economy.  New freight HDV fuel economy is not projected to change significantly from 2016-2050 in the BAU case. // **Aircraft:** Indonesia currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 26% from 2016-2050 in the BAU case. // **Rail:** Indonesia currently does not have fuel economy standards for trains.  In the absence of standards, new freight train fuel economy is projected to improve roughly 30% from 2016-2050 in the BAU case. // **Ships:** Indonesia currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 31% from 2016-2050 in the BAU case. // **Motorbikes:** Indonesia currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2016-2050 in the BAU case.</v>
+        <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Indonesia recently enacted a fuel economy standard for LDVs of 20 km per liter.  No future scheduled increase in that standard has yet been enacted. // **HDVs:** Indonesia has enacted the Euro II standards for truck emissions but has no specific standard for truck fuel economy.  New freight HDV fuel economy is not projected to change significantly from 2016-2050 in the BAU case. // **Aircraft:** Indonesia currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 26% from 2016-2050 in the BAU case. // **Rail:** Indonesia currently does not have fuel economy standards for trains.  In the absence of standards, new freight train fuel economy is projected to improve roughly 30% from 2016-2050 in the BAU case. // **Ships:** Indonesia currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 31% from 2016-2050 in the BAU case. // **Motorbikes:** Indonesia currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2016-2050 in the BAU case.</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>241</v>
@@ -6677,9 +6671,9 @@
         <f t="shared" si="2"/>
         <v>% increase in miles/gal</v>
       </c>
-      <c r="Q4" s="173" t="str">
+      <c r="Q4" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C4,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** This policy is phased in linearly from 2017-2050. // **Guidance for setting values:** Indonesia recently enacted a fuel economy standard for LDVs of 20 km per liter.  No future scheduled increase in that standard has yet been enacted. // **HDVs:** Indonesia has enacted the Euro II standards for truck emissions but has no specific standard for truck fuel economy.  New freight HDV fuel economy is not projected to change significantly from 2016-2050 in the BAU case. // **Aircraft:** Indonesia currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 26% from 2016-2050 in the BAU case. // **Rail:** Indonesia currently does not have fuel economy standards for trains.  In the absence of standards, new freight train fuel economy is projected to improve roughly 30% from 2016-2050 in the BAU case. // **Ships:** Indonesia currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 31% from 2016-2050 in the BAU case. // **Motorbikes:** Indonesia currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2016-2050 in the BAU case.</v>
+        <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Indonesia recently enacted a fuel economy standard for LDVs of 20 km per liter.  No future scheduled increase in that standard has yet been enacted. // **HDVs:** Indonesia has enacted the Euro II standards for truck emissions but has no specific standard for truck fuel economy.  New freight HDV fuel economy is not projected to change significantly from 2016-2050 in the BAU case. // **Aircraft:** Indonesia currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 26% from 2016-2050 in the BAU case. // **Rail:** Indonesia currently does not have fuel economy standards for trains.  In the absence of standards, new freight train fuel economy is projected to improve roughly 30% from 2016-2050 in the BAU case. // **Ships:** Indonesia currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 31% from 2016-2050 in the BAU case. // **Motorbikes:** Indonesia currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2016-2050 in the BAU case.</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>241</v>
@@ -6744,9 +6738,9 @@
         <f t="shared" si="2"/>
         <v>% increase in miles/gal</v>
       </c>
-      <c r="Q5" s="173" t="str">
+      <c r="Q5" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C5,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** This policy is phased in linearly from 2017-2050. // **Guidance for setting values:** Indonesia recently enacted a fuel economy standard for LDVs of 20 km per liter.  No future scheduled increase in that standard has yet been enacted. // **HDVs:** Indonesia has enacted the Euro II standards for truck emissions but has no specific standard for truck fuel economy.  New freight HDV fuel economy is not projected to change significantly from 2016-2050 in the BAU case. // **Aircraft:** Indonesia currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 26% from 2016-2050 in the BAU case. // **Rail:** Indonesia currently does not have fuel economy standards for trains.  In the absence of standards, new freight train fuel economy is projected to improve roughly 30% from 2016-2050 in the BAU case. // **Ships:** Indonesia currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 31% from 2016-2050 in the BAU case. // **Motorbikes:** Indonesia currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2016-2050 in the BAU case.</v>
+        <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Indonesia recently enacted a fuel economy standard for LDVs of 20 km per liter.  No future scheduled increase in that standard has yet been enacted. // **HDVs:** Indonesia has enacted the Euro II standards for truck emissions but has no specific standard for truck fuel economy.  New freight HDV fuel economy is not projected to change significantly from 2016-2050 in the BAU case. // **Aircraft:** Indonesia currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 26% from 2016-2050 in the BAU case. // **Rail:** Indonesia currently does not have fuel economy standards for trains.  In the absence of standards, new freight train fuel economy is projected to improve roughly 30% from 2016-2050 in the BAU case. // **Ships:** Indonesia currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 31% from 2016-2050 in the BAU case. // **Motorbikes:** Indonesia currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2016-2050 in the BAU case.</v>
       </c>
       <c r="R5" s="6" t="s">
         <v>241</v>
@@ -6811,9 +6805,9 @@
         <f t="shared" si="2"/>
         <v>% increase in miles/gal</v>
       </c>
-      <c r="Q6" s="173" t="str">
+      <c r="Q6" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C6,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** This policy is phased in linearly from 2017-2050. // **Guidance for setting values:** Indonesia recently enacted a fuel economy standard for LDVs of 20 km per liter.  No future scheduled increase in that standard has yet been enacted. // **HDVs:** Indonesia has enacted the Euro II standards for truck emissions but has no specific standard for truck fuel economy.  New freight HDV fuel economy is not projected to change significantly from 2016-2050 in the BAU case. // **Aircraft:** Indonesia currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 26% from 2016-2050 in the BAU case. // **Rail:** Indonesia currently does not have fuel economy standards for trains.  In the absence of standards, new freight train fuel economy is projected to improve roughly 30% from 2016-2050 in the BAU case. // **Ships:** Indonesia currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 31% from 2016-2050 in the BAU case. // **Motorbikes:** Indonesia currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2016-2050 in the BAU case.</v>
+        <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Indonesia recently enacted a fuel economy standard for LDVs of 20 km per liter.  No future scheduled increase in that standard has yet been enacted. // **HDVs:** Indonesia has enacted the Euro II standards for truck emissions but has no specific standard for truck fuel economy.  New freight HDV fuel economy is not projected to change significantly from 2016-2050 in the BAU case. // **Aircraft:** Indonesia currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 26% from 2016-2050 in the BAU case. // **Rail:** Indonesia currently does not have fuel economy standards for trains.  In the absence of standards, new freight train fuel economy is projected to improve roughly 30% from 2016-2050 in the BAU case. // **Ships:** Indonesia currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 31% from 2016-2050 in the BAU case. // **Motorbikes:** Indonesia currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2016-2050 in the BAU case.</v>
       </c>
       <c r="R6" s="6" t="s">
         <v>241</v>
@@ -6878,9 +6872,9 @@
         <f t="shared" si="2"/>
         <v>% increase in miles/gal</v>
       </c>
-      <c r="Q7" s="173" t="str">
+      <c r="Q7" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C7,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** This policy is phased in linearly from 2017-2050. // **Guidance for setting values:** Indonesia recently enacted a fuel economy standard for LDVs of 20 km per liter.  No future scheduled increase in that standard has yet been enacted. // **HDVs:** Indonesia has enacted the Euro II standards for truck emissions but has no specific standard for truck fuel economy.  New freight HDV fuel economy is not projected to change significantly from 2016-2050 in the BAU case. // **Aircraft:** Indonesia currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 26% from 2016-2050 in the BAU case. // **Rail:** Indonesia currently does not have fuel economy standards for trains.  In the absence of standards, new freight train fuel economy is projected to improve roughly 30% from 2016-2050 in the BAU case. // **Ships:** Indonesia currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 31% from 2016-2050 in the BAU case. // **Motorbikes:** Indonesia currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2016-2050 in the BAU case.</v>
+        <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Indonesia recently enacted a fuel economy standard for LDVs of 20 km per liter.  No future scheduled increase in that standard has yet been enacted. // **HDVs:** Indonesia has enacted the Euro II standards for truck emissions but has no specific standard for truck fuel economy.  New freight HDV fuel economy is not projected to change significantly from 2016-2050 in the BAU case. // **Aircraft:** Indonesia currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 26% from 2016-2050 in the BAU case. // **Rail:** Indonesia currently does not have fuel economy standards for trains.  In the absence of standards, new freight train fuel economy is projected to improve roughly 30% from 2016-2050 in the BAU case. // **Ships:** Indonesia currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 31% from 2016-2050 in the BAU case. // **Motorbikes:** Indonesia currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2016-2050 in the BAU case.</v>
       </c>
       <c r="R7" s="6" t="s">
         <v>241</v>
@@ -6895,7 +6889,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="103.25" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:21" ht="177" x14ac:dyDescent="0.75">
       <c r="A8" s="18" t="str">
         <f>A$3</f>
         <v>Transportation</v>
@@ -6945,9 +6939,9 @@
         <f t="shared" si="2"/>
         <v>% increase in miles/gal</v>
       </c>
-      <c r="Q8" s="173" t="str">
+      <c r="Q8" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C8,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** This policy is phased in linearly from 2017-2050. // **Guidance for setting values:** Indonesia recently enacted a fuel economy standard for LDVs of 20 km per liter.  No future scheduled increase in that standard has yet been enacted. // **HDVs:** Indonesia has enacted the Euro II standards for truck emissions but has no specific standard for truck fuel economy.  New freight HDV fuel economy is not projected to change significantly from 2016-2050 in the BAU case. // **Aircraft:** Indonesia currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 26% from 2016-2050 in the BAU case. // **Rail:** Indonesia currently does not have fuel economy standards for trains.  In the absence of standards, new freight train fuel economy is projected to improve roughly 30% from 2016-2050 in the BAU case. // **Ships:** Indonesia currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 31% from 2016-2050 in the BAU case. // **Motorbikes:** Indonesia currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2016-2050 in the BAU case.</v>
+        <v>**Description:** This policy specifies a percentage improvement in fuel economy (distance traveled on the same quantity of fuel with the same cargo or passenger loading) due to fuel economy standards for newly sold vehicles of the selected type(s) with fossil fuel-burning engines. // **Guidance for setting values:** // **LDVs:** Indonesia recently enacted a fuel economy standard for LDVs of 20 km per liter.  No future scheduled increase in that standard has yet been enacted. // **HDVs:** Indonesia has enacted the Euro II standards for truck emissions but has no specific standard for truck fuel economy.  New freight HDV fuel economy is not projected to change significantly from 2016-2050 in the BAU case. // **Aircraft:** Indonesia currently does not have fuel economy standards for aircraft.  In the absense of standards, new passenger aircraft fuel economy is projected to improve roughly 26% from 2016-2050 in the BAU case. // **Rail:** Indonesia currently does not have fuel economy standards for trains.  In the absence of standards, new freight train fuel economy is projected to improve roughly 30% from 2016-2050 in the BAU case. // **Ships:** Indonesia currently does not have fuel economy standards for ships.  In the absense of standards, new freight ship fuel economy is projected to improve roughly 31% from 2016-2050 in the BAU case. // **Motorbikes:** Indonesia currently does not have fuel economy standards for motorbikes.  In the absense of standards, new motorbike fuel economy is not projected to change significantly from 2016-2050 in the BAU case.</v>
       </c>
       <c r="R8" s="6" t="s">
         <v>241</v>
@@ -6962,7 +6956,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:21" ht="118" x14ac:dyDescent="0.75">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -7003,7 +6997,7 @@
       <c r="P9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" s="173" t="str">
+      <c r="Q9" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C9,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** Transportation Demand Management (TDM) represents a set of policies aimed at reducing demand for certain modes of travel. Passenger Transportation Demand Management (TDM) is aimed at reducing demand for passenger travel, especially in private automobiles.  These policies can include improved public transit systems, more walking and bike paths, zoning for higher density along transit corridors, zoning for mixed-use developments, roadway and congestion pricing, and increased parking fees.  Freight Transportation Demand Management (TDM) represents a set of policies aimed primarily at shifting freight from trucks to rail.  We use the International Energy Agency's BLUE Shifts scenario (from the 2009 report "Transport, Energy, and CO2: Moving Toward Sustainability") to represent passenger TDM policies as a whole. // **Guidance for setting values:** A value of "100%" fully implements the IEA's BLUE Shifts scenario by 2050, which is in line with IEA expectations (since their scenario assumes implementation by 2050). </v>
       </c>
@@ -7017,7 +7011,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="125" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:21" s="125" customFormat="1" ht="118" x14ac:dyDescent="0.75">
       <c r="A10" s="127" t="str">
         <f>A$9</f>
         <v>Transportation</v>
@@ -7067,7 +7061,7 @@
         <f t="shared" si="7"/>
         <v>% of TDM package implemented</v>
       </c>
-      <c r="Q10" s="173" t="str">
+      <c r="Q10" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C10,'Policy Characteristics'!$C:$C,0))</f>
         <v xml:space="preserve">**Description:** Transportation Demand Management (TDM) represents a set of policies aimed at reducing demand for certain modes of travel. Passenger Transportation Demand Management (TDM) is aimed at reducing demand for passenger travel, especially in private automobiles.  These policies can include improved public transit systems, more walking and bike paths, zoning for higher density along transit corridors, zoning for mixed-use developments, roadway and congestion pricing, and increased parking fees.  Freight Transportation Demand Management (TDM) represents a set of policies aimed primarily at shifting freight from trucks to rail.  We use the International Energy Agency's BLUE Shifts scenario (from the 2009 report "Transport, Energy, and CO2: Moving Toward Sustainability") to represent passenger TDM policies as a whole. // **Guidance for setting values:** A value of "100%" fully implements the IEA's BLUE Shifts scenario by 2050, which is in line with IEA expectations (since their scenario assumes implementation by 2050). </v>
       </c>
@@ -7085,7 +7079,7 @@
       </c>
       <c r="U10" s="129"/>
     </row>
-    <row r="11" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:21" ht="118" x14ac:dyDescent="0.75">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -7132,7 +7126,7 @@
       <c r="P11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="173" t="str">
+      <c r="Q11" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C11,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes a fraction of the selected vehicle type(s) using fuels other than electricity to be replaced by electricity-using equivalents.  The percentage specified here refers to the fleet composition in 2050, not sales in 2050. // **Guidance for setting values:** // **Passenger LDVs:** No projections of electric vehicle deployment in Indonesia are availalbe.  For the U.S., in "Forecast of On-Road Electric Transportation in the U.S., 2010-2013" (2013), the Edison Foundation estimates that 2% (low case), 10% (medium case), or 12% (high case) of LDVs will be electric vehicles in 2035 (fifteen years before the end of this model's run). // **Passenger HDVs:** Today, Indonesia does not have any electric buses.  In the U.S., electric buses account for roughly 3-4% of new bus sales today. // **Passenger Rail:** Jakata is building Indonesia's first metro system, with service scheduled to begin in 2018. // **Passenger Motorbikes:** No significant number of electric motorbikes are projected to be used in Indonesia in the BAU case.</v>
       </c>
@@ -7146,7 +7140,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:21" s="12" customFormat="1" ht="118" x14ac:dyDescent="0.75">
       <c r="A12" s="18" t="str">
         <f t="shared" ref="A12:C22" si="9">A$11</f>
         <v>Transportation</v>
@@ -7189,7 +7183,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="Q12" s="173" t="str">
+      <c r="Q12" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C12,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes a fraction of the selected vehicle type(s) using fuels other than electricity to be replaced by electricity-using equivalents.  The percentage specified here refers to the fleet composition in 2050, not sales in 2050. // **Guidance for setting values:** // **Passenger LDVs:** No projections of electric vehicle deployment in Indonesia are availalbe.  For the U.S., in "Forecast of On-Road Electric Transportation in the U.S., 2010-2013" (2013), the Edison Foundation estimates that 2% (low case), 10% (medium case), or 12% (high case) of LDVs will be electric vehicles in 2035 (fifteen years before the end of this model's run). // **Passenger HDVs:** Today, Indonesia does not have any electric buses.  In the U.S., electric buses account for roughly 3-4% of new bus sales today. // **Passenger Rail:** Jakata is building Indonesia's first metro system, with service scheduled to begin in 2018. // **Passenger Motorbikes:** No significant number of electric motorbikes are projected to be used in Indonesia in the BAU case.</v>
       </c>
@@ -7197,7 +7191,7 @@
       <c r="T12" s="37"/>
       <c r="U12" s="51"/>
     </row>
-    <row r="13" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:21" s="12" customFormat="1" ht="118" x14ac:dyDescent="0.75">
       <c r="A13" s="18" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -7253,7 +7247,7 @@
         <f>P$11</f>
         <v>% of non-electric vehicles replaced</v>
       </c>
-      <c r="Q13" s="173" t="str">
+      <c r="Q13" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C13,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes a fraction of the selected vehicle type(s) using fuels other than electricity to be replaced by electricity-using equivalents.  The percentage specified here refers to the fleet composition in 2050, not sales in 2050. // **Guidance for setting values:** // **Passenger LDVs:** No projections of electric vehicle deployment in Indonesia are availalbe.  For the U.S., in "Forecast of On-Road Electric Transportation in the U.S., 2010-2013" (2013), the Edison Foundation estimates that 2% (low case), 10% (medium case), or 12% (high case) of LDVs will be electric vehicles in 2035 (fifteen years before the end of this model's run). // **Passenger HDVs:** Today, Indonesia does not have any electric buses.  In the U.S., electric buses account for roughly 3-4% of new bus sales today. // **Passenger Rail:** Jakata is building Indonesia's first metro system, with service scheduled to begin in 2018. // **Passenger Motorbikes:** No significant number of electric motorbikes are projected to be used in Indonesia in the BAU case.</v>
       </c>
@@ -7268,7 +7262,7 @@
       </c>
       <c r="U13" s="50"/>
     </row>
-    <row r="14" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:21" s="12" customFormat="1" ht="118" x14ac:dyDescent="0.75">
       <c r="A14" s="18" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -7311,7 +7305,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="Q14" s="173" t="str">
+      <c r="Q14" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C14,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes a fraction of the selected vehicle type(s) using fuels other than electricity to be replaced by electricity-using equivalents.  The percentage specified here refers to the fleet composition in 2050, not sales in 2050. // **Guidance for setting values:** // **Passenger LDVs:** No projections of electric vehicle deployment in Indonesia are availalbe.  For the U.S., in "Forecast of On-Road Electric Transportation in the U.S., 2010-2013" (2013), the Edison Foundation estimates that 2% (low case), 10% (medium case), or 12% (high case) of LDVs will be electric vehicles in 2035 (fifteen years before the end of this model's run). // **Passenger HDVs:** Today, Indonesia does not have any electric buses.  In the U.S., electric buses account for roughly 3-4% of new bus sales today. // **Passenger Rail:** Jakata is building Indonesia's first metro system, with service scheduled to begin in 2018. // **Passenger Motorbikes:** No significant number of electric motorbikes are projected to be used in Indonesia in the BAU case.</v>
       </c>
@@ -7319,7 +7313,7 @@
       <c r="T14" s="37"/>
       <c r="U14" s="51"/>
     </row>
-    <row r="15" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:21" s="12" customFormat="1" ht="118" x14ac:dyDescent="0.75">
       <c r="A15" s="18" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -7362,7 +7356,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="Q15" s="173" t="str">
+      <c r="Q15" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C15,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes a fraction of the selected vehicle type(s) using fuels other than electricity to be replaced by electricity-using equivalents.  The percentage specified here refers to the fleet composition in 2050, not sales in 2050. // **Guidance for setting values:** // **Passenger LDVs:** No projections of electric vehicle deployment in Indonesia are availalbe.  For the U.S., in "Forecast of On-Road Electric Transportation in the U.S., 2010-2013" (2013), the Edison Foundation estimates that 2% (low case), 10% (medium case), or 12% (high case) of LDVs will be electric vehicles in 2035 (fifteen years before the end of this model's run). // **Passenger HDVs:** Today, Indonesia does not have any electric buses.  In the U.S., electric buses account for roughly 3-4% of new bus sales today. // **Passenger Rail:** Jakata is building Indonesia's first metro system, with service scheduled to begin in 2018. // **Passenger Motorbikes:** No significant number of electric motorbikes are projected to be used in Indonesia in the BAU case.</v>
       </c>
@@ -7370,7 +7364,7 @@
       <c r="T15" s="37"/>
       <c r="U15" s="51"/>
     </row>
-    <row r="16" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:21" s="12" customFormat="1" ht="118" x14ac:dyDescent="0.75">
       <c r="A16" s="18" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -7413,7 +7407,7 @@
       <c r="M16" s="6"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="Q16" s="173" t="str">
+      <c r="Q16" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C16,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes a fraction of the selected vehicle type(s) using fuels other than electricity to be replaced by electricity-using equivalents.  The percentage specified here refers to the fleet composition in 2050, not sales in 2050. // **Guidance for setting values:** // **Passenger LDVs:** No projections of electric vehicle deployment in Indonesia are availalbe.  For the U.S., in "Forecast of On-Road Electric Transportation in the U.S., 2010-2013" (2013), the Edison Foundation estimates that 2% (low case), 10% (medium case), or 12% (high case) of LDVs will be electric vehicles in 2035 (fifteen years before the end of this model's run). // **Passenger HDVs:** Today, Indonesia does not have any electric buses.  In the U.S., electric buses account for roughly 3-4% of new bus sales today. // **Passenger Rail:** Jakata is building Indonesia's first metro system, with service scheduled to begin in 2018. // **Passenger Motorbikes:** No significant number of electric motorbikes are projected to be used in Indonesia in the BAU case.</v>
       </c>
@@ -7421,7 +7415,7 @@
       <c r="T16" s="37"/>
       <c r="U16" s="51"/>
     </row>
-    <row r="17" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:21" s="12" customFormat="1" ht="118" x14ac:dyDescent="0.75">
       <c r="A17" s="18" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -7477,7 +7471,7 @@
         <f>P$11</f>
         <v>% of non-electric vehicles replaced</v>
       </c>
-      <c r="Q17" s="173" t="str">
+      <c r="Q17" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C17,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes a fraction of the selected vehicle type(s) using fuels other than electricity to be replaced by electricity-using equivalents.  The percentage specified here refers to the fleet composition in 2050, not sales in 2050. // **Guidance for setting values:** // **Passenger LDVs:** No projections of electric vehicle deployment in Indonesia are availalbe.  For the U.S., in "Forecast of On-Road Electric Transportation in the U.S., 2010-2013" (2013), the Edison Foundation estimates that 2% (low case), 10% (medium case), or 12% (high case) of LDVs will be electric vehicles in 2035 (fifteen years before the end of this model's run). // **Passenger HDVs:** Today, Indonesia does not have any electric buses.  In the U.S., electric buses account for roughly 3-4% of new bus sales today. // **Passenger Rail:** Jakata is building Indonesia's first metro system, with service scheduled to begin in 2018. // **Passenger Motorbikes:** No significant number of electric motorbikes are projected to be used in Indonesia in the BAU case.</v>
       </c>
@@ -7492,7 +7486,7 @@
       </c>
       <c r="U17" s="51"/>
     </row>
-    <row r="18" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:21" s="12" customFormat="1" ht="118" x14ac:dyDescent="0.75">
       <c r="A18" s="18" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -7535,7 +7529,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="Q18" s="173" t="str">
+      <c r="Q18" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C18,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes a fraction of the selected vehicle type(s) using fuels other than electricity to be replaced by electricity-using equivalents.  The percentage specified here refers to the fleet composition in 2050, not sales in 2050. // **Guidance for setting values:** // **Passenger LDVs:** No projections of electric vehicle deployment in Indonesia are availalbe.  For the U.S., in "Forecast of On-Road Electric Transportation in the U.S., 2010-2013" (2013), the Edison Foundation estimates that 2% (low case), 10% (medium case), or 12% (high case) of LDVs will be electric vehicles in 2035 (fifteen years before the end of this model's run). // **Passenger HDVs:** Today, Indonesia does not have any electric buses.  In the U.S., electric buses account for roughly 3-4% of new bus sales today. // **Passenger Rail:** Jakata is building Indonesia's first metro system, with service scheduled to begin in 2018. // **Passenger Motorbikes:** No significant number of electric motorbikes are projected to be used in Indonesia in the BAU case.</v>
       </c>
@@ -7543,7 +7537,7 @@
       <c r="T18" s="37"/>
       <c r="U18" s="51"/>
     </row>
-    <row r="19" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:21" s="12" customFormat="1" ht="118" x14ac:dyDescent="0.75">
       <c r="A19" s="18" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -7586,7 +7580,7 @@
       <c r="M19" s="6"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="Q19" s="173" t="str">
+      <c r="Q19" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C19,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes a fraction of the selected vehicle type(s) using fuels other than electricity to be replaced by electricity-using equivalents.  The percentage specified here refers to the fleet composition in 2050, not sales in 2050. // **Guidance for setting values:** // **Passenger LDVs:** No projections of electric vehicle deployment in Indonesia are availalbe.  For the U.S., in "Forecast of On-Road Electric Transportation in the U.S., 2010-2013" (2013), the Edison Foundation estimates that 2% (low case), 10% (medium case), or 12% (high case) of LDVs will be electric vehicles in 2035 (fifteen years before the end of this model's run). // **Passenger HDVs:** Today, Indonesia does not have any electric buses.  In the U.S., electric buses account for roughly 3-4% of new bus sales today. // **Passenger Rail:** Jakata is building Indonesia's first metro system, with service scheduled to begin in 2018. // **Passenger Motorbikes:** No significant number of electric motorbikes are projected to be used in Indonesia in the BAU case.</v>
       </c>
@@ -7594,7 +7588,7 @@
       <c r="T19" s="37"/>
       <c r="U19" s="51"/>
     </row>
-    <row r="20" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:21" s="12" customFormat="1" ht="118" x14ac:dyDescent="0.75">
       <c r="A20" s="18" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -7637,7 +7631,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="Q20" s="173" t="str">
+      <c r="Q20" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C20,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes a fraction of the selected vehicle type(s) using fuels other than electricity to be replaced by electricity-using equivalents.  The percentage specified here refers to the fleet composition in 2050, not sales in 2050. // **Guidance for setting values:** // **Passenger LDVs:** No projections of electric vehicle deployment in Indonesia are availalbe.  For the U.S., in "Forecast of On-Road Electric Transportation in the U.S., 2010-2013" (2013), the Edison Foundation estimates that 2% (low case), 10% (medium case), or 12% (high case) of LDVs will be electric vehicles in 2035 (fifteen years before the end of this model's run). // **Passenger HDVs:** Today, Indonesia does not have any electric buses.  In the U.S., electric buses account for roughly 3-4% of new bus sales today. // **Passenger Rail:** Jakata is building Indonesia's first metro system, with service scheduled to begin in 2018. // **Passenger Motorbikes:** No significant number of electric motorbikes are projected to be used in Indonesia in the BAU case.</v>
       </c>
@@ -7645,7 +7639,7 @@
       <c r="T20" s="37"/>
       <c r="U20" s="51"/>
     </row>
-    <row r="21" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:21" s="12" customFormat="1" ht="118" x14ac:dyDescent="0.75">
       <c r="A21" s="18" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -7701,7 +7695,7 @@
         <f>P$11</f>
         <v>% of non-electric vehicles replaced</v>
       </c>
-      <c r="Q21" s="173" t="str">
+      <c r="Q21" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C21,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes a fraction of the selected vehicle type(s) using fuels other than electricity to be replaced by electricity-using equivalents.  The percentage specified here refers to the fleet composition in 2050, not sales in 2050. // **Guidance for setting values:** // **Passenger LDVs:** No projections of electric vehicle deployment in Indonesia are availalbe.  For the U.S., in "Forecast of On-Road Electric Transportation in the U.S., 2010-2013" (2013), the Edison Foundation estimates that 2% (low case), 10% (medium case), or 12% (high case) of LDVs will be electric vehicles in 2035 (fifteen years before the end of this model's run). // **Passenger HDVs:** Today, Indonesia does not have any electric buses.  In the U.S., electric buses account for roughly 3-4% of new bus sales today. // **Passenger Rail:** Jakata is building Indonesia's first metro system, with service scheduled to begin in 2018. // **Passenger Motorbikes:** No significant number of electric motorbikes are projected to be used in Indonesia in the BAU case.</v>
       </c>
@@ -7714,7 +7708,7 @@
       <c r="T21" s="37"/>
       <c r="U21" s="51"/>
     </row>
-    <row r="22" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:21" s="12" customFormat="1" ht="118" x14ac:dyDescent="0.75">
       <c r="A22" s="18" t="str">
         <f t="shared" si="9"/>
         <v>Transportation</v>
@@ -7755,7 +7749,7 @@
       <c r="M22" s="6"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="Q22" s="173" t="str">
+      <c r="Q22" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C22,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes a fraction of the selected vehicle type(s) using fuels other than electricity to be replaced by electricity-using equivalents.  The percentage specified here refers to the fleet composition in 2050, not sales in 2050. // **Guidance for setting values:** // **Passenger LDVs:** No projections of electric vehicle deployment in Indonesia are availalbe.  For the U.S., in "Forecast of On-Road Electric Transportation in the U.S., 2010-2013" (2013), the Edison Foundation estimates that 2% (low case), 10% (medium case), or 12% (high case) of LDVs will be electric vehicles in 2035 (fifteen years before the end of this model's run). // **Passenger HDVs:** Today, Indonesia does not have any electric buses.  In the U.S., electric buses account for roughly 3-4% of new bus sales today. // **Passenger Rail:** Jakata is building Indonesia's first metro system, with service scheduled to begin in 2018. // **Passenger Motorbikes:** No significant number of electric motorbikes are projected to be used in Indonesia in the BAU case.</v>
       </c>
@@ -7763,7 +7757,7 @@
       <c r="T22" s="37"/>
       <c r="U22" s="51"/>
     </row>
-    <row r="23" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:21" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A23" s="2" t="s">
         <v>88</v>
       </c>
@@ -7804,7 +7798,7 @@
       <c r="P23" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="Q23" s="173" t="str">
+      <c r="Q23" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C23,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy replaces the specified fraction of newly sold non-electric building components in buildings of the selected type(s) with electricity-using components. // **Guidance for setting values:** // **Urban Residential:** In the BAU case, the share of electricity among fuels used by urban, residential buildings will rise from 67% to 69% from 2016-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 80% by 2050. // **Rural Residential:** In the BAU case, the share of electricity among fuels used by rural, residential buildings will rise from 6% to 66% from 2016-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 92% by 2050. // **Commercial:** In the BAU case, the share of electricity among fuels used by commercial buildings will rise from 78% to 81% from 2016-2050 in the BAU case.    Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 89% by 2050.</v>
       </c>
@@ -7816,7 +7810,7 @@
       </c>
       <c r="T23" s="53"/>
     </row>
-    <row r="24" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:21" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A24" s="18" t="str">
         <f>A$23</f>
         <v>Buildings and Appliances</v>
@@ -7866,7 +7860,7 @@
         <f t="shared" si="15"/>
         <v>% of newly sold non-electric building components</v>
       </c>
-      <c r="Q24" s="173" t="str">
+      <c r="Q24" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C24,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy replaces the specified fraction of newly sold non-electric building components in buildings of the selected type(s) with electricity-using components. // **Guidance for setting values:** // **Urban Residential:** In the BAU case, the share of electricity among fuels used by urban, residential buildings will rise from 67% to 69% from 2016-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 80% by 2050. // **Rural Residential:** In the BAU case, the share of electricity among fuels used by rural, residential buildings will rise from 6% to 66% from 2016-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 92% by 2050. // **Commercial:** In the BAU case, the share of electricity among fuels used by commercial buildings will rise from 78% to 81% from 2016-2050 in the BAU case.    Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 89% by 2050.</v>
       </c>
@@ -7881,7 +7875,7 @@
       <c r="T24" s="62"/>
       <c r="U24" s="115"/>
     </row>
-    <row r="25" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:21" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A25" s="18" t="str">
         <f>A$23</f>
         <v>Buildings and Appliances</v>
@@ -7931,7 +7925,7 @@
         <f t="shared" si="15"/>
         <v>% of newly sold non-electric building components</v>
       </c>
-      <c r="Q25" s="173" t="str">
+      <c r="Q25" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C25,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy replaces the specified fraction of newly sold non-electric building components in buildings of the selected type(s) with electricity-using components. // **Guidance for setting values:** // **Urban Residential:** In the BAU case, the share of electricity among fuels used by urban, residential buildings will rise from 67% to 69% from 2016-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 80% by 2050. // **Rural Residential:** In the BAU case, the share of electricity among fuels used by rural, residential buildings will rise from 6% to 66% from 2016-2050 in the BAU case.  Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 92% by 2050. // **Commercial:** In the BAU case, the share of electricity among fuels used by commercial buildings will rise from 78% to 81% from 2016-2050 in the BAU case.    Setting this lever to 50% (of new sales in 2050) would likely result in the share of electricity used reaching 89% by 2050.</v>
       </c>
@@ -7946,7 +7940,7 @@
       <c r="T25" s="62"/>
       <c r="U25" s="115"/>
     </row>
-    <row r="26" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:21" s="12" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A26" s="2" t="s">
         <v>88</v>
       </c>
@@ -7985,7 +7979,7 @@
       <c r="N26" s="96"/>
       <c r="O26" s="96"/>
       <c r="P26" s="95"/>
-      <c r="Q26" s="173" t="str">
+      <c r="Q26" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C26,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** EEB Laboratory Jakarta estimates that a 15-40% improvement in building efficiency is achievable by 2025.</v>
       </c>
@@ -7994,7 +7988,7 @@
       <c r="T26" s="104"/>
       <c r="U26" s="111"/>
     </row>
-    <row r="27" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A27" s="18" t="str">
         <f>A$26</f>
         <v>Buildings and Appliances</v>
@@ -8046,7 +8040,7 @@
       <c r="P27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q27" s="173" t="str">
+      <c r="Q27" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C27,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** EEB Laboratory Jakarta estimates that a 15-40% improvement in building efficiency is achievable by 2025.</v>
       </c>
@@ -8063,7 +8057,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A28" s="18" t="str">
         <f>A$26</f>
         <v>Buildings and Appliances</v>
@@ -8118,7 +8112,7 @@
         <f>P$27</f>
         <v>% reduction in energy use</v>
       </c>
-      <c r="Q28" s="173" t="str">
+      <c r="Q28" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C28,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** EEB Laboratory Jakarta estimates that a 15-40% improvement in building efficiency is achievable by 2025.</v>
       </c>
@@ -8139,7 +8133,7 @@
         <v>EEB Laboratory, 2016, http://www.wbcsdservers.org/web/wbcsdfiles/files/2016/01/EEB_Lab_Jakarta.pdf, Page 3</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A29" s="18" t="str">
         <f>A$26</f>
         <v>Buildings and Appliances</v>
@@ -8194,7 +8188,7 @@
         <f t="shared" si="21"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="Q29" s="173" t="str">
+      <c r="Q29" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C29,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** EEB Laboratory Jakarta estimates that a 15-40% improvement in building efficiency is achievable by 2025.</v>
       </c>
@@ -8215,7 +8209,7 @@
         <v>EEB Laboratory, 2016, http://www.wbcsdservers.org/web/wbcsdfiles/files/2016/01/EEB_Lab_Jakarta.pdf, Page 3</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A30" s="18" t="str">
         <f>A$26</f>
         <v>Buildings and Appliances</v>
@@ -8270,7 +8264,7 @@
         <f t="shared" si="21"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="Q30" s="173" t="str">
+      <c r="Q30" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C30,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** EEB Laboratory Jakarta estimates that a 15-40% improvement in building efficiency is achievable by 2025.</v>
       </c>
@@ -8291,7 +8285,7 @@
         <v>EEB Laboratory, 2016, http://www.wbcsdservers.org/web/wbcsdfiles/files/2016/01/EEB_Lab_Jakarta.pdf, Page 3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A31" s="18" t="str">
         <f>A$26</f>
         <v>Buildings and Appliances</v>
@@ -8346,7 +8340,7 @@
         <f t="shared" si="21"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="Q31" s="173" t="str">
+      <c r="Q31" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C31,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** EEB Laboratory Jakarta estimates that a 15-40% improvement in building efficiency is achievable by 2025.</v>
       </c>
@@ -8367,7 +8361,7 @@
         <v>EEB Laboratory, 2016, http://www.wbcsdservers.org/web/wbcsdfiles/files/2016/01/EEB_Lab_Jakarta.pdf, Page 3</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:21" s="12" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A32" s="18" t="str">
         <f t="shared" ref="A32:C43" si="24">A$26</f>
         <v>Buildings and Appliances</v>
@@ -8411,7 +8405,7 @@
       <c r="N32" s="108"/>
       <c r="O32" s="108"/>
       <c r="P32" s="109"/>
-      <c r="Q32" s="173" t="str">
+      <c r="Q32" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C32,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** EEB Laboratory Jakarta estimates that a 15-40% improvement in building efficiency is achievable by 2025.</v>
       </c>
@@ -8420,7 +8414,7 @@
       <c r="T32" s="110"/>
       <c r="U32" s="107"/>
     </row>
-    <row r="33" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A33" s="18" t="str">
         <f t="shared" si="24"/>
         <v>Buildings and Appliances</v>
@@ -8476,7 +8470,7 @@
         <f t="shared" si="21"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="Q33" s="173" t="str">
+      <c r="Q33" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C33,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** EEB Laboratory Jakarta estimates that a 15-40% improvement in building efficiency is achievable by 2025.</v>
       </c>
@@ -8497,7 +8491,7 @@
         <v>EEB Laboratory, 2016, http://www.wbcsdservers.org/web/wbcsdfiles/files/2016/01/EEB_Lab_Jakarta.pdf, Page 3</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A34" s="18" t="str">
         <f t="shared" si="24"/>
         <v>Buildings and Appliances</v>
@@ -8553,7 +8547,7 @@
         <f t="shared" si="21"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="Q34" s="173" t="str">
+      <c r="Q34" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C34,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** EEB Laboratory Jakarta estimates that a 15-40% improvement in building efficiency is achievable by 2025.</v>
       </c>
@@ -8574,7 +8568,7 @@
         <v>EEB Laboratory, 2016, http://www.wbcsdservers.org/web/wbcsdfiles/files/2016/01/EEB_Lab_Jakarta.pdf, Page 3</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A35" s="18" t="str">
         <f t="shared" si="24"/>
         <v>Buildings and Appliances</v>
@@ -8630,7 +8624,7 @@
         <f t="shared" si="21"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="Q35" s="173" t="str">
+      <c r="Q35" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C35,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** EEB Laboratory Jakarta estimates that a 15-40% improvement in building efficiency is achievable by 2025.</v>
       </c>
@@ -8651,7 +8645,7 @@
         <v>EEB Laboratory, 2016, http://www.wbcsdservers.org/web/wbcsdfiles/files/2016/01/EEB_Lab_Jakarta.pdf, Page 3</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A36" s="18" t="str">
         <f t="shared" si="24"/>
         <v>Buildings and Appliances</v>
@@ -8707,7 +8701,7 @@
         <f t="shared" si="21"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="Q36" s="173" t="str">
+      <c r="Q36" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C36,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** EEB Laboratory Jakarta estimates that a 15-40% improvement in building efficiency is achievable by 2025.</v>
       </c>
@@ -8728,7 +8722,7 @@
         <v>EEB Laboratory, 2016, http://www.wbcsdservers.org/web/wbcsdfiles/files/2016/01/EEB_Lab_Jakarta.pdf, Page 3</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A37" s="18" t="str">
         <f t="shared" si="24"/>
         <v>Buildings and Appliances</v>
@@ -8784,7 +8778,7 @@
         <f t="shared" si="21"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="Q37" s="173" t="str">
+      <c r="Q37" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C37,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** EEB Laboratory Jakarta estimates that a 15-40% improvement in building efficiency is achievable by 2025.</v>
       </c>
@@ -8805,7 +8799,7 @@
         <v>EEB Laboratory, 2016, http://www.wbcsdservers.org/web/wbcsdfiles/files/2016/01/EEB_Lab_Jakarta.pdf, Page 3</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:21" s="12" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A38" s="18" t="str">
         <f t="shared" si="24"/>
         <v>Buildings and Appliances</v>
@@ -8849,7 +8843,7 @@
       <c r="N38" s="108"/>
       <c r="O38" s="108"/>
       <c r="P38" s="109"/>
-      <c r="Q38" s="173" t="str">
+      <c r="Q38" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C38,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** EEB Laboratory Jakarta estimates that a 15-40% improvement in building efficiency is achievable by 2025.</v>
       </c>
@@ -8858,7 +8852,7 @@
       <c r="T38" s="110"/>
       <c r="U38" s="107"/>
     </row>
-    <row r="39" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A39" s="18" t="str">
         <f t="shared" si="24"/>
         <v>Buildings and Appliances</v>
@@ -8914,7 +8908,7 @@
         <f t="shared" si="21"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="Q39" s="173" t="str">
+      <c r="Q39" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C39,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** EEB Laboratory Jakarta estimates that a 15-40% improvement in building efficiency is achievable by 2025.</v>
       </c>
@@ -8935,7 +8929,7 @@
         <v>EEB Laboratory, 2016, http://www.wbcsdservers.org/web/wbcsdfiles/files/2016/01/EEB_Lab_Jakarta.pdf, Page 3</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A40" s="18" t="str">
         <f t="shared" si="24"/>
         <v>Buildings and Appliances</v>
@@ -8991,7 +8985,7 @@
         <f t="shared" si="21"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="Q40" s="173" t="str">
+      <c r="Q40" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C40,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** EEB Laboratory Jakarta estimates that a 15-40% improvement in building efficiency is achievable by 2025.</v>
       </c>
@@ -9012,7 +9006,7 @@
         <v>EEB Laboratory, 2016, http://www.wbcsdservers.org/web/wbcsdfiles/files/2016/01/EEB_Lab_Jakarta.pdf, Page 3</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A41" s="18" t="str">
         <f t="shared" si="24"/>
         <v>Buildings and Appliances</v>
@@ -9068,7 +9062,7 @@
         <f t="shared" si="21"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="Q41" s="173" t="str">
+      <c r="Q41" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C41,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** EEB Laboratory Jakarta estimates that a 15-40% improvement in building efficiency is achievable by 2025.</v>
       </c>
@@ -9089,7 +9083,7 @@
         <v>EEB Laboratory, 2016, http://www.wbcsdservers.org/web/wbcsdfiles/files/2016/01/EEB_Lab_Jakarta.pdf, Page 3</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A42" s="18" t="str">
         <f t="shared" si="24"/>
         <v>Buildings and Appliances</v>
@@ -9145,7 +9139,7 @@
         <f t="shared" si="21"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="Q42" s="173" t="str">
+      <c r="Q42" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C42,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** EEB Laboratory Jakarta estimates that a 15-40% improvement in building efficiency is achievable by 2025.</v>
       </c>
@@ -9166,7 +9160,7 @@
         <v>EEB Laboratory, 2016, http://www.wbcsdservers.org/web/wbcsdfiles/files/2016/01/EEB_Lab_Jakarta.pdf, Page 3</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A43" s="18" t="str">
         <f t="shared" si="24"/>
         <v>Buildings and Appliances</v>
@@ -9222,7 +9216,7 @@
         <f t="shared" si="21"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="Q43" s="173" t="str">
+      <c r="Q43" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C43,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy tightens energy efficiency standards for the selected component(s) in the selected building type(s).  The policy only applies to newly sold components each year (whether for new buildings or replacement of old components of existing buildings). // **Guidance for setting values:** EEB Laboratory Jakarta estimates that a 15-40% improvement in building efficiency is achievable by 2025.</v>
       </c>
@@ -9243,7 +9237,7 @@
         <v>EEB Laboratory, 2016, http://www.wbcsdservers.org/web/wbcsdfiles/files/2016/01/EEB_Lab_Jakarta.pdf, Page 3</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
@@ -9282,7 +9276,7 @@
       <c r="P44" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Q44" s="173" t="str">
+      <c r="Q44" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C44,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a program to train contractors in energy-efficient products and installation practices.  This covers activities such as air sealing, building framing, and choice and application of insulation.  This policy affects newly sold building envelope components, which reduce the energy use of heating, cooling, and ventilation systems in buildings by 3.7% (based on a 2006 study from the Energy Center of Wisconsin).</v>
       </c>
@@ -9336,7 +9330,7 @@
       <c r="P45" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="Q45" s="173" t="str">
+      <c r="Q45" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C45,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy requires at least the specified percentage of total retail electricity demand to be generated by residential and commercial buildings' distributed solar systems (typically rooftop PV). // **Guidance for setting values:** Indonesia has not yet considered a requirement for electricity generation from distributed solar PV.</v>
       </c>
@@ -9349,7 +9343,7 @@
       <c r="T45" s="105"/>
       <c r="U45" s="106"/>
     </row>
-    <row r="46" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:21" s="12" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A46" s="2" t="s">
         <v>88</v>
       </c>
@@ -9380,7 +9374,7 @@
       <c r="N46" s="103"/>
       <c r="O46" s="97"/>
       <c r="P46" s="95"/>
-      <c r="Q46" s="173">
+      <c r="Q46" s="168">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C46,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -9389,7 +9383,7 @@
       <c r="T46" s="105"/>
       <c r="U46" s="107"/>
     </row>
-    <row r="47" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:21" s="12" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A47" s="2" t="s">
         <v>88</v>
       </c>
@@ -9428,7 +9422,7 @@
       <c r="P47" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Q47" s="173" t="str">
+      <c r="Q47" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C47,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a program requiring newly sold heating systems, cooling and ventilation systems, and appliances to feature prominent, well-designed labels highlighting their energy efficiencies.  The policy reduces energy consumption of newly sold buiding components of these types by 10%.</v>
       </c>
@@ -9443,7 +9437,7 @@
       </c>
       <c r="U47" s="51"/>
     </row>
-    <row r="48" spans="1:21" s="12" customFormat="1" ht="103.25" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:21" s="12" customFormat="1" ht="221.25" x14ac:dyDescent="0.75">
       <c r="A48" s="2" t="s">
         <v>88</v>
       </c>
@@ -9487,7 +9481,7 @@
       <c r="P48" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q48" s="173" t="str">
+      <c r="Q48" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C48,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** Each year, the specified percentage of the selected building type(s) that existed at the start of the model run will be retrofit with more efficient heating, cooling, and envelope components. This is in addtion to the retirement and replacement of the selected building type(s) that have lived out their lifetimes.  The systems replaced by this policy are assumed to have an efficiency equal to that of the average deployed system and 33% of their useful lives remaining. // **Guidance for setting values:** // **Heating:** Heating systems have a normal lifespan of 19 years, so without this retrofitting policy, 5.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of heating systems to 16 years. // **Cooling and Ventilation:** Cooling and ventilation systems have a normal lifespan of 16 years, so without this retrofitting policy, 6.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of cooling and ventilation systems to 14 years. // **Envelope:** Envelope components have a normal lifespan of 52 years, so without this retrofitting policy, 1.9% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of envelope components to 34 years. // **Lighting:** Lighting components have a normal lifespan of 9 years, so without this retrofitting policy, 11.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of lighting components to 8 years. // **Appliances:** Appliances have a normal lifespan of 14 years, so without this retrofitting policy, 7.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of appliances to 12 years. // **Other Components:** Other energy-using components have a normal lifespan of 15 years, so without this retrofitting policy, 6.7% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of other energy-using components to 13 years.</v>
       </c>
@@ -9504,7 +9498,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:21" s="12" customFormat="1" ht="221.25" x14ac:dyDescent="0.75">
       <c r="A49" s="18" t="str">
         <f>A$48</f>
         <v>Buildings and Appliances</v>
@@ -9556,7 +9550,7 @@
         <f t="shared" si="32"/>
         <v>% of existing building components</v>
       </c>
-      <c r="Q49" s="173" t="str">
+      <c r="Q49" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C49,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** Each year, the specified percentage of the selected building type(s) that existed at the start of the model run will be retrofit with more efficient heating, cooling, and envelope components. This is in addtion to the retirement and replacement of the selected building type(s) that have lived out their lifetimes.  The systems replaced by this policy are assumed to have an efficiency equal to that of the average deployed system and 33% of their useful lives remaining. // **Guidance for setting values:** // **Heating:** Heating systems have a normal lifespan of 19 years, so without this retrofitting policy, 5.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of heating systems to 16 years. // **Cooling and Ventilation:** Cooling and ventilation systems have a normal lifespan of 16 years, so without this retrofitting policy, 6.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of cooling and ventilation systems to 14 years. // **Envelope:** Envelope components have a normal lifespan of 52 years, so without this retrofitting policy, 1.9% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of envelope components to 34 years. // **Lighting:** Lighting components have a normal lifespan of 9 years, so without this retrofitting policy, 11.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of lighting components to 8 years. // **Appliances:** Appliances have a normal lifespan of 14 years, so without this retrofitting policy, 7.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of appliances to 12 years. // **Other Components:** Other energy-using components have a normal lifespan of 15 years, so without this retrofitting policy, 6.7% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of other energy-using components to 13 years.</v>
       </c>
@@ -9572,7 +9566,7 @@
       </c>
       <c r="U49" s="51"/>
     </row>
-    <row r="50" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:21" s="12" customFormat="1" ht="221.25" x14ac:dyDescent="0.75">
       <c r="A50" s="18" t="str">
         <f>A$48</f>
         <v>Buildings and Appliances</v>
@@ -9624,7 +9618,7 @@
         <f t="shared" si="32"/>
         <v>% of existing building components</v>
       </c>
-      <c r="Q50" s="173" t="str">
+      <c r="Q50" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C50,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** Each year, the specified percentage of the selected building type(s) that existed at the start of the model run will be retrofit with more efficient heating, cooling, and envelope components. This is in addtion to the retirement and replacement of the selected building type(s) that have lived out their lifetimes.  The systems replaced by this policy are assumed to have an efficiency equal to that of the average deployed system and 33% of their useful lives remaining. // **Guidance for setting values:** // **Heating:** Heating systems have a normal lifespan of 19 years, so without this retrofitting policy, 5.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of heating systems to 16 years. // **Cooling and Ventilation:** Cooling and ventilation systems have a normal lifespan of 16 years, so without this retrofitting policy, 6.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of cooling and ventilation systems to 14 years. // **Envelope:** Envelope components have a normal lifespan of 52 years, so without this retrofitting policy, 1.9% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of envelope components to 34 years. // **Lighting:** Lighting components have a normal lifespan of 9 years, so without this retrofitting policy, 11.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of lighting components to 8 years. // **Appliances:** Appliances have a normal lifespan of 14 years, so without this retrofitting policy, 7.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of appliances to 12 years. // **Other Components:** Other energy-using components have a normal lifespan of 15 years, so without this retrofitting policy, 6.7% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of other energy-using components to 13 years.</v>
       </c>
@@ -9640,7 +9634,7 @@
       </c>
       <c r="U50" s="51"/>
     </row>
-    <row r="51" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:21" s="12" customFormat="1" ht="221.25" x14ac:dyDescent="0.75">
       <c r="A51" s="18" t="str">
         <f>A$48</f>
         <v>Buildings and Appliances</v>
@@ -9692,7 +9686,7 @@
         <f t="shared" si="33"/>
         <v>% of existing building components</v>
       </c>
-      <c r="Q51" s="173" t="str">
+      <c r="Q51" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C51,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** Each year, the specified percentage of the selected building type(s) that existed at the start of the model run will be retrofit with more efficient heating, cooling, and envelope components. This is in addtion to the retirement and replacement of the selected building type(s) that have lived out their lifetimes.  The systems replaced by this policy are assumed to have an efficiency equal to that of the average deployed system and 33% of their useful lives remaining. // **Guidance for setting values:** // **Heating:** Heating systems have a normal lifespan of 19 years, so without this retrofitting policy, 5.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of heating systems to 16 years. // **Cooling and Ventilation:** Cooling and ventilation systems have a normal lifespan of 16 years, so without this retrofitting policy, 6.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of cooling and ventilation systems to 14 years. // **Envelope:** Envelope components have a normal lifespan of 52 years, so without this retrofitting policy, 1.9% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of envelope components to 34 years. // **Lighting:** Lighting components have a normal lifespan of 9 years, so without this retrofitting policy, 11.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of lighting components to 8 years. // **Appliances:** Appliances have a normal lifespan of 14 years, so without this retrofitting policy, 7.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of appliances to 12 years. // **Other Components:** Other energy-using components have a normal lifespan of 15 years, so without this retrofitting policy, 6.7% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of other energy-using components to 13 years.</v>
       </c>
@@ -9708,7 +9702,7 @@
       </c>
       <c r="U51" s="51"/>
     </row>
-    <row r="52" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:21" s="12" customFormat="1" ht="221.25" x14ac:dyDescent="0.75">
       <c r="A52" s="18" t="str">
         <f>A$48</f>
         <v>Buildings and Appliances</v>
@@ -9760,7 +9754,7 @@
         <f t="shared" si="33"/>
         <v>% of existing building components</v>
       </c>
-      <c r="Q52" s="173" t="str">
+      <c r="Q52" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C52,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** Each year, the specified percentage of the selected building type(s) that existed at the start of the model run will be retrofit with more efficient heating, cooling, and envelope components. This is in addtion to the retirement and replacement of the selected building type(s) that have lived out their lifetimes.  The systems replaced by this policy are assumed to have an efficiency equal to that of the average deployed system and 33% of their useful lives remaining. // **Guidance for setting values:** // **Heating:** Heating systems have a normal lifespan of 19 years, so without this retrofitting policy, 5.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of heating systems to 16 years. // **Cooling and Ventilation:** Cooling and ventilation systems have a normal lifespan of 16 years, so without this retrofitting policy, 6.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of cooling and ventilation systems to 14 years. // **Envelope:** Envelope components have a normal lifespan of 52 years, so without this retrofitting policy, 1.9% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of envelope components to 34 years. // **Lighting:** Lighting components have a normal lifespan of 9 years, so without this retrofitting policy, 11.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of lighting components to 8 years. // **Appliances:** Appliances have a normal lifespan of 14 years, so without this retrofitting policy, 7.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of appliances to 12 years. // **Other Components:** Other energy-using components have a normal lifespan of 15 years, so without this retrofitting policy, 6.7% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of other energy-using components to 13 years.</v>
       </c>
@@ -9776,7 +9770,7 @@
       </c>
       <c r="U52" s="51"/>
     </row>
-    <row r="53" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:21" s="12" customFormat="1" ht="221.25" x14ac:dyDescent="0.75">
       <c r="A53" s="18" t="str">
         <f>A$48</f>
         <v>Buildings and Appliances</v>
@@ -9828,7 +9822,7 @@
         <f t="shared" si="33"/>
         <v>% of existing building components</v>
       </c>
-      <c r="Q53" s="173" t="str">
+      <c r="Q53" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C53,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** Each year, the specified percentage of the selected building type(s) that existed at the start of the model run will be retrofit with more efficient heating, cooling, and envelope components. This is in addtion to the retirement and replacement of the selected building type(s) that have lived out their lifetimes.  The systems replaced by this policy are assumed to have an efficiency equal to that of the average deployed system and 33% of their useful lives remaining. // **Guidance for setting values:** // **Heating:** Heating systems have a normal lifespan of 19 years, so without this retrofitting policy, 5.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of heating systems to 16 years. // **Cooling and Ventilation:** Cooling and ventilation systems have a normal lifespan of 16 years, so without this retrofitting policy, 6.3% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of cooling and ventilation systems to 14 years. // **Envelope:** Envelope components have a normal lifespan of 52 years, so without this retrofitting policy, 1.9% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of envelope components to 34 years. // **Lighting:** Lighting components have a normal lifespan of 9 years, so without this retrofitting policy, 11.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of lighting components to 8 years. // **Appliances:** Appliances have a normal lifespan of 14 years, so without this retrofitting policy, 7.1% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of appliances to 12 years. // **Other Components:** Other energy-using components have a normal lifespan of 15 years, so without this retrofitting policy, 6.7% of these systems retire annually.  Setting this policy to 1% will decrease the average lifespan of other energy-using components to 13 years.</v>
       </c>
@@ -9844,7 +9838,7 @@
       </c>
       <c r="U53" s="51"/>
     </row>
-    <row r="54" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:21" s="12" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A54" s="2" t="s">
         <v>88</v>
       </c>
@@ -9879,7 +9873,7 @@
       <c r="N54" s="95"/>
       <c r="O54" s="95"/>
       <c r="P54" s="95"/>
-      <c r="Q54" s="173" t="str">
+      <c r="Q54" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C54,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a modest rebate paid to customers who purchase energy-efficient building equipment of the selected type(s).  Typical rebate amounts represented by this policy are $50-100 for a clothes washer and $25-50 for a dishwasher or refrigerator.</v>
       </c>
@@ -9888,7 +9882,7 @@
       <c r="T54" s="105"/>
       <c r="U54" s="51"/>
     </row>
-    <row r="55" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:21" s="12" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A55" s="18" t="str">
         <f>A$54</f>
         <v>Buildings and Appliances</v>
@@ -9928,7 +9922,7 @@
       <c r="N55" s="95"/>
       <c r="O55" s="95"/>
       <c r="P55" s="95"/>
-      <c r="Q55" s="173" t="str">
+      <c r="Q55" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C55,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a modest rebate paid to customers who purchase energy-efficient building equipment of the selected type(s).  Typical rebate amounts represented by this policy are $50-100 for a clothes washer and $25-50 for a dishwasher or refrigerator.</v>
       </c>
@@ -9937,7 +9931,7 @@
       <c r="T55" s="105"/>
       <c r="U55" s="51"/>
     </row>
-    <row r="56" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:21" s="12" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A56" s="18" t="str">
         <f>A$54</f>
         <v>Buildings and Appliances</v>
@@ -9977,7 +9971,7 @@
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="6"/>
-      <c r="Q56" s="173" t="str">
+      <c r="Q56" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C56,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a modest rebate paid to customers who purchase energy-efficient building equipment of the selected type(s).  Typical rebate amounts represented by this policy are $50-100 for a clothes washer and $25-50 for a dishwasher or refrigerator.</v>
       </c>
@@ -9985,7 +9979,7 @@
       <c r="T56" s="37"/>
       <c r="U56" s="51"/>
     </row>
-    <row r="57" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:21" s="12" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A57" s="18" t="str">
         <f>A$54</f>
         <v>Buildings and Appliances</v>
@@ -10025,7 +10019,7 @@
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="6"/>
-      <c r="Q57" s="173" t="str">
+      <c r="Q57" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C57,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a modest rebate paid to customers who purchase energy-efficient building equipment of the selected type(s).  Typical rebate amounts represented by this policy are $50-100 for a clothes washer and $25-50 for a dishwasher or refrigerator.</v>
       </c>
@@ -10033,7 +10027,7 @@
       <c r="T57" s="37"/>
       <c r="U57" s="51"/>
     </row>
-    <row r="58" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:21" s="12" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A58" s="18" t="str">
         <f>A$54</f>
         <v>Buildings and Appliances</v>
@@ -10073,7 +10067,7 @@
       <c r="N58" s="95"/>
       <c r="O58" s="95"/>
       <c r="P58" s="95"/>
-      <c r="Q58" s="173" t="str">
+      <c r="Q58" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C58,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a modest rebate paid to customers who purchase energy-efficient building equipment of the selected type(s).  Typical rebate amounts represented by this policy are $50-100 for a clothes washer and $25-50 for a dishwasher or refrigerator.</v>
       </c>
@@ -10082,7 +10076,7 @@
       <c r="T58" s="105"/>
       <c r="U58" s="51"/>
     </row>
-    <row r="59" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:21" s="12" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A59" s="18" t="str">
         <f>A$54</f>
         <v>Buildings and Appliances</v>
@@ -10122,7 +10116,7 @@
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="6"/>
-      <c r="Q59" s="173" t="str">
+      <c r="Q59" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C59,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents a modest rebate paid to customers who purchase energy-efficient building equipment of the selected type(s).  Typical rebate amounts represented by this policy are $50-100 for a clothes washer and $25-50 for a dishwasher or refrigerator.</v>
       </c>
@@ -10130,7 +10124,7 @@
       <c r="T59" s="37"/>
       <c r="U59" s="51"/>
     </row>
-    <row r="60" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:21" s="3" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A60" s="10" t="s">
         <v>8</v>
       </c>
@@ -10172,7 +10166,7 @@
       <c r="P60" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q60" s="173" t="str">
+      <c r="Q60" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C60,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed. // **Implementation schedule:** This policy takes effect fully in 2026.</v>
       </c>
@@ -10185,7 +10179,7 @@
       <c r="T60" s="38"/>
       <c r="U60" s="52"/>
     </row>
-    <row r="61" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:21" s="12" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A61" s="18" t="str">
         <f>A$60</f>
         <v>Electricity Supply</v>
@@ -10237,7 +10231,7 @@
         <f t="shared" si="40"/>
         <v>on/off</v>
       </c>
-      <c r="Q61" s="173" t="str">
+      <c r="Q61" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C61,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed. // **Implementation schedule:** This policy takes effect fully in 2026.</v>
       </c>
@@ -10250,7 +10244,7 @@
       <c r="T61" s="37"/>
       <c r="U61" s="51"/>
     </row>
-    <row r="62" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:21" s="12" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A62" s="18" t="str">
         <f t="shared" ref="A62:A69" si="41">A$60</f>
         <v>Electricity Supply</v>
@@ -10302,7 +10296,7 @@
         <f t="shared" si="40"/>
         <v>on/off</v>
       </c>
-      <c r="Q62" s="173" t="str">
+      <c r="Q62" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C62,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed. // **Implementation schedule:** This policy takes effect fully in 2026.</v>
       </c>
@@ -10315,7 +10309,7 @@
       <c r="T62" s="37"/>
       <c r="U62" s="51"/>
     </row>
-    <row r="63" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:21" s="12" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A63" s="18" t="str">
         <f t="shared" si="41"/>
         <v>Electricity Supply</v>
@@ -10367,7 +10361,7 @@
         <f t="shared" si="40"/>
         <v>on/off</v>
       </c>
-      <c r="Q63" s="173" t="str">
+      <c r="Q63" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C63,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed. // **Implementation schedule:** This policy takes effect fully in 2026.</v>
       </c>
@@ -10380,7 +10374,7 @@
       <c r="T63" s="37"/>
       <c r="U63" s="51"/>
     </row>
-    <row r="64" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:21" s="12" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A64" s="18" t="str">
         <f t="shared" si="41"/>
         <v>Electricity Supply</v>
@@ -10418,7 +10412,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="6"/>
-      <c r="Q64" s="173" t="str">
+      <c r="Q64" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C64,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed. // **Implementation schedule:** This policy takes effect fully in 2026.</v>
       </c>
@@ -10426,7 +10420,7 @@
       <c r="T64" s="37"/>
       <c r="U64" s="51"/>
     </row>
-    <row r="65" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:21" s="12" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A65" s="18" t="str">
         <f t="shared" si="41"/>
         <v>Electricity Supply</v>
@@ -10464,7 +10458,7 @@
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="6"/>
-      <c r="Q65" s="173" t="str">
+      <c r="Q65" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C65,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed. // **Implementation schedule:** This policy takes effect fully in 2026.</v>
       </c>
@@ -10472,7 +10466,7 @@
       <c r="T65" s="37"/>
       <c r="U65" s="51"/>
     </row>
-    <row r="66" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:21" s="12" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A66" s="18" t="str">
         <f t="shared" si="41"/>
         <v>Electricity Supply</v>
@@ -10510,7 +10504,7 @@
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" s="6"/>
-      <c r="Q66" s="173" t="str">
+      <c r="Q66" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C66,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed. // **Implementation schedule:** This policy takes effect fully in 2026.</v>
       </c>
@@ -10518,7 +10512,7 @@
       <c r="T66" s="37"/>
       <c r="U66" s="51"/>
     </row>
-    <row r="67" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:21" s="12" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A67" s="18" t="str">
         <f t="shared" si="41"/>
         <v>Electricity Supply</v>
@@ -10556,7 +10550,7 @@
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="6"/>
-      <c r="Q67" s="173" t="str">
+      <c r="Q67" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C67,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed. // **Implementation schedule:** This policy takes effect fully in 2026.</v>
       </c>
@@ -10564,7 +10558,7 @@
       <c r="T67" s="37"/>
       <c r="U67" s="51"/>
     </row>
-    <row r="68" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:21" s="12" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A68" s="18" t="str">
         <f t="shared" si="41"/>
         <v>Electricity Supply</v>
@@ -10602,7 +10596,7 @@
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" s="6"/>
-      <c r="Q68" s="173" t="str">
+      <c r="Q68" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C68,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed. // **Implementation schedule:** This policy takes effect fully in 2026.</v>
       </c>
@@ -10610,7 +10604,7 @@
       <c r="T68" s="37"/>
       <c r="U68" s="51"/>
     </row>
-    <row r="69" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:21" s="12" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A69" s="18" t="str">
         <f t="shared" si="41"/>
         <v>Electricity Supply</v>
@@ -10648,7 +10642,7 @@
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="6"/>
-      <c r="Q69" s="173" t="str">
+      <c r="Q69" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C69,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents new capacity of the selected type(s) from being built or deployed. // **Implementation schedule:** This policy takes effect fully in 2026.</v>
       </c>
@@ -10656,7 +10650,7 @@
       <c r="T69" s="37"/>
       <c r="U69" s="51"/>
     </row>
-    <row r="70" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:21" s="3" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A70" s="10" t="s">
         <v>8</v>
       </c>
@@ -10683,7 +10677,7 @@
       <c r="N70" s="100"/>
       <c r="O70" s="100"/>
       <c r="P70" s="101"/>
-      <c r="Q70" s="173">
+      <c r="Q70" s="168">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C70,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -10692,7 +10686,7 @@
       <c r="T70" s="105"/>
       <c r="U70" s="52"/>
     </row>
-    <row r="71" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:21" s="3" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A71" s="10" t="s">
         <v>8</v>
       </c>
@@ -10727,7 +10721,7 @@
       <c r="P71" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="Q71" s="173" t="str">
+      <c r="Q71" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C71,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases or decreases the amount of electricity imported to Indonesia.  It does not cause the construction or removal of transmission lines linking these countries. // **Guidance for setting values:** From 2009-2015, electricity imports grew from 1.26 GWh/yr to 12.75 GWh/yr.</v>
       </c>
@@ -10742,7 +10736,7 @@
       </c>
       <c r="U71" s="52"/>
     </row>
-    <row r="72" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:21" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
@@ -10770,7 +10764,7 @@
       </c>
       <c r="L72" s="138"/>
       <c r="P72" s="2"/>
-      <c r="Q72" s="173">
+      <c r="Q72" s="168">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C72,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -10810,7 +10804,7 @@
       <c r="P73" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Q73" s="173" t="str">
+      <c r="Q73" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C73,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy represents regulations that cause more demand response (DR) capacity to be added to the electric grid.  Demand response provides flexibility that allows for the integration of more wind and solar PV, if the electricity system is flexibility-constrained. // **Guidance for setting values:** A 100% setting provides for an additional 5.97 GW of demand response capacity in 2050 (on top of a BAU quantity of 0 GW).</v>
       </c>
@@ -10824,7 +10818,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:21" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A74" s="2" t="s">
         <v>8</v>
       </c>
@@ -10865,9 +10859,9 @@
       <c r="P74" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="Q74" s="173" t="str">
+      <c r="Q74" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C74,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Coal:** Indonesia had slightly over 27 GW of coal power plants in 2016, so at a setting of 3000 MW/year retired early, all existing coal plants would retire in 10 years.</v>
+        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** Indonesia had slightly over 27 GW of coal power plants in 2016, so at a setting of 3000 MW/year retired early, all existing coal plants would retire in 10 years.</v>
       </c>
       <c r="R74" s="6" t="s">
         <v>257</v>
@@ -10878,7 +10872,7 @@
       <c r="T74" s="104"/>
       <c r="U74" s="111"/>
     </row>
-    <row r="75" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:21" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A75" s="18" t="str">
         <f>A$74</f>
         <v>Electricity Supply</v>
@@ -10915,12 +10909,12 @@
       <c r="M75" s="27"/>
       <c r="N75" s="28"/>
       <c r="O75" s="28"/>
-      <c r="Q75" s="173" t="str">
+      <c r="Q75" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C75,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Coal:** Indonesia had slightly over 27 GW of coal power plants in 2016, so at a setting of 3000 MW/year retired early, all existing coal plants would retire in 10 years.</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** Indonesia had slightly over 27 GW of coal power plants in 2016, so at a setting of 3000 MW/year retired early, all existing coal plants would retire in 10 years.</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A76" s="18" t="str">
         <f t="shared" ref="A76:A83" si="45">A$74</f>
         <v>Electricity Supply</v>
@@ -10958,15 +10952,15 @@
       <c r="N76" s="95"/>
       <c r="O76" s="95"/>
       <c r="P76" s="95"/>
-      <c r="Q76" s="173" t="str">
+      <c r="Q76" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C76,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Coal:** Indonesia had slightly over 27 GW of coal power plants in 2016, so at a setting of 3000 MW/year retired early, all existing coal plants would retire in 10 years.</v>
+        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** Indonesia had slightly over 27 GW of coal power plants in 2016, so at a setting of 3000 MW/year retired early, all existing coal plants would retire in 10 years.</v>
       </c>
       <c r="R76" s="95"/>
       <c r="S76" s="101"/>
       <c r="T76" s="105"/>
     </row>
-    <row r="77" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:21" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A77" s="18" t="str">
         <f t="shared" si="45"/>
         <v>Electricity Supply</v>
@@ -11003,12 +10997,12 @@
       <c r="M77" s="27"/>
       <c r="N77" s="28"/>
       <c r="O77" s="28"/>
-      <c r="Q77" s="173" t="str">
+      <c r="Q77" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C77,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Coal:** Indonesia had slightly over 27 GW of coal power plants in 2016, so at a setting of 3000 MW/year retired early, all existing coal plants would retire in 10 years.</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** Indonesia had slightly over 27 GW of coal power plants in 2016, so at a setting of 3000 MW/year retired early, all existing coal plants would retire in 10 years.</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A78" s="18" t="str">
         <f t="shared" si="45"/>
         <v>Electricity Supply</v>
@@ -11045,12 +11039,12 @@
       <c r="M78" s="27"/>
       <c r="N78" s="28"/>
       <c r="O78" s="28"/>
-      <c r="Q78" s="173" t="str">
+      <c r="Q78" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C78,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Coal:** Indonesia had slightly over 27 GW of coal power plants in 2016, so at a setting of 3000 MW/year retired early, all existing coal plants would retire in 10 years.</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** Indonesia had slightly over 27 GW of coal power plants in 2016, so at a setting of 3000 MW/year retired early, all existing coal plants would retire in 10 years.</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A79" s="18" t="str">
         <f t="shared" si="45"/>
         <v>Electricity Supply</v>
@@ -11087,12 +11081,12 @@
       <c r="M79" s="27"/>
       <c r="N79" s="28"/>
       <c r="O79" s="28"/>
-      <c r="Q79" s="173" t="str">
+      <c r="Q79" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C79,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Coal:** Indonesia had slightly over 27 GW of coal power plants in 2016, so at a setting of 3000 MW/year retired early, all existing coal plants would retire in 10 years.</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** Indonesia had slightly over 27 GW of coal power plants in 2016, so at a setting of 3000 MW/year retired early, all existing coal plants would retire in 10 years.</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A80" s="18" t="str">
         <f t="shared" si="45"/>
         <v>Electricity Supply</v>
@@ -11129,12 +11123,12 @@
       <c r="M80" s="27"/>
       <c r="N80" s="28"/>
       <c r="O80" s="28"/>
-      <c r="Q80" s="173" t="str">
+      <c r="Q80" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C80,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Coal:** Indonesia had slightly over 27 GW of coal power plants in 2016, so at a setting of 3000 MW/year retired early, all existing coal plants would retire in 10 years.</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** Indonesia had slightly over 27 GW of coal power plants in 2016, so at a setting of 3000 MW/year retired early, all existing coal plants would retire in 10 years.</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A81" s="18" t="str">
         <f t="shared" si="45"/>
         <v>Electricity Supply</v>
@@ -11171,12 +11165,12 @@
       <c r="M81" s="27"/>
       <c r="N81" s="28"/>
       <c r="O81" s="28"/>
-      <c r="Q81" s="173" t="str">
+      <c r="Q81" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C81,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Coal:** Indonesia had slightly over 27 GW of coal power plants in 2016, so at a setting of 3000 MW/year retired early, all existing coal plants would retire in 10 years.</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** Indonesia had slightly over 27 GW of coal power plants in 2016, so at a setting of 3000 MW/year retired early, all existing coal plants would retire in 10 years.</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A82" s="18" t="str">
         <f t="shared" si="45"/>
         <v>Electricity Supply</v>
@@ -11210,12 +11204,12 @@
       <c r="M82" s="27"/>
       <c r="N82" s="28"/>
       <c r="O82" s="28"/>
-      <c r="Q82" s="173" t="str">
+      <c r="Q82" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C82,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Coal:** Indonesia had slightly over 27 GW of coal power plants in 2016, so at a setting of 3000 MW/year retired early, all existing coal plants would retire in 10 years.</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** Indonesia had slightly over 27 GW of coal power plants in 2016, so at a setting of 3000 MW/year retired early, all existing coal plants would retire in 10 years.</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A83" s="18" t="str">
         <f t="shared" si="45"/>
         <v>Electricity Supply</v>
@@ -11249,12 +11243,12 @@
       <c r="M83" s="27"/>
       <c r="N83" s="28"/>
       <c r="O83" s="28"/>
-      <c r="Q83" s="173" t="str">
+      <c r="Q83" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C83,'Policy Characteristics'!$C:$C,0))</f>
-        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring capacity of the selected type(s) to be retired each year. // **Guidance for setting values:** // **Coal:** Indonesia had slightly over 27 GW of coal power plants in 2016, so at a setting of 3000 MW/year retired early, all existing coal plants would retire in 10 years.</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+        <v>**Description:** This policy causes the specified quantity of otherwise non-retiring coal capacity to be retired each year. // **Guidance for setting values:** Indonesia had slightly over 27 GW of coal power plants in 2016, so at a setting of 3000 MW/year retired early, all existing coal plants would retire in 10 years.</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A84" s="2" t="s">
         <v>8</v>
       </c>
@@ -11281,7 +11275,7 @@
       <c r="N84" s="96"/>
       <c r="O84" s="112"/>
       <c r="P84" s="95"/>
-      <c r="Q84" s="173">
+      <c r="Q84" s="168">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C84,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -11290,7 +11284,7 @@
       <c r="T84" s="104"/>
       <c r="U84" s="111"/>
     </row>
-    <row r="85" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:21" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A85" s="2" t="s">
         <v>8</v>
       </c>
@@ -11325,7 +11319,7 @@
       <c r="P85" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="Q85" s="173" t="str">
+      <c r="Q85" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C85,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes additional transmission capacity to be built relative to the BAU case.  Transmission increases the flexibility of the grid, allowing for the integration of more wind and solar PV, if the electricity system is flexibility-constrained. // **Guidance for setting values:** Indonesia has roughly 7.1 million kV-km of transmission lines with little growth projected in the BAU case.</v>
       </c>
@@ -11340,7 +11334,7 @@
       </c>
       <c r="U85" s="111"/>
     </row>
-    <row r="86" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:21" s="12" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A86" s="2" t="s">
         <v>8</v>
       </c>
@@ -11371,7 +11365,7 @@
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
-      <c r="Q86" s="173">
+      <c r="Q86" s="168">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C86,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -11379,7 +11373,7 @@
       <c r="T86" s="37"/>
       <c r="U86" s="51"/>
     </row>
-    <row r="87" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:21" s="12" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A87" s="2" t="s">
         <v>8</v>
       </c>
@@ -11410,7 +11404,7 @@
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
-      <c r="Q87" s="173">
+      <c r="Q87" s="168">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C87,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -11418,7 +11412,7 @@
       <c r="T87" s="37"/>
       <c r="U87" s="51"/>
     </row>
-    <row r="88" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:21" s="12" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A88" s="2" t="s">
         <v>8</v>
       </c>
@@ -11453,7 +11447,7 @@
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" s="6"/>
-      <c r="Q88" s="173">
+      <c r="Q88" s="168">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C88,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -11461,7 +11455,7 @@
       <c r="T88" s="37"/>
       <c r="U88" s="51"/>
     </row>
-    <row r="89" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:21" s="12" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A89" s="18" t="str">
         <f>A$88</f>
         <v>Electricity Supply</v>
@@ -11498,7 +11492,7 @@
       <c r="M89" s="6"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
-      <c r="Q89" s="173">
+      <c r="Q89" s="168">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C89,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -11506,7 +11500,7 @@
       <c r="T89" s="37"/>
       <c r="U89" s="51"/>
     </row>
-    <row r="90" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:21" s="12" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A90" s="18" t="str">
         <f t="shared" ref="A90:A95" si="48">A$88</f>
         <v>Electricity Supply</v>
@@ -11544,7 +11538,7 @@
       <c r="N90" s="95"/>
       <c r="O90" s="95"/>
       <c r="P90" s="101"/>
-      <c r="Q90" s="173">
+      <c r="Q90" s="168">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C90,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -11553,7 +11547,7 @@
       <c r="T90" s="105"/>
       <c r="U90" s="106"/>
     </row>
-    <row r="91" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:21" s="12" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A91" s="18" t="str">
         <f t="shared" si="48"/>
         <v>Electricity Supply</v>
@@ -11590,7 +11584,7 @@
       <c r="M91" s="6"/>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
-      <c r="Q91" s="173">
+      <c r="Q91" s="168">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C91,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -11598,7 +11592,7 @@
       <c r="T91" s="38"/>
       <c r="U91" s="51"/>
     </row>
-    <row r="92" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:21" s="12" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A92" s="18" t="str">
         <f t="shared" si="48"/>
         <v>Electricity Supply</v>
@@ -11635,7 +11629,7 @@
       <c r="M92" s="6"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
-      <c r="Q92" s="173">
+      <c r="Q92" s="168">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C92,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -11643,7 +11637,7 @@
       <c r="T92" s="38"/>
       <c r="U92" s="51"/>
     </row>
-    <row r="93" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:21" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A93" s="18" t="str">
         <f t="shared" si="48"/>
         <v>Electricity Supply</v>
@@ -11680,13 +11674,13 @@
       </c>
       <c r="L93" s="139"/>
       <c r="P93" s="12"/>
-      <c r="Q93" s="173">
+      <c r="Q93" s="168">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C93,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
       <c r="T93" s="38"/>
     </row>
-    <row r="94" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:21" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A94" s="18" t="str">
         <f t="shared" si="48"/>
         <v>Electricity Supply</v>
@@ -11723,13 +11717,13 @@
       </c>
       <c r="L94" s="139"/>
       <c r="P94" s="12"/>
-      <c r="Q94" s="173">
+      <c r="Q94" s="168">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C94,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
       <c r="T94" s="38"/>
     </row>
-    <row r="95" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:21" s="12" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A95" s="18" t="str">
         <f t="shared" si="48"/>
         <v>Electricity Supply</v>
@@ -11766,7 +11760,7 @@
       <c r="M95" s="6"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
-      <c r="Q95" s="173">
+      <c r="Q95" s="168">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C95,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -11774,7 +11768,7 @@
       <c r="T95" s="38"/>
       <c r="U95" s="51"/>
     </row>
-    <row r="96" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A96" s="10" t="s">
         <v>8</v>
       </c>
@@ -11806,14 +11800,14 @@
       <c r="N96" s="32"/>
       <c r="O96" s="32"/>
       <c r="P96" s="10"/>
-      <c r="Q96" s="173" t="str">
+      <c r="Q96" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C96,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T96" s="38"/>
       <c r="U96" s="52"/>
     </row>
-    <row r="97" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A97" s="64" t="str">
         <f t="shared" ref="A97:C125" si="50">A$96</f>
         <v>Electricity Supply</v>
@@ -11849,14 +11843,14 @@
       <c r="M97" s="31"/>
       <c r="N97" s="32"/>
       <c r="O97" s="32"/>
-      <c r="Q97" s="173" t="str">
+      <c r="Q97" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C97,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T97" s="38"/>
       <c r="U97" s="52"/>
     </row>
-    <row r="98" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A98" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -11891,14 +11885,14 @@
       <c r="L98" s="139"/>
       <c r="N98" s="10"/>
       <c r="O98" s="10"/>
-      <c r="Q98" s="173" t="str">
+      <c r="Q98" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C98,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T98" s="38"/>
       <c r="U98" s="52"/>
     </row>
-    <row r="99" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A99" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -11942,7 +11936,7 @@
       <c r="N99" s="100"/>
       <c r="O99" s="100"/>
       <c r="P99" s="101"/>
-      <c r="Q99" s="173" t="str">
+      <c r="Q99" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C99,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -11951,7 +11945,7 @@
       <c r="T99" s="105"/>
       <c r="U99" s="52"/>
     </row>
-    <row r="100" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A100" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -11986,14 +11980,14 @@
       <c r="M100" s="31"/>
       <c r="N100" s="32"/>
       <c r="O100" s="32"/>
-      <c r="Q100" s="173" t="str">
+      <c r="Q100" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C100,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T100" s="38"/>
       <c r="U100" s="52"/>
     </row>
-    <row r="101" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A101" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -12027,14 +12021,14 @@
       <c r="L101" s="139"/>
       <c r="N101" s="10"/>
       <c r="O101" s="10"/>
-      <c r="Q101" s="173" t="str">
+      <c r="Q101" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C101,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T101" s="38"/>
       <c r="U101" s="52"/>
     </row>
-    <row r="102" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A102" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -12068,14 +12062,14 @@
       <c r="L102" s="139"/>
       <c r="N102" s="10"/>
       <c r="O102" s="10"/>
-      <c r="Q102" s="173" t="str">
+      <c r="Q102" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C102,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T102" s="38"/>
       <c r="U102" s="52"/>
     </row>
-    <row r="103" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A103" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -12109,14 +12103,14 @@
       <c r="L103" s="139"/>
       <c r="N103" s="10"/>
       <c r="O103" s="10"/>
-      <c r="Q103" s="173" t="str">
+      <c r="Q103" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C103,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T103" s="38"/>
       <c r="U103" s="52"/>
     </row>
-    <row r="104" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A104" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -12150,14 +12144,14 @@
       <c r="L104" s="139"/>
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
-      <c r="Q104" s="173" t="str">
+      <c r="Q104" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C104,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T104" s="38"/>
       <c r="U104" s="52"/>
     </row>
-    <row r="105" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A105" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -12191,14 +12185,14 @@
       <c r="L105" s="139"/>
       <c r="N105" s="10"/>
       <c r="O105" s="10"/>
-      <c r="Q105" s="173" t="str">
+      <c r="Q105" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C105,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T105" s="38"/>
       <c r="U105" s="52"/>
     </row>
-    <row r="106" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A106" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -12232,14 +12226,14 @@
       <c r="L106" s="139"/>
       <c r="N106" s="10"/>
       <c r="O106" s="10"/>
-      <c r="Q106" s="173" t="str">
+      <c r="Q106" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C106,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T106" s="38"/>
       <c r="U106" s="52"/>
     </row>
-    <row r="107" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A107" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -12273,14 +12267,14 @@
       <c r="L107" s="139"/>
       <c r="N107" s="10"/>
       <c r="O107" s="10"/>
-      <c r="Q107" s="173" t="str">
+      <c r="Q107" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C107,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T107" s="38"/>
       <c r="U107" s="52"/>
     </row>
-    <row r="108" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A108" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -12314,14 +12308,14 @@
       <c r="L108" s="139"/>
       <c r="N108" s="10"/>
       <c r="O108" s="10"/>
-      <c r="Q108" s="173" t="str">
+      <c r="Q108" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C108,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T108" s="38"/>
       <c r="U108" s="52"/>
     </row>
-    <row r="109" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A109" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -12355,14 +12349,14 @@
       <c r="L109" s="139"/>
       <c r="N109" s="10"/>
       <c r="O109" s="10"/>
-      <c r="Q109" s="173" t="str">
+      <c r="Q109" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C109,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T109" s="38"/>
       <c r="U109" s="52"/>
     </row>
-    <row r="110" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A110" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -12414,7 +12408,7 @@
       <c r="P110" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="Q110" s="173" t="str">
+      <c r="Q110" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C110,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -12429,7 +12423,7 @@
       </c>
       <c r="U110" s="52"/>
     </row>
-    <row r="111" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A111" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -12463,14 +12457,14 @@
       <c r="L111" s="139"/>
       <c r="N111" s="10"/>
       <c r="O111" s="10"/>
-      <c r="Q111" s="173" t="str">
+      <c r="Q111" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C111,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T111" s="38"/>
       <c r="U111" s="52"/>
     </row>
-    <row r="112" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A112" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -12504,14 +12498,14 @@
       <c r="L112" s="139"/>
       <c r="N112" s="10"/>
       <c r="O112" s="10"/>
-      <c r="Q112" s="173" t="str">
+      <c r="Q112" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C112,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T112" s="38"/>
       <c r="U112" s="52"/>
     </row>
-    <row r="113" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A113" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -12563,7 +12557,7 @@
       <c r="P113" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="Q113" s="173" t="str">
+      <c r="Q113" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C113,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
@@ -12578,7 +12572,7 @@
       </c>
       <c r="U113" s="52"/>
     </row>
-    <row r="114" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A114" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -12612,14 +12606,14 @@
       <c r="L114" s="139"/>
       <c r="N114" s="10"/>
       <c r="O114" s="10"/>
-      <c r="Q114" s="173" t="str">
+      <c r="Q114" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C114,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T114" s="38"/>
       <c r="U114" s="52"/>
     </row>
-    <row r="115" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A115" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -12653,14 +12647,14 @@
       <c r="L115" s="139"/>
       <c r="N115" s="10"/>
       <c r="O115" s="10"/>
-      <c r="Q115" s="173" t="str">
+      <c r="Q115" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C115,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T115" s="38"/>
       <c r="U115" s="52"/>
     </row>
-    <row r="116" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A116" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -12694,14 +12688,14 @@
       <c r="L116" s="139"/>
       <c r="N116" s="10"/>
       <c r="O116" s="10"/>
-      <c r="Q116" s="173" t="str">
+      <c r="Q116" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C116,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T116" s="38"/>
       <c r="U116" s="52"/>
     </row>
-    <row r="117" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A117" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -12735,14 +12729,14 @@
       <c r="L117" s="139"/>
       <c r="N117" s="10"/>
       <c r="O117" s="10"/>
-      <c r="Q117" s="173" t="str">
+      <c r="Q117" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C117,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T117" s="38"/>
       <c r="U117" s="52"/>
     </row>
-    <row r="118" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A118" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -12776,14 +12770,14 @@
       <c r="L118" s="139"/>
       <c r="N118" s="10"/>
       <c r="O118" s="10"/>
-      <c r="Q118" s="173" t="str">
+      <c r="Q118" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C118,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T118" s="38"/>
       <c r="U118" s="52"/>
     </row>
-    <row r="119" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A119" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -12817,14 +12811,14 @@
       <c r="L119" s="139"/>
       <c r="N119" s="10"/>
       <c r="O119" s="10"/>
-      <c r="Q119" s="173" t="str">
+      <c r="Q119" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C119,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T119" s="38"/>
       <c r="U119" s="52"/>
     </row>
-    <row r="120" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A120" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -12858,14 +12852,14 @@
       <c r="L120" s="139"/>
       <c r="N120" s="10"/>
       <c r="O120" s="10"/>
-      <c r="Q120" s="173" t="str">
+      <c r="Q120" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C120,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T120" s="38"/>
       <c r="U120" s="52"/>
     </row>
-    <row r="121" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A121" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -12899,14 +12893,14 @@
       <c r="L121" s="139"/>
       <c r="N121" s="10"/>
       <c r="O121" s="10"/>
-      <c r="Q121" s="173" t="str">
+      <c r="Q121" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C121,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T121" s="38"/>
       <c r="U121" s="52"/>
     </row>
-    <row r="122" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A122" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -12940,14 +12934,14 @@
       <c r="L122" s="139"/>
       <c r="N122" s="10"/>
       <c r="O122" s="10"/>
-      <c r="Q122" s="173" t="str">
+      <c r="Q122" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C122,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T122" s="38"/>
       <c r="U122" s="52"/>
     </row>
-    <row r="123" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A123" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -12981,14 +12975,14 @@
       <c r="L123" s="139"/>
       <c r="N123" s="10"/>
       <c r="O123" s="10"/>
-      <c r="Q123" s="173" t="str">
+      <c r="Q123" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C123,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T123" s="38"/>
       <c r="U123" s="52"/>
     </row>
-    <row r="124" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A124" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -13022,14 +13016,14 @@
       <c r="L124" s="138"/>
       <c r="N124" s="10"/>
       <c r="O124" s="10"/>
-      <c r="Q124" s="173" t="str">
+      <c r="Q124" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C124,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T124" s="38"/>
       <c r="U124" s="52"/>
     </row>
-    <row r="125" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:21" s="3" customFormat="1" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A125" s="64" t="str">
         <f t="shared" si="50"/>
         <v>Electricity Supply</v>
@@ -13063,14 +13057,14 @@
       <c r="L125" s="138"/>
       <c r="N125" s="10"/>
       <c r="O125" s="10"/>
-      <c r="Q125" s="173" t="str">
+      <c r="Q125" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C125,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in downtime (time spent not generating power) for plants of the selected type(s) that exist at the start of the model run. This policy increases these plants' target capacity factors, but it does not force them to be dispatched if it would be uneconomical to do so. // **Guidance for setting values:** // **New Wind:** Availability of wind cannot be changed by policy, so the main method of increasing capacity factor is technological improvement of wind turbines.  The National Renewable Energy Laboratory estimates that "near-future" wind technology could increase capacity factors by about 10 percentage points in most parts of the country.  The average capacity factor of new turbines in the BAU case is roughly 20%, so an improvement to 28% might be represented as an 10% setting of this policy lever. // **New Solar PV:** Availability of sunlight cannot be changed by policy, so the main method of improvement is increasing the efficiency of solar cells.  Typical crystalline silicon cells today have efficiencies of 20-25%, while today's best multi-junction cells (used primarily in concentrator PV and aerospace applications) have efficiencies of 40-45%.  If the typical cells installed in 2050 will have efficiencies similar to today's best multi-junction cells, this might be represented as a 25% setting of this policy lever.</v>
       </c>
       <c r="T125" s="38"/>
       <c r="U125" s="52"/>
     </row>
-    <row r="126" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:21" s="3" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A126" s="10" t="s">
         <v>8</v>
       </c>
@@ -13105,7 +13099,7 @@
       <c r="P126" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="Q126" s="173" t="str">
+      <c r="Q126" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C126,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the reduction in transmission and distribution losses that will be achieved by 2050. // **Guidance for setting values:** Indonesia has transmission and distribution losses of about 9.8%.  Germany, Japan, Finland, and the Netherlands have T&amp;D losses of around 4%.  Therefore, a 50% policy setting would cause Indonesia to approach these countries' current level of T&amp;D losses by 2050.</v>
       </c>
@@ -13120,7 +13114,7 @@
       </c>
       <c r="U126" s="52"/>
     </row>
-    <row r="127" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:21" s="12" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A127" s="2" t="s">
         <v>8</v>
       </c>
@@ -13159,7 +13153,7 @@
       <c r="P127" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q127" s="173" t="str">
+      <c r="Q127" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C127,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the fraction of potential electricity generation that must come from qualifying clean energy sources (renewables and nuclear) in 2050. // **Guidance for setting values:** Indonesia's National Energy Policy has set a target of 23% carbon-free energy by 2025 and 31% by 2050.</v>
       </c>
@@ -13174,7 +13168,7 @@
       </c>
       <c r="U127" s="54"/>
     </row>
-    <row r="128" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:21" s="12" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A128" s="2" t="s">
         <v>8</v>
       </c>
@@ -13209,7 +13203,7 @@
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
-      <c r="Q128" s="173" t="str">
+      <c r="Q128" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C128,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s). // **Guidance for setting values:** Indonesia currently offers subsidies of $14/MWh for biomass, $54/MWh for solar PV, and $90/MWh for geothermal electricity.</v>
       </c>
@@ -13217,7 +13211,7 @@
       <c r="T128" s="38"/>
       <c r="U128" s="51"/>
     </row>
-    <row r="129" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:21" s="12" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A129" s="18" t="str">
         <f t="shared" ref="A129:C135" si="53">A$128</f>
         <v>Electricity Supply</v>
@@ -13254,7 +13248,7 @@
       <c r="N129" s="18"/>
       <c r="O129" s="18"/>
       <c r="P129" s="18"/>
-      <c r="Q129" s="173" t="str">
+      <c r="Q129" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C129,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s). // **Guidance for setting values:** Indonesia currently offers subsidies of $14/MWh for biomass, $54/MWh for solar PV, and $90/MWh for geothermal electricity.</v>
       </c>
@@ -13308,7 +13302,7 @@
       <c r="P130" s="101" t="s">
         <v>592</v>
       </c>
-      <c r="Q130" s="173" t="str">
+      <c r="Q130" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C130,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s). // **Guidance for setting values:** Indonesia currently offers subsidies of $14/MWh for biomass, $54/MWh for solar PV, and $90/MWh for geothermal electricity.</v>
       </c>
@@ -13323,7 +13317,7 @@
       </c>
       <c r="U130" s="50"/>
     </row>
-    <row r="131" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:21" s="12" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A131" s="18" t="str">
         <f t="shared" si="53"/>
         <v>Electricity Supply</v>
@@ -13359,7 +13353,7 @@
       <c r="N131" s="18"/>
       <c r="O131" s="18"/>
       <c r="P131" s="18"/>
-      <c r="Q131" s="173" t="str">
+      <c r="Q131" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C131,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s). // **Guidance for setting values:** Indonesia currently offers subsidies of $14/MWh for biomass, $54/MWh for solar PV, and $90/MWh for geothermal electricity.</v>
       </c>
@@ -13419,7 +13413,7 @@
         <f t="shared" si="56"/>
         <v>thousand IDR/MWh</v>
       </c>
-      <c r="Q132" s="173" t="str">
+      <c r="Q132" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C132,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s). // **Guidance for setting values:** Indonesia currently offers subsidies of $14/MWh for biomass, $54/MWh for solar PV, and $90/MWh for geothermal electricity.</v>
       </c>
@@ -13486,7 +13480,7 @@
         <f t="shared" si="56"/>
         <v>thousand IDR/MWh</v>
       </c>
-      <c r="Q133" s="173" t="str">
+      <c r="Q133" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C133,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s). // **Guidance for setting values:** Indonesia currently offers subsidies of $14/MWh for biomass, $54/MWh for solar PV, and $90/MWh for geothermal electricity.</v>
       </c>
@@ -13501,7 +13495,7 @@
         <v>SOLAR PV: ASEAN Center for Energy, 2016, ASEAN Renewable Energy Policies, http://www.aseanenergy.org/resources/publications/asean-renewable-energy-policies/, Table 6: Tariff of Electricity Purchased from Solar PV, 1-5, GEOTHERMAL AND BIOMASS: International Energy Agency, 2017, Policies and Measures: Indonesia, https://www.iea.org/policiesandmeasures/pams/indonesia/, Feed-in-Tariffs for Biomass (Ministerial Regulation No. 19/2013) and Purchase of electricity from geothermal plants (20/2011; 22/2012)</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:21" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A134" s="18" t="str">
         <f t="shared" si="53"/>
         <v>Electricity Supply</v>
@@ -13541,7 +13535,7 @@
       <c r="N134" s="109"/>
       <c r="O134" s="109"/>
       <c r="P134" s="109"/>
-      <c r="Q134" s="173" t="str">
+      <c r="Q134" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C134,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s). // **Guidance for setting values:** Indonesia currently offers subsidies of $14/MWh for biomass, $54/MWh for solar PV, and $90/MWh for geothermal electricity.</v>
       </c>
@@ -13601,7 +13595,7 @@
         <f t="shared" si="56"/>
         <v>thousand IDR/MWh</v>
       </c>
-      <c r="Q135" s="173" t="str">
+      <c r="Q135" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C135,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy is a subsidy paid by the government to suppliers of electricity per unit of electricity generated from the selected plant type(s). // **Guidance for setting values:** Indonesia currently offers subsidies of $14/MWh for biomass, $54/MWh for solar PV, and $90/MWh for geothermal electricity.</v>
       </c>
@@ -13616,7 +13610,7 @@
         <v>SOLAR PV: ASEAN Center for Energy, 2016, ASEAN Renewable Energy Policies, http://www.aseanenergy.org/resources/publications/asean-renewable-energy-policies/, Table 6: Tariff of Electricity Purchased from Solar PV, 1-5, GEOTHERMAL AND BIOMASS: International Energy Agency, 2017, Policies and Measures: Indonesia, https://www.iea.org/policiesandmeasures/pams/indonesia/, Feed-in-Tariffs for Biomass (Ministerial Regulation No. 19/2013) and Purchase of electricity from geothermal plants (20/2011; 22/2012)</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:21" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A136" s="2" t="s">
         <v>9</v>
       </c>
@@ -13651,7 +13645,7 @@
       <c r="P136" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Q136" s="173" t="str">
+      <c r="Q136" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C136,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces CO2 emissions from the cement industry by substituing other inputs, such as fly ash, for a portion of the clinker in cement. // **Guidance for setting values:**  If this policy is fully implemented, process emissions (non-energy emissions) from the cement and other carbonates industry are reduced by 17% in 2050.</v>
       </c>
@@ -13665,7 +13659,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="137" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:21" s="12" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A137" s="2" t="s">
         <v>9</v>
       </c>
@@ -13704,7 +13698,7 @@
       <c r="P137" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Q137" s="173" t="str">
+      <c r="Q137" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C137,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces fuel consumption in the industry sector by increasing the use of cogeneration (also known as combined heat and power) and recovery of waste heat (to perform useful work). // **Guidance for setting values:** If this policy is fully implemented, fuel use is reduced by 7.9% for all industries in 2050.</v>
       </c>
@@ -13719,7 +13713,7 @@
       </c>
       <c r="U137" s="51"/>
     </row>
-    <row r="138" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A138" s="2" t="s">
         <v>9</v>
       </c>
@@ -13758,7 +13752,7 @@
       <c r="P138" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Q138" s="173" t="str">
+      <c r="Q138" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C138,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces fuel consumption in the industry sector by retiring older, inefficient industrial facilities sooner than they otherwise would retire.  This policy does not affect demand for industrial products, so it is assumed that any facilities retired under this policy are replaced by new facilities or increased output from existing facilities in the same year. // **Guidance for setting values:** If this policy is fully implemented, fuel use is reduced for most industries between 2% and 9% in 2050.</v>
       </c>
@@ -13773,7 +13767,7 @@
       </c>
       <c r="U138" s="51"/>
     </row>
-    <row r="139" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A139" s="2" t="s">
         <v>9</v>
       </c>
@@ -13816,7 +13810,7 @@
       <c r="P139" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q139" s="173" t="str">
+      <c r="Q139" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C139,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces fuel consumption by the selected industry by increasing the efficiency of industrial equipment through stronger standards.  The policy setting refers to overall energy use reduction, not the reduction in energy use of newly sold equipment. // **Guidance for setting values:** In Indonesia, use of more efficient industrial equipment such as variable speed drives and improved pumps can save up to 15% of energy use.</v>
       </c>
@@ -13831,7 +13825,7 @@
       </c>
       <c r="U139" s="106"/>
     </row>
-    <row r="140" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A140" s="18" t="str">
         <f>A$139</f>
         <v>Industry</v>
@@ -13883,7 +13877,7 @@
         <f t="shared" si="60"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="Q140" s="173" t="str">
+      <c r="Q140" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C140,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces fuel consumption by the selected industry by increasing the efficiency of industrial equipment through stronger standards.  The policy setting refers to overall energy use reduction, not the reduction in energy use of newly sold equipment. // **Guidance for setting values:** In Indonesia, use of more efficient industrial equipment such as variable speed drives and improved pumps can save up to 15% of energy use.</v>
       </c>
@@ -13902,7 +13896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A141" s="18" t="str">
         <f t="shared" ref="A141:A146" si="62">A$139</f>
         <v>Industry</v>
@@ -13954,7 +13948,7 @@
         <f t="shared" si="60"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="Q141" s="173" t="str">
+      <c r="Q141" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C141,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces fuel consumption by the selected industry by increasing the efficiency of industrial equipment through stronger standards.  The policy setting refers to overall energy use reduction, not the reduction in energy use of newly sold equipment. // **Guidance for setting values:** In Indonesia, use of more efficient industrial equipment such as variable speed drives and improved pumps can save up to 15% of energy use.</v>
       </c>
@@ -13973,7 +13967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A142" s="18" t="str">
         <f t="shared" si="62"/>
         <v>Industry</v>
@@ -14025,7 +14019,7 @@
         <f t="shared" si="60"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="Q142" s="173" t="str">
+      <c r="Q142" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C142,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces fuel consumption by the selected industry by increasing the efficiency of industrial equipment through stronger standards.  The policy setting refers to overall energy use reduction, not the reduction in energy use of newly sold equipment. // **Guidance for setting values:** In Indonesia, use of more efficient industrial equipment such as variable speed drives and improved pumps can save up to 15% of energy use.</v>
       </c>
@@ -14044,7 +14038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A143" s="18" t="str">
         <f t="shared" si="62"/>
         <v>Industry</v>
@@ -14096,7 +14090,7 @@
         <f t="shared" si="60"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="Q143" s="173" t="str">
+      <c r="Q143" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C143,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces fuel consumption by the selected industry by increasing the efficiency of industrial equipment through stronger standards.  The policy setting refers to overall energy use reduction, not the reduction in energy use of newly sold equipment. // **Guidance for setting values:** In Indonesia, use of more efficient industrial equipment such as variable speed drives and improved pumps can save up to 15% of energy use.</v>
       </c>
@@ -14115,7 +14109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A144" s="18" t="str">
         <f t="shared" si="62"/>
         <v>Industry</v>
@@ -14167,7 +14161,7 @@
         <f t="shared" si="60"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="Q144" s="173" t="str">
+      <c r="Q144" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C144,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces fuel consumption by the selected industry by increasing the efficiency of industrial equipment through stronger standards.  The policy setting refers to overall energy use reduction, not the reduction in energy use of newly sold equipment. // **Guidance for setting values:** In Indonesia, use of more efficient industrial equipment such as variable speed drives and improved pumps can save up to 15% of energy use.</v>
       </c>
@@ -14186,7 +14180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:21" ht="59" x14ac:dyDescent="0.75">
       <c r="A145" s="18" t="str">
         <f t="shared" si="62"/>
         <v>Industry</v>
@@ -14236,7 +14230,7 @@
         <f>P$139</f>
         <v>% reduction in energy use</v>
       </c>
-      <c r="Q145" s="173" t="str">
+      <c r="Q145" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C145,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces fuel consumption by the selected industry by increasing the efficiency of industrial equipment through stronger standards.  The policy setting refers to overall energy use reduction, not the reduction in energy use of newly sold equipment. // **Guidance for setting values:** In Indonesia, use of more efficient industrial equipment such as variable speed drives and improved pumps can save up to 15% of energy use.</v>
       </c>
@@ -14255,7 +14249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A146" s="18" t="str">
         <f t="shared" si="62"/>
         <v>Industry</v>
@@ -14307,7 +14301,7 @@
         <f t="shared" si="60"/>
         <v>% reduction in energy use</v>
       </c>
-      <c r="Q146" s="173" t="str">
+      <c r="Q146" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C146,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces fuel consumption by the selected industry by increasing the efficiency of industrial equipment through stronger standards.  The policy setting refers to overall energy use reduction, not the reduction in energy use of newly sold equipment. // **Guidance for setting values:** In Indonesia, use of more efficient industrial equipment such as variable speed drives and improved pumps can save up to 15% of energy use.</v>
       </c>
@@ -14326,7 +14320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:21" s="12" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A147" s="2" t="s">
         <v>9</v>
       </c>
@@ -14365,7 +14359,7 @@
       <c r="P147" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Q147" s="173" t="str">
+      <c r="Q147" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C147,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces fuel consumption in the industry sector by improving the way components are put together and the way material or energy flows between them. // **Guidance for setting values:** If this policy is fully implemented, fuel use is reduced by 3.6% for all industries in 2050.</v>
       </c>
@@ -14380,7 +14374,7 @@
       </c>
       <c r="U147" s="51"/>
     </row>
-    <row r="148" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:21" ht="59" x14ac:dyDescent="0.75">
       <c r="A148" s="2" t="s">
         <v>9</v>
       </c>
@@ -14415,7 +14409,7 @@
       <c r="P148" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Q148" s="173" t="str">
+      <c r="Q148" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C148,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces greenhouse gas emissions from the industry sector by switching the fuel used by facilities from coal to natural gas. // **Guidance for setting values:** In the BAU case, 36% of industrial energy comes from coal and 23% comes from natural gas, with those shares holding relatively constant from 2016-2050.  Thus, a 25% setting of this lever would reduce the share of energy from coal to 27% and increase the share from natural gas to 32%.</v>
       </c>
@@ -14429,7 +14423,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="149" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:21" ht="59" x14ac:dyDescent="0.75">
       <c r="A149" s="2" t="s">
         <v>9</v>
       </c>
@@ -14464,7 +14458,7 @@
       <c r="P149" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="Q149" s="173" t="str">
+      <c r="Q149" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C149,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces greenhouse gas emissions from the industry sector by switching the fuel used by facilities from natural gas to electricity. // **Guidance for setting values:** In the BAU case, 23% of industrial energy comes from natural gas and 6% comes from electricity, with those shares holding relatively constant from 2016-2050.  Thus, a 25% setting of this lever would reduce the share of energy from natural gas to 24% and increase the share from electricity to 14%.</v>
       </c>
@@ -14478,7 +14472,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="150" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:21" ht="59" x14ac:dyDescent="0.75">
       <c r="A150" s="2" t="s">
         <v>9</v>
       </c>
@@ -14513,7 +14507,7 @@
       <c r="P150" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Q150" s="173" t="str">
+      <c r="Q150" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C150,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces methane emissions from the industry sector by increasing the capture of methane that is currently being released into the atmosphere (for example, from leaks in pipes or decomposition of trash in landfills). // **Guidance for setting values:** If this policy is fully implemented, process emissions in 2050 are reduced by 6% from the natural gas and petroleum industry, 12% from the mining industry, and 45% from the waste management industry.</v>
       </c>
@@ -14527,7 +14521,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:21" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A151" s="2" t="s">
         <v>9</v>
       </c>
@@ -14562,7 +14556,7 @@
       <c r="P151" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Q151" s="173" t="str">
+      <c r="Q151" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C151,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces methane emissions from the industry sector by increasing the burning of methane that is currently being released into the atmosphere due to industrial processes. // **Guidance for setting values:** If this policy is fully implemented, process emissions in 2050 are reduced by 50% from the mining industry.</v>
       </c>
@@ -14576,7 +14570,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="152" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:21" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A152" s="2" t="s">
         <v>9</v>
       </c>
@@ -14611,7 +14605,7 @@
       <c r="P152" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Q152" s="173" t="str">
+      <c r="Q152" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C152,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces emissions of high-GWP, fluorinated gases (F-gases) from the industry sector by improving production processes and by substituing less-harmful chemicals. // **Guidance for setting values:** If this policy is fully implemented, process emissions in 2050 are reduced by 12% from the chemicals industry and 15% from the "other industries" category.</v>
       </c>
@@ -14625,7 +14619,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="153" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:21" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A153" s="2" t="s">
         <v>9</v>
       </c>
@@ -14660,7 +14654,7 @@
       <c r="P153" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Q153" s="173" t="str">
+      <c r="Q153" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C153,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces emissions of greenhouse gases from the industry sector by improving worker training and equipment maintenance. // **Guidance for setting values:** If this policy is fully implemented, process emissions in 2050 are reduced by 1.3% from the natural gas and petroleum industry.</v>
       </c>
@@ -14674,7 +14668,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="154" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:21" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A154" s="2" t="s">
         <v>177</v>
       </c>
@@ -14709,7 +14703,7 @@
       <c r="P154" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Q154" s="173" t="str">
+      <c r="Q154" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C154,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the sequestration of CO2 by planting forests.  Planted forests are assumed to be managed with best practices and are not used for timber harvesting. // **Guidance for setting values:** If this policy is fully implemented, the afforestation/reforestation rate reaches 18,723 hectares per year in 2050 (roughly equal to 5% of the land area deforested annually today).</v>
       </c>
@@ -14759,7 +14753,7 @@
       <c r="P155" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="Q155" s="173" t="str">
+      <c r="Q155" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C155,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy prevents the release of CO2 that accompanies deforestation. // **Guidance for setting values:** If this policy is fully implemented, the deforestation rate reaches zero hectares per year in 2050 (down from roughly 375,000 hectares per year in the BAU case).</v>
       </c>
@@ -14774,7 +14768,7 @@
       </c>
       <c r="U155" s="111"/>
     </row>
-    <row r="156" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:21" ht="59" x14ac:dyDescent="0.75">
       <c r="A156" s="2" t="s">
         <v>177</v>
       </c>
@@ -14809,7 +14803,7 @@
       <c r="P156" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="Q156" s="173" t="str">
+      <c r="Q156" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C156,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy restores degraded forest, increasing the rate of carbon sequestration of the forest. // **Guidance for setting values:** If this policy is fully implemented, 1 million hectares per year are restored from 2017-2020 and 0.5 million hectares per year are restored thereafter.</v>
       </c>
@@ -14824,7 +14818,7 @@
       </c>
       <c r="U156" s="111"/>
     </row>
-    <row r="157" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:21" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A157" s="2" t="s">
         <v>177</v>
       </c>
@@ -14851,7 +14845,7 @@
       <c r="N157" s="97"/>
       <c r="O157" s="97"/>
       <c r="P157" s="95"/>
-      <c r="Q157" s="173">
+      <c r="Q157" s="168">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C157,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -14859,7 +14853,7 @@
       <c r="S157" s="101"/>
       <c r="T157" s="104"/>
     </row>
-    <row r="158" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:21" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A158" s="2" t="s">
         <v>177</v>
       </c>
@@ -14886,7 +14880,7 @@
       <c r="N158" s="97"/>
       <c r="O158" s="97"/>
       <c r="P158" s="95"/>
-      <c r="Q158" s="173">
+      <c r="Q158" s="168">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C158,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -14894,7 +14888,7 @@
       <c r="S158" s="101"/>
       <c r="T158" s="104"/>
     </row>
-    <row r="159" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:21" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A159" s="2" t="s">
         <v>177</v>
       </c>
@@ -14921,7 +14915,7 @@
       <c r="N159" s="97"/>
       <c r="O159" s="97"/>
       <c r="P159" s="95"/>
-      <c r="Q159" s="173">
+      <c r="Q159" s="168">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C159,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -14929,7 +14923,7 @@
       <c r="S159" s="101"/>
       <c r="T159" s="104"/>
     </row>
-    <row r="160" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:21" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A160" s="2" t="s">
         <v>177</v>
       </c>
@@ -14964,7 +14958,7 @@
       <c r="P160" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Q160" s="173" t="str">
+      <c r="Q160" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C160,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces greenhouse gas emissions from agriculture through livestock-related measures, such as feed supplements or drugs to prevent enteric methane formation. // **Guidance for setting values:** If this policy is fully implemented, agricultural process emissions in 2050 are reduced by 2%.</v>
       </c>
@@ -14978,7 +14972,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="161" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:21" ht="59" x14ac:dyDescent="0.75">
       <c r="A161" s="2" t="s">
         <v>177</v>
       </c>
@@ -15013,7 +15007,7 @@
       <c r="P161" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="Q161" s="173" t="str">
+      <c r="Q161" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C161,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy restores degraded forest, increasing the rate of carbon sequestration of the peatland and preventing peat fires from occuring on that land. // **Guidance for setting values:** If this policy is fully implemented, 0.4 million hectares per year are restored from 2017-2019, 0.2 million are restored in 2020, and 0.26 million are restored each year thereafter.</v>
       </c>
@@ -15028,7 +15022,7 @@
       </c>
       <c r="U161" s="111"/>
     </row>
-    <row r="162" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:21" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A162" s="2" t="s">
         <v>177</v>
       </c>
@@ -15063,7 +15057,7 @@
       <c r="P162" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Q162" s="173" t="str">
+      <c r="Q162" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C162,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces greenhouse gas emissions from agriculture through measures pertaining to rice cultivation, such as improved flooding practices that avoid anaerobic, methane-forming conditions. // **Guidance for setting values:** If this policy is fully implemented, agricultural process emissions in 2050 are reduced by 7.5%.</v>
       </c>
@@ -15077,7 +15071,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="163" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:21" s="3" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A163" s="10" t="s">
         <v>444</v>
       </c>
@@ -15104,7 +15098,7 @@
       <c r="N163" s="100"/>
       <c r="O163" s="100"/>
       <c r="P163" s="101"/>
-      <c r="Q163" s="173">
+      <c r="Q163" s="168">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C163,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -15113,7 +15107,7 @@
       <c r="T163" s="104"/>
       <c r="U163" s="52"/>
     </row>
-    <row r="164" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:21" s="3" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A164" s="10" t="s">
         <v>444</v>
       </c>
@@ -15140,7 +15134,7 @@
       <c r="N164" s="100"/>
       <c r="O164" s="100"/>
       <c r="P164" s="95"/>
-      <c r="Q164" s="173">
+      <c r="Q164" s="168">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C164,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -15149,7 +15143,7 @@
       <c r="T164" s="104"/>
       <c r="U164" s="52"/>
     </row>
-    <row r="165" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:21" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A165" s="2" t="s">
         <v>10</v>
       </c>
@@ -15184,7 +15178,7 @@
       <c r="P165" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Q165" s="173" t="str">
+      <c r="Q165" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C165,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy specifies the fraction of the potential annual amount of carbon capture and sequestration (CCS) that is achieved in 2050, above the amount predicted in the business-as-usual scenario. // **Guidance for setting values:** If this policy is fully implemented, Indonesia will sequester an additional 225 million tons of CO2 in 2050 (on top of a BAU Scenario quantity of 38 million tons).</v>
       </c>
@@ -15241,7 +15235,7 @@
       <c r="P166" s="95" t="s">
         <v>593</v>
       </c>
-      <c r="Q166" s="173" t="str">
+      <c r="Q166" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C166,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. // **Implementation schedule:** This policy is implemented at 50% of the user's setting from 2020-2029, 60% of the user's setting from 2030-2039, and 100% of the user's setting from 2040-2050. // **Guidance for setting values:** The U.S. government's revised 2015 Social Cost of Carbon estimates for the year 2050 range from $29 to $105 per ton (in inflation-adjusted 2012 dollars), depending on one's choice of discount rate.  These estimates are not specific to the U.S. and are intended to reflect global impacts.</v>
       </c>
@@ -15310,7 +15304,7 @@
         <f t="shared" si="66"/>
         <v>thousand IDR/metric ton CO2e</v>
       </c>
-      <c r="Q167" s="173" t="str">
+      <c r="Q167" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C167,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. // **Implementation schedule:** This policy is implemented at 50% of the user's setting from 2020-2029, 60% of the user's setting from 2030-2039, and 100% of the user's setting from 2040-2050. // **Guidance for setting values:** The U.S. government's revised 2015 Social Cost of Carbon estimates for the year 2050 range from $29 to $105 per ton (in inflation-adjusted 2012 dollars), depending on one's choice of discount rate.  These estimates are not specific to the U.S. and are intended to reflect global impacts.</v>
       </c>
@@ -15377,7 +15371,7 @@
         <f t="shared" si="66"/>
         <v>thousand IDR/metric ton CO2e</v>
       </c>
-      <c r="Q168" s="173" t="str">
+      <c r="Q168" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C168,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. // **Implementation schedule:** This policy is implemented at 50% of the user's setting from 2020-2029, 60% of the user's setting from 2030-2039, and 100% of the user's setting from 2040-2050. // **Guidance for setting values:** The U.S. government's revised 2015 Social Cost of Carbon estimates for the year 2050 range from $29 to $105 per ton (in inflation-adjusted 2012 dollars), depending on one's choice of discount rate.  These estimates are not specific to the U.S. and are intended to reflect global impacts.</v>
       </c>
@@ -15444,7 +15438,7 @@
         <f t="shared" si="66"/>
         <v>thousand IDR/metric ton CO2e</v>
       </c>
-      <c r="Q169" s="173" t="str">
+      <c r="Q169" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C169,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. // **Implementation schedule:** This policy is implemented at 50% of the user's setting from 2020-2029, 60% of the user's setting from 2030-2039, and 100% of the user's setting from 2040-2050. // **Guidance for setting values:** The U.S. government's revised 2015 Social Cost of Carbon estimates for the year 2050 range from $29 to $105 per ton (in inflation-adjusted 2012 dollars), depending on one's choice of discount rate.  These estimates are not specific to the U.S. and are intended to reflect global impacts.</v>
       </c>
@@ -15511,7 +15505,7 @@
         <f t="shared" si="66"/>
         <v>thousand IDR/metric ton CO2e</v>
       </c>
-      <c r="Q170" s="173" t="str">
+      <c r="Q170" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C170,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. // **Implementation schedule:** This policy is implemented at 50% of the user's setting from 2020-2029, 60% of the user's setting from 2030-2039, and 100% of the user's setting from 2040-2050. // **Guidance for setting values:** The U.S. government's revised 2015 Social Cost of Carbon estimates for the year 2050 range from $29 to $105 per ton (in inflation-adjusted 2012 dollars), depending on one's choice of discount rate.  These estimates are not specific to the U.S. and are intended to reflect global impacts.</v>
       </c>
@@ -15564,7 +15558,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
-      <c r="Q171" s="173" t="str">
+      <c r="Q171" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C171,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. // **Implementation schedule:** This policy is implemented at 50% of the user's setting from 2020-2029, 60% of the user's setting from 2030-2039, and 100% of the user's setting from 2040-2050. // **Guidance for setting values:** The U.S. government's revised 2015 Social Cost of Carbon estimates for the year 2050 range from $29 to $105 per ton (in inflation-adjusted 2012 dollars), depending on one's choice of discount rate.  These estimates are not specific to the U.S. and are intended to reflect global impacts.</v>
       </c>
@@ -15611,7 +15605,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
-      <c r="Q172" s="173" t="str">
+      <c r="Q172" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C172,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy applies a price on fuels used in the selected sector(s) based on their greenhouse gas emissions.  It also increases the base cost of capital equipment (e.g., vehicles, power plants, building components) according to their embedded carbon content. // **Implementation schedule:** This policy is implemented at 50% of the user's setting from 2020-2029, 60% of the user's setting from 2030-2039, and 100% of the user's setting from 2040-2050. // **Guidance for setting values:** The U.S. government's revised 2015 Social Cost of Carbon estimates for the year 2050 range from $29 to $105 per ton (in inflation-adjusted 2012 dollars), depending on one's choice of discount rate.  These estimates are not specific to the U.S. and are intended to reflect global impacts.</v>
       </c>
@@ -15620,7 +15614,7 @@
       <c r="T172" s="38"/>
       <c r="U172" s="51"/>
     </row>
-    <row r="173" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A173" s="2" t="s">
         <v>10</v>
       </c>
@@ -15655,7 +15649,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
       <c r="P173" s="6"/>
-      <c r="Q173" s="173" t="str">
+      <c r="Q173" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C173,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of electricity produced from solar PV plants by 118%, electricity from biomass plants by 88%, petroleum diesel by 1%, biofuel gasoline by 66%, biofuel diesel by 57%, and electricity from geothermal plants from negative $23/MWh (a net savings) to positive $67/MWh (a net cost) in 2050.</v>
       </c>
@@ -15663,7 +15657,7 @@
       <c r="T173" s="37"/>
       <c r="U173" s="51"/>
     </row>
-    <row r="174" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A174" s="18" t="str">
         <f>A$173</f>
         <v>Cross-Sector</v>
@@ -15703,7 +15697,7 @@
       <c r="N174" s="100"/>
       <c r="O174" s="100"/>
       <c r="P174" s="95"/>
-      <c r="Q174" s="173" t="str">
+      <c r="Q174" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C174,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of electricity produced from solar PV plants by 118%, electricity from biomass plants by 88%, petroleum diesel by 1%, biofuel gasoline by 66%, biofuel diesel by 57%, and electricity from geothermal plants from negative $23/MWh (a net savings) to positive $67/MWh (a net cost) in 2050.</v>
       </c>
@@ -15712,7 +15706,7 @@
       <c r="T174" s="104"/>
       <c r="U174" s="51"/>
     </row>
-    <row r="175" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A175" s="18" t="str">
         <f t="shared" ref="A175:A187" si="72">A$173</f>
         <v>Cross-Sector</v>
@@ -15752,7 +15746,7 @@
       <c r="N175" s="108"/>
       <c r="O175" s="108"/>
       <c r="P175" s="108"/>
-      <c r="Q175" s="173" t="str">
+      <c r="Q175" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C175,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of electricity produced from solar PV plants by 118%, electricity from biomass plants by 88%, petroleum diesel by 1%, biofuel gasoline by 66%, biofuel diesel by 57%, and electricity from geothermal plants from negative $23/MWh (a net savings) to positive $67/MWh (a net cost) in 2050.</v>
       </c>
@@ -15761,7 +15755,7 @@
       <c r="T175" s="104"/>
       <c r="U175" s="51"/>
     </row>
-    <row r="176" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A176" s="18" t="str">
         <f t="shared" si="72"/>
         <v>Cross-Sector</v>
@@ -15801,7 +15795,7 @@
       <c r="N176" s="108"/>
       <c r="O176" s="108"/>
       <c r="P176" s="108"/>
-      <c r="Q176" s="173" t="str">
+      <c r="Q176" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C176,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of electricity produced from solar PV plants by 118%, electricity from biomass plants by 88%, petroleum diesel by 1%, biofuel gasoline by 66%, biofuel diesel by 57%, and electricity from geothermal plants from negative $23/MWh (a net savings) to positive $67/MWh (a net cost) in 2050.</v>
       </c>
@@ -15810,7 +15804,7 @@
       <c r="T176" s="104"/>
       <c r="U176" s="51"/>
     </row>
-    <row r="177" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A177" s="18" t="str">
         <f t="shared" si="72"/>
         <v>Cross-Sector</v>
@@ -15850,7 +15844,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="15"/>
       <c r="P177" s="15"/>
-      <c r="Q177" s="173" t="str">
+      <c r="Q177" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C177,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of electricity produced from solar PV plants by 118%, electricity from biomass plants by 88%, petroleum diesel by 1%, biofuel gasoline by 66%, biofuel diesel by 57%, and electricity from geothermal plants from negative $23/MWh (a net savings) to positive $67/MWh (a net cost) in 2050.</v>
       </c>
@@ -15859,7 +15853,7 @@
       <c r="T177" s="36"/>
       <c r="U177" s="51"/>
     </row>
-    <row r="178" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A178" s="18" t="str">
         <f t="shared" si="72"/>
         <v>Cross-Sector</v>
@@ -15899,7 +15893,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="15"/>
       <c r="P178" s="15"/>
-      <c r="Q178" s="173" t="str">
+      <c r="Q178" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C178,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of electricity produced from solar PV plants by 118%, electricity from biomass plants by 88%, petroleum diesel by 1%, biofuel gasoline by 66%, biofuel diesel by 57%, and electricity from geothermal plants from negative $23/MWh (a net savings) to positive $67/MWh (a net cost) in 2050.</v>
       </c>
@@ -15908,7 +15902,7 @@
       <c r="T178" s="36"/>
       <c r="U178" s="51"/>
     </row>
-    <row r="179" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A179" s="18" t="str">
         <f t="shared" si="72"/>
         <v>Cross-Sector</v>
@@ -15956,7 +15950,7 @@
       <c r="P179" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="Q179" s="173" t="str">
+      <c r="Q179" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C179,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of electricity produced from solar PV plants by 118%, electricity from biomass plants by 88%, petroleum diesel by 1%, biofuel gasoline by 66%, biofuel diesel by 57%, and electricity from geothermal plants from negative $23/MWh (a net savings) to positive $67/MWh (a net cost) in 2050.</v>
       </c>
@@ -15971,7 +15965,7 @@
       </c>
       <c r="U179" s="51"/>
     </row>
-    <row r="180" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A180" s="18" t="str">
         <f t="shared" si="72"/>
         <v>Cross-Sector</v>
@@ -16023,7 +16017,7 @@
         <f t="shared" si="74"/>
         <v>% reduction in BAU subsidies</v>
       </c>
-      <c r="Q180" s="173" t="str">
+      <c r="Q180" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C180,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of electricity produced from solar PV plants by 118%, electricity from biomass plants by 88%, petroleum diesel by 1%, biofuel gasoline by 66%, biofuel diesel by 57%, and electricity from geothermal plants from negative $23/MWh (a net savings) to positive $67/MWh (a net cost) in 2050.</v>
       </c>
@@ -16041,7 +16035,7 @@
       </c>
       <c r="U180" s="51"/>
     </row>
-    <row r="181" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A181" s="18" t="str">
         <f t="shared" si="72"/>
         <v>Cross-Sector</v>
@@ -16081,7 +16075,7 @@
       <c r="N181" s="108"/>
       <c r="O181" s="108"/>
       <c r="P181" s="108"/>
-      <c r="Q181" s="173" t="str">
+      <c r="Q181" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C181,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of electricity produced from solar PV plants by 118%, electricity from biomass plants by 88%, petroleum diesel by 1%, biofuel gasoline by 66%, biofuel diesel by 57%, and electricity from geothermal plants from negative $23/MWh (a net savings) to positive $67/MWh (a net cost) in 2050.</v>
       </c>
@@ -16090,7 +16084,7 @@
       <c r="T181" s="104"/>
       <c r="U181" s="51"/>
     </row>
-    <row r="182" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A182" s="18" t="str">
         <f t="shared" si="72"/>
         <v>Cross-Sector</v>
@@ -16142,7 +16136,7 @@
         <f t="shared" si="74"/>
         <v>% reduction in BAU subsidies</v>
       </c>
-      <c r="Q182" s="173" t="str">
+      <c r="Q182" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C182,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of electricity produced from solar PV plants by 118%, electricity from biomass plants by 88%, petroleum diesel by 1%, biofuel gasoline by 66%, biofuel diesel by 57%, and electricity from geothermal plants from negative $23/MWh (a net savings) to positive $67/MWh (a net cost) in 2050.</v>
       </c>
@@ -16160,7 +16154,7 @@
       </c>
       <c r="U182" s="51"/>
     </row>
-    <row r="183" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A183" s="18" t="str">
         <f t="shared" si="72"/>
         <v>Cross-Sector</v>
@@ -16212,7 +16206,7 @@
         <f t="shared" si="74"/>
         <v>% reduction in BAU subsidies</v>
       </c>
-      <c r="Q183" s="173" t="str">
+      <c r="Q183" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C183,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of electricity produced from solar PV plants by 118%, electricity from biomass plants by 88%, petroleum diesel by 1%, biofuel gasoline by 66%, biofuel diesel by 57%, and electricity from geothermal plants from negative $23/MWh (a net savings) to positive $67/MWh (a net cost) in 2050.</v>
       </c>
@@ -16230,7 +16224,7 @@
       </c>
       <c r="U183" s="51"/>
     </row>
-    <row r="184" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A184" s="18" t="str">
         <f t="shared" si="72"/>
         <v>Cross-Sector</v>
@@ -16282,7 +16276,7 @@
         <f t="shared" si="74"/>
         <v>% reduction in BAU subsidies</v>
       </c>
-      <c r="Q184" s="173" t="str">
+      <c r="Q184" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C184,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of electricity produced from solar PV plants by 118%, electricity from biomass plants by 88%, petroleum diesel by 1%, biofuel gasoline by 66%, biofuel diesel by 57%, and electricity from geothermal plants from negative $23/MWh (a net savings) to positive $67/MWh (a net cost) in 2050.</v>
       </c>
@@ -16300,7 +16294,7 @@
       </c>
       <c r="U184" s="51"/>
     </row>
-    <row r="185" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A185" s="18" t="str">
         <f t="shared" si="72"/>
         <v>Cross-Sector</v>
@@ -16338,7 +16332,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="15"/>
       <c r="P185" s="15"/>
-      <c r="Q185" s="173" t="str">
+      <c r="Q185" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C185,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of electricity produced from solar PV plants by 118%, electricity from biomass plants by 88%, petroleum diesel by 1%, biofuel gasoline by 66%, biofuel diesel by 57%, and electricity from geothermal plants from negative $23/MWh (a net savings) to positive $67/MWh (a net cost) in 2050.</v>
       </c>
@@ -16347,7 +16341,7 @@
       <c r="T185" s="36"/>
       <c r="U185" s="51"/>
     </row>
-    <row r="186" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A186" s="18" t="str">
         <f t="shared" si="72"/>
         <v>Cross-Sector</v>
@@ -16387,7 +16381,7 @@
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
       <c r="P186" s="6"/>
-      <c r="Q186" s="173" t="str">
+      <c r="Q186" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C186,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of electricity produced from solar PV plants by 118%, electricity from biomass plants by 88%, petroleum diesel by 1%, biofuel gasoline by 66%, biofuel diesel by 57%, and electricity from geothermal plants from negative $23/MWh (a net savings) to positive $67/MWh (a net cost) in 2050.</v>
       </c>
@@ -16395,7 +16389,7 @@
       <c r="T186" s="37"/>
       <c r="U186" s="51"/>
     </row>
-    <row r="187" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:21" s="12" customFormat="1" ht="59" x14ac:dyDescent="0.75">
       <c r="A187" s="109" t="str">
         <f t="shared" si="72"/>
         <v>Cross-Sector</v>
@@ -16447,7 +16441,7 @@
         <f t="shared" si="77"/>
         <v>% reduction in BAU subsidies</v>
       </c>
-      <c r="Q187" s="173" t="str">
+      <c r="Q187" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C187,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy reduces the subsidies paid for the production of the selected energy source(s) in the BAU case. // **Guidance for setting values:** A value of 100% eliminates subsidies, increasing the price of electricity produced from solar PV plants by 118%, electricity from biomass plants by 88%, petroleum diesel by 1%, biofuel gasoline by 66%, biofuel diesel by 57%, and electricity from geothermal plants from negative $23/MWh (a net savings) to positive $67/MWh (a net cost) in 2050.</v>
       </c>
@@ -16465,7 +16459,7 @@
       </c>
       <c r="U187" s="107"/>
     </row>
-    <row r="188" spans="1:21" s="3" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:21" s="3" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A188" s="10" t="s">
         <v>10</v>
       </c>
@@ -16490,7 +16484,7 @@
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
       <c r="P188" s="10"/>
-      <c r="Q188" s="173">
+      <c r="Q188" s="168">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C188,'Policy Characteristics'!$C:$C,0))</f>
         <v>0</v>
       </c>
@@ -16542,7 +16536,7 @@
       <c r="P189" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="Q189" s="173" t="str">
+      <c r="Q189" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C189,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In 2016, the BAU tax rate on most fuels was 10%, and on gasoline, it was 15%.</v>
       </c>
@@ -16608,7 +16602,7 @@
         <f t="shared" si="82"/>
         <v>% of BAU price</v>
       </c>
-      <c r="Q190" s="173" t="str">
+      <c r="Q190" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C190,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In 2016, the BAU tax rate on most fuels was 10%, and on gasoline, it was 15%.</v>
       </c>
@@ -16675,7 +16669,7 @@
         <f t="shared" si="82"/>
         <v>% of BAU price</v>
       </c>
-      <c r="Q191" s="173" t="str">
+      <c r="Q191" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C191,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In 2016, the BAU tax rate on most fuels was 10%, and on gasoline, it was 15%.</v>
       </c>
@@ -16691,7 +16685,7 @@
       </c>
       <c r="U191" s="51"/>
     </row>
-    <row r="192" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:21" s="12" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A192" s="19" t="str">
         <f t="shared" si="79"/>
         <v>Cross-Sector</v>
@@ -16730,7 +16724,7 @@
       <c r="N192" s="19"/>
       <c r="O192" s="34"/>
       <c r="P192" s="33"/>
-      <c r="Q192" s="173" t="str">
+      <c r="Q192" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C192,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In 2016, the BAU tax rate on most fuels was 10%, and on gasoline, it was 15%.</v>
       </c>
@@ -16738,7 +16732,7 @@
       <c r="T192" s="37"/>
       <c r="U192" s="51"/>
     </row>
-    <row r="193" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:21" s="12" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A193" s="19" t="str">
         <f t="shared" si="79"/>
         <v>Cross-Sector</v>
@@ -16777,7 +16771,7 @@
       <c r="N193" s="19"/>
       <c r="O193" s="34"/>
       <c r="P193" s="19"/>
-      <c r="Q193" s="173" t="str">
+      <c r="Q193" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C193,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In 2016, the BAU tax rate on most fuels was 10%, and on gasoline, it was 15%.</v>
       </c>
@@ -16785,7 +16779,7 @@
       <c r="T193" s="37"/>
       <c r="U193" s="51"/>
     </row>
-    <row r="194" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:21" s="12" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A194" s="19" t="str">
         <f t="shared" si="79"/>
         <v>Cross-Sector</v>
@@ -16824,7 +16818,7 @@
       <c r="N194" s="19"/>
       <c r="O194" s="34"/>
       <c r="P194" s="19"/>
-      <c r="Q194" s="173" t="str">
+      <c r="Q194" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C194,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In 2016, the BAU tax rate on most fuels was 10%, and on gasoline, it was 15%.</v>
       </c>
@@ -16832,7 +16826,7 @@
       <c r="T194" s="37"/>
       <c r="U194" s="51"/>
     </row>
-    <row r="195" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:21" s="12" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A195" s="19" t="str">
         <f t="shared" si="79"/>
         <v>Cross-Sector</v>
@@ -16871,7 +16865,7 @@
       <c r="N195" s="19"/>
       <c r="O195" s="34"/>
       <c r="P195" s="19"/>
-      <c r="Q195" s="173" t="str">
+      <c r="Q195" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C195,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In 2016, the BAU tax rate on most fuels was 10%, and on gasoline, it was 15%.</v>
       </c>
@@ -16879,7 +16873,7 @@
       <c r="T195" s="37"/>
       <c r="U195" s="51"/>
     </row>
-    <row r="196" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:21" s="12" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A196" s="19" t="str">
         <f t="shared" si="79"/>
         <v>Cross-Sector</v>
@@ -16918,7 +16912,7 @@
       <c r="N196" s="19"/>
       <c r="O196" s="34"/>
       <c r="P196" s="33"/>
-      <c r="Q196" s="173" t="str">
+      <c r="Q196" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C196,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In 2016, the BAU tax rate on most fuels was 10%, and on gasoline, it was 15%.</v>
       </c>
@@ -16977,7 +16971,7 @@
         <f t="shared" si="83"/>
         <v>% of BAU price</v>
       </c>
-      <c r="Q197" s="173" t="str">
+      <c r="Q197" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C197,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In 2016, the BAU tax rate on most fuels was 10%, and on gasoline, it was 15%.</v>
       </c>
@@ -17044,7 +17038,7 @@
         <f t="shared" si="83"/>
         <v>% of BAU price</v>
       </c>
-      <c r="Q198" s="173" t="str">
+      <c r="Q198" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C198,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In 2016, the BAU tax rate on most fuels was 10%, and on gasoline, it was 15%.</v>
       </c>
@@ -17060,7 +17054,7 @@
       </c>
       <c r="U198" s="51"/>
     </row>
-    <row r="199" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:21" s="12" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A199" s="19" t="str">
         <f t="shared" si="79"/>
         <v>Cross-Sector</v>
@@ -17099,7 +17093,7 @@
       <c r="N199" s="19"/>
       <c r="O199" s="34"/>
       <c r="P199" s="33"/>
-      <c r="Q199" s="173" t="str">
+      <c r="Q199" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C199,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In 2016, the BAU tax rate on most fuels was 10%, and on gasoline, it was 15%.</v>
       </c>
@@ -17107,7 +17101,7 @@
       <c r="T199" s="37"/>
       <c r="U199" s="51"/>
     </row>
-    <row r="200" spans="1:21" s="12" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:21" s="12" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A200" s="19" t="str">
         <f t="shared" si="79"/>
         <v>Cross-Sector</v>
@@ -17146,7 +17140,7 @@
       <c r="N200" s="19"/>
       <c r="O200" s="34"/>
       <c r="P200" s="33"/>
-      <c r="Q200" s="173" t="str">
+      <c r="Q200" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C200,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In 2016, the BAU tax rate on most fuels was 10%, and on gasoline, it was 15%.</v>
       </c>
@@ -17154,7 +17148,7 @@
       <c r="T200" s="37"/>
       <c r="U200" s="51"/>
     </row>
-    <row r="201" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:21" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A201" s="19" t="str">
         <f t="shared" si="79"/>
         <v>Cross-Sector</v>
@@ -17191,14 +17185,14 @@
       <c r="N201" s="19"/>
       <c r="O201" s="34"/>
       <c r="P201" s="33"/>
-      <c r="Q201" s="173" t="str">
+      <c r="Q201" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C201,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In 2016, the BAU tax rate on most fuels was 10%, and on gasoline, it was 15%.</v>
       </c>
       <c r="R201" s="3"/>
       <c r="T201" s="37"/>
     </row>
-    <row r="202" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:21" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A202" s="19" t="str">
         <f t="shared" si="79"/>
         <v>Cross-Sector</v>
@@ -17238,12 +17232,12 @@
       <c r="N202" s="19"/>
       <c r="O202" s="34"/>
       <c r="P202" s="33"/>
-      <c r="Q202" s="173" t="str">
+      <c r="Q202" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C202,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy increases the tax rate for the selected fuel type(s).  It is expressed as a percentage of the BAU Scenario price, which includes sales and excise taxes. // **Guidance for setting values:** In 2016, the BAU tax rate on most fuels was 10%, and on gasoline, it was 15%.</v>
       </c>
     </row>
-    <row r="203" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:21" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A203" s="2" t="s">
         <v>35</v>
       </c>
@@ -17284,7 +17278,7 @@
       <c r="P203" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Q203" s="173" t="str">
+      <c r="Q203" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C203,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -17298,7 +17292,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="204" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:21" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A204" s="18" t="str">
         <f t="shared" ref="A204:A209" si="84">A$203</f>
         <v>R&amp;D</v>
@@ -17348,7 +17342,7 @@
         <f t="shared" si="88"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="Q204" s="173" t="str">
+      <c r="Q204" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C204,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -17362,7 +17356,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="205" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:21" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A205" s="18" t="str">
         <f t="shared" si="84"/>
         <v>R&amp;D</v>
@@ -17412,7 +17406,7 @@
         <f t="shared" si="88"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="Q205" s="173" t="str">
+      <c r="Q205" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C205,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -17426,7 +17420,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="206" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:21" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A206" s="18" t="str">
         <f t="shared" si="84"/>
         <v>R&amp;D</v>
@@ -17476,7 +17470,7 @@
         <f t="shared" si="88"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="Q206" s="173" t="str">
+      <c r="Q206" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C206,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -17490,7 +17484,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="207" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:21" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A207" s="18" t="str">
         <f t="shared" si="84"/>
         <v>R&amp;D</v>
@@ -17540,7 +17534,7 @@
         <f t="shared" si="88"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="Q207" s="173" t="str">
+      <c r="Q207" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C207,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -17554,7 +17548,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="208" spans="1:21" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:21" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A208" s="18" t="str">
         <f t="shared" si="84"/>
         <v>R&amp;D</v>
@@ -17604,7 +17598,7 @@
         <f t="shared" si="88"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="Q208" s="173" t="str">
+      <c r="Q208" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C208,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -17618,7 +17612,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A209" s="18" t="str">
         <f t="shared" si="84"/>
         <v>R&amp;D</v>
@@ -17660,7 +17654,7 @@
       <c r="P209" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Q209" s="173" t="str">
+      <c r="Q209" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C209,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -17674,7 +17668,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A210" s="2" t="s">
         <v>35</v>
       </c>
@@ -17718,7 +17712,7 @@
       <c r="P210" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Q210" s="173" t="str">
+      <c r="Q210" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C210,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -17732,7 +17726,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A211" s="18" t="str">
         <f>A$210</f>
         <v>R&amp;D</v>
@@ -17783,7 +17777,7 @@
         <f t="shared" si="90"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="Q211" s="173" t="str">
+      <c r="Q211" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C211,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -17797,7 +17791,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A212" s="18" t="str">
         <f t="shared" ref="A212:A217" si="91">A$210</f>
         <v>R&amp;D</v>
@@ -17848,7 +17842,7 @@
         <f t="shared" si="90"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="Q212" s="173" t="str">
+      <c r="Q212" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C212,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -17862,7 +17856,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A213" s="18" t="str">
         <f t="shared" si="91"/>
         <v>R&amp;D</v>
@@ -17913,7 +17907,7 @@
         <f t="shared" si="90"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="Q213" s="173" t="str">
+      <c r="Q213" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C213,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -17927,7 +17921,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A214" s="18" t="str">
         <f t="shared" si="91"/>
         <v>R&amp;D</v>
@@ -17978,7 +17972,7 @@
         <f t="shared" si="90"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="Q214" s="173" t="str">
+      <c r="Q214" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C214,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -17992,7 +17986,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A215" s="18" t="str">
         <f t="shared" si="91"/>
         <v>R&amp;D</v>
@@ -18043,7 +18037,7 @@
         <f t="shared" si="90"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="Q215" s="173" t="str">
+      <c r="Q215" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C215,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -18057,7 +18051,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A216" s="18" t="str">
         <f t="shared" si="91"/>
         <v>R&amp;D</v>
@@ -18108,7 +18102,7 @@
         <f t="shared" si="90"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="Q216" s="173" t="str">
+      <c r="Q216" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C216,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -18122,7 +18116,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A217" s="18" t="str">
         <f t="shared" si="91"/>
         <v>R&amp;D</v>
@@ -18173,7 +18167,7 @@
         <f t="shared" si="90"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="Q217" s="173" t="str">
+      <c r="Q217" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C217,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -18187,7 +18181,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A218" s="2" t="s">
         <v>35</v>
       </c>
@@ -18231,7 +18225,7 @@
       <c r="P218" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Q218" s="173" t="str">
+      <c r="Q218" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C218,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -18245,7 +18239,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A219" s="18" t="str">
         <f>A$218</f>
         <v>R&amp;D</v>
@@ -18295,7 +18289,7 @@
         <f t="shared" si="93"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="Q219" s="173" t="str">
+      <c r="Q219" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C219,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -18309,7 +18303,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A220" s="18" t="str">
         <f t="shared" ref="A220:A225" si="94">A$218</f>
         <v>R&amp;D</v>
@@ -18359,7 +18353,7 @@
         <f t="shared" si="93"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="Q220" s="173" t="str">
+      <c r="Q220" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C220,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -18373,7 +18367,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A221" s="18" t="str">
         <f t="shared" si="94"/>
         <v>R&amp;D</v>
@@ -18423,7 +18417,7 @@
         <f t="shared" si="93"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="Q221" s="173" t="str">
+      <c r="Q221" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C221,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -18437,7 +18431,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A222" s="18" t="str">
         <f t="shared" si="94"/>
         <v>R&amp;D</v>
@@ -18487,7 +18481,7 @@
         <f t="shared" si="93"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="Q222" s="173" t="str">
+      <c r="Q222" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C222,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -18501,7 +18495,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A223" s="18" t="str">
         <f t="shared" si="94"/>
         <v>R&amp;D</v>
@@ -18551,7 +18545,7 @@
         <f t="shared" si="93"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="Q223" s="173" t="str">
+      <c r="Q223" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C223,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -18565,7 +18559,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A224" s="18" t="str">
         <f t="shared" si="94"/>
         <v>R&amp;D</v>
@@ -18615,7 +18609,7 @@
         <f t="shared" si="93"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="Q224" s="173" t="str">
+      <c r="Q224" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C224,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -18629,7 +18623,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A225" s="18" t="str">
         <f t="shared" si="94"/>
         <v>R&amp;D</v>
@@ -18679,7 +18673,7 @@
         <f t="shared" si="93"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="Q225" s="173" t="str">
+      <c r="Q225" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C225,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -18693,7 +18687,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A226" s="10" t="s">
         <v>35</v>
       </c>
@@ -18737,7 +18731,7 @@
       <c r="P226" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Q226" s="173" t="str">
+      <c r="Q226" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C226,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -18751,7 +18745,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A227" s="18" t="str">
         <f>A$226</f>
         <v>R&amp;D</v>
@@ -18801,7 +18795,7 @@
         <f t="shared" si="96"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="Q227" s="173" t="str">
+      <c r="Q227" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C227,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -18815,7 +18809,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A228" s="18" t="str">
         <f>A$226</f>
         <v>R&amp;D</v>
@@ -18865,7 +18859,7 @@
         <f t="shared" si="96"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="Q228" s="173" t="str">
+      <c r="Q228" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C228,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -18879,7 +18873,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A229" s="18" t="str">
         <f>A$226</f>
         <v>R&amp;D</v>
@@ -18929,7 +18923,7 @@
         <f t="shared" si="96"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="Q229" s="173" t="str">
+      <c r="Q229" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C229,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -18943,7 +18937,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A230" s="18" t="str">
         <f>A$226</f>
         <v>R&amp;D</v>
@@ -18993,7 +18987,7 @@
         <f t="shared" si="96"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="Q230" s="173" t="str">
+      <c r="Q230" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C230,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -19007,7 +19001,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A231" s="18" t="str">
         <f>A$226</f>
         <v>R&amp;D</v>
@@ -19057,7 +19051,7 @@
         <f t="shared" si="96"/>
         <v>% reduction in cost</v>
       </c>
-      <c r="Q231" s="173" t="str">
+      <c r="Q231" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C231,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the capital cost of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -19071,7 +19065,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A232" s="2" t="s">
         <v>35</v>
       </c>
@@ -19112,7 +19106,7 @@
       <c r="P232" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Q232" s="173" t="str">
+      <c r="Q232" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C232,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -19126,7 +19120,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A233" s="18" t="str">
         <f>A$232</f>
         <v>R&amp;D</v>
@@ -19176,7 +19170,7 @@
         <f t="shared" si="100"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="Q233" s="173" t="str">
+      <c r="Q233" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C233,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -19190,7 +19184,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A234" s="18" t="str">
         <f>A$232</f>
         <v>R&amp;D</v>
@@ -19225,12 +19219,12 @@
       <c r="N234" s="19"/>
       <c r="O234" s="56"/>
       <c r="P234" s="18"/>
-      <c r="Q234" s="173" t="str">
+      <c r="Q234" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C234,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A235" s="18" t="str">
         <f>A$232</f>
         <v>R&amp;D</v>
@@ -19280,7 +19274,7 @@
         <f t="shared" si="100"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="Q235" s="173" t="str">
+      <c r="Q235" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C235,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -19294,7 +19288,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="236" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A236" s="18" t="str">
         <f>A$232</f>
         <v>R&amp;D</v>
@@ -19344,7 +19338,7 @@
         <f t="shared" si="100"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="Q236" s="173" t="str">
+      <c r="Q236" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C236,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -19358,7 +19352,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="237" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A237" s="18" t="str">
         <f>A$232</f>
         <v>R&amp;D</v>
@@ -19408,7 +19402,7 @@
         <f t="shared" si="100"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="Q237" s="173" t="str">
+      <c r="Q237" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C237,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -19422,7 +19416,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="238" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A238" s="2" t="s">
         <v>35</v>
       </c>
@@ -19463,7 +19457,7 @@
       <c r="P238" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Q238" s="173" t="str">
+      <c r="Q238" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C238,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -19477,7 +19471,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A239" s="2" t="s">
         <v>35</v>
       </c>
@@ -19521,7 +19515,7 @@
       <c r="P239" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Q239" s="173" t="str">
+      <c r="Q239" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C239,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -19535,7 +19529,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A240" s="18" t="str">
         <f>A$239</f>
         <v>R&amp;D</v>
@@ -19586,7 +19580,7 @@
         <f t="shared" si="102"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="Q240" s="173" t="str">
+      <c r="Q240" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C240,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -19600,7 +19594,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A241" s="18" t="str">
         <f t="shared" ref="A241:A246" si="103">A$239</f>
         <v>R&amp;D</v>
@@ -19651,7 +19645,7 @@
         <f t="shared" si="102"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="Q241" s="173" t="str">
+      <c r="Q241" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C241,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -19665,7 +19659,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="242" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A242" s="18" t="str">
         <f t="shared" si="103"/>
         <v>R&amp;D</v>
@@ -19704,12 +19698,12 @@
       <c r="N242" s="19"/>
       <c r="O242" s="56"/>
       <c r="P242" s="18"/>
-      <c r="Q242" s="173" t="str">
+      <c r="Q242" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C242,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="243" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A243" s="18" t="str">
         <f t="shared" si="103"/>
         <v>R&amp;D</v>
@@ -19748,12 +19742,12 @@
       <c r="N243" s="19"/>
       <c r="O243" s="56"/>
       <c r="P243" s="18"/>
-      <c r="Q243" s="173" t="str">
+      <c r="Q243" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C243,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A244" s="18" t="str">
         <f t="shared" si="103"/>
         <v>R&amp;D</v>
@@ -19792,12 +19786,12 @@
       <c r="N244" s="19"/>
       <c r="O244" s="56"/>
       <c r="P244" s="18"/>
-      <c r="Q244" s="173" t="str">
+      <c r="Q244" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C244,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="245" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A245" s="18" t="str">
         <f t="shared" si="103"/>
         <v>R&amp;D</v>
@@ -19836,12 +19830,12 @@
       <c r="N245" s="19"/>
       <c r="O245" s="56"/>
       <c r="P245" s="18"/>
-      <c r="Q245" s="173" t="str">
+      <c r="Q245" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C245,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="246" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A246" s="18" t="str">
         <f t="shared" si="103"/>
         <v>R&amp;D</v>
@@ -19892,7 +19886,7 @@
         <f>P$239</f>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="Q246" s="173" t="str">
+      <c r="Q246" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C246,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -19906,7 +19900,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="247" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A247" s="2" t="s">
         <v>35</v>
       </c>
@@ -19950,7 +19944,7 @@
       <c r="P247" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Q247" s="173" t="str">
+      <c r="Q247" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C247,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -19964,7 +19958,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="248" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A248" s="18" t="str">
         <f>A$247</f>
         <v>R&amp;D</v>
@@ -20014,7 +20008,7 @@
         <f t="shared" si="105"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="Q248" s="173" t="str">
+      <c r="Q248" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C248,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -20028,7 +20022,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="249" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A249" s="18" t="str">
         <f t="shared" ref="A249:A254" si="106">A$247</f>
         <v>R&amp;D</v>
@@ -20078,7 +20072,7 @@
         <f t="shared" si="105"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="Q249" s="173" t="str">
+      <c r="Q249" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C249,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -20092,7 +20086,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="250" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A250" s="18" t="str">
         <f t="shared" si="106"/>
         <v>R&amp;D</v>
@@ -20142,7 +20136,7 @@
         <f t="shared" si="105"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="Q250" s="173" t="str">
+      <c r="Q250" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C250,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -20156,7 +20150,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="251" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A251" s="18" t="str">
         <f t="shared" si="106"/>
         <v>R&amp;D</v>
@@ -20206,7 +20200,7 @@
         <f t="shared" si="105"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="Q251" s="173" t="str">
+      <c r="Q251" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C251,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -20220,7 +20214,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="252" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A252" s="18" t="str">
         <f t="shared" si="106"/>
         <v>R&amp;D</v>
@@ -20270,7 +20264,7 @@
         <f t="shared" si="105"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="Q252" s="173" t="str">
+      <c r="Q252" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C252,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -20284,7 +20278,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="253" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A253" s="18" t="str">
         <f t="shared" si="106"/>
         <v>R&amp;D</v>
@@ -20334,7 +20328,7 @@
         <f t="shared" si="105"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="Q253" s="173" t="str">
+      <c r="Q253" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C253,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -20348,7 +20342,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="254" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A254" s="18" t="str">
         <f t="shared" si="106"/>
         <v>R&amp;D</v>
@@ -20398,7 +20392,7 @@
         <f t="shared" si="105"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="Q254" s="173" t="str">
+      <c r="Q254" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C254,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -20412,7 +20406,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="255" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A255" s="2" t="s">
         <v>35</v>
       </c>
@@ -20456,7 +20450,7 @@
       <c r="P255" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Q255" s="173" t="str">
+      <c r="Q255" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C255,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -20470,7 +20464,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="256" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A256" s="18" t="str">
         <f>A$255</f>
         <v>R&amp;D</v>
@@ -20520,7 +20514,7 @@
         <f t="shared" si="108"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="Q256" s="173" t="str">
+      <c r="Q256" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C256,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -20534,7 +20528,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="257" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A257" s="18" t="str">
         <f>A$255</f>
         <v>R&amp;D</v>
@@ -20584,7 +20578,7 @@
         <f t="shared" si="108"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="Q257" s="173" t="str">
+      <c r="Q257" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C257,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -20598,7 +20592,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="258" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A258" s="18" t="str">
         <f>A$255</f>
         <v>R&amp;D</v>
@@ -20648,7 +20642,7 @@
         <f t="shared" si="108"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="Q258" s="173" t="str">
+      <c r="Q258" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C258,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -20662,7 +20656,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="259" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A259" s="18" t="str">
         <f>A$255</f>
         <v>R&amp;D</v>
@@ -20712,7 +20706,7 @@
         <f t="shared" si="108"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="Q259" s="173" t="str">
+      <c r="Q259" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C259,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -20726,7 +20720,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="260" spans="1:20" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A260" s="18" t="str">
         <f>A$255</f>
         <v>R&amp;D</v>
@@ -20776,7 +20770,7 @@
         <f t="shared" si="108"/>
         <v>% reduction in fuel use</v>
       </c>
-      <c r="Q260" s="173" t="str">
+      <c r="Q260" s="168" t="str">
         <f>INDEX('Policy Characteristics'!J:J,MATCH($C260,'Policy Characteristics'!$C:$C,0))</f>
         <v>**Description:** This policy causes the fuel use of the selected type(s) of equipment to decline by the set percentage over the course of the model run.  The R&amp;D progress caused by this policy is additional to any R&amp;D necessary to comply with other policies, such as tighter fuel economy standards.  No costs associated with conducting this additional R&amp;D (such as investments in laboratories or engineers' salaries) are included in the model. // **Guidance for setting values:** This policy should generally be set to zero unless you are exploring a scenario with unusual and unexpected technological advancement.  If setting a non-zero value, more mature technologies, such as coal, should have lower values than younger technologies, such as solar.  A setting of 30% implies an average of roughly 1% annual improvement, which is very substantial.</v>
       </c>
@@ -21907,22 +21901,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="173" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A19" s="5" t="s">
@@ -21938,13 +21932,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A21" s="154" t="s">
+      <c r="A21" s="173" t="s">
         <v>202</v>
       </c>
-      <c r="B21" s="154"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
+      <c r="B21" s="173"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A38" s="5" t="s">
@@ -21960,13 +21954,13 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A40" s="154" t="s">
+      <c r="A40" s="173" t="s">
         <v>203</v>
       </c>
-      <c r="B40" s="154"/>
-      <c r="C40" s="154"/>
-      <c r="D40" s="154"/>
-      <c r="E40" s="154"/>
+      <c r="B40" s="173"/>
+      <c r="C40" s="173"/>
+      <c r="D40" s="173"/>
+      <c r="E40" s="173"/>
     </row>
     <row r="57" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A57" s="5" t="s">
@@ -21982,13 +21976,13 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A60" s="150" t="s">
+      <c r="A60" s="169" t="s">
         <v>205</v>
       </c>
-      <c r="B60" s="150"/>
-      <c r="C60" s="150"/>
-      <c r="D60" s="150"/>
-      <c r="E60" s="150"/>
+      <c r="B60" s="169"/>
+      <c r="C60" s="169"/>
+      <c r="D60" s="169"/>
+      <c r="E60" s="169"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A64" s="65"/>
@@ -22100,13 +22094,13 @@
       </c>
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.75">
-      <c r="A89" s="150" t="s">
+      <c r="A89" s="169" t="s">
         <v>206</v>
       </c>
-      <c r="B89" s="150"/>
-      <c r="C89" s="150"/>
-      <c r="D89" s="150"/>
-      <c r="E89" s="150"/>
+      <c r="B89" s="169"/>
+      <c r="C89" s="169"/>
+      <c r="D89" s="169"/>
+      <c r="E89" s="169"/>
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.75">
       <c r="A90" s="5">
@@ -22193,13 +22187,13 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A98" s="150" t="s">
+      <c r="A98" s="169" t="s">
         <v>207</v>
       </c>
-      <c r="B98" s="150"/>
-      <c r="C98" s="150"/>
-      <c r="D98" s="150"/>
-      <c r="E98" s="150"/>
+      <c r="B98" s="169"/>
+      <c r="C98" s="169"/>
+      <c r="D98" s="169"/>
+      <c r="E98" s="169"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A99" s="42">
@@ -22283,13 +22277,13 @@
       <c r="A108" s="69"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A109" s="150" t="s">
+      <c r="A109" s="169" t="s">
         <v>209</v>
       </c>
-      <c r="B109" s="150"/>
-      <c r="C109" s="150"/>
-      <c r="D109" s="150"/>
-      <c r="E109" s="150"/>
+      <c r="B109" s="169"/>
+      <c r="C109" s="169"/>
+      <c r="D109" s="169"/>
+      <c r="E109" s="169"/>
     </row>
     <row r="110" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9"/>
     <row r="111" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
@@ -22302,13 +22296,13 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A113" s="150" t="s">
+      <c r="A113" s="169" t="s">
         <v>208</v>
       </c>
-      <c r="B113" s="150"/>
-      <c r="C113" s="150"/>
-      <c r="D113" s="150"/>
-      <c r="E113" s="150"/>
+      <c r="B113" s="169"/>
+      <c r="C113" s="169"/>
+      <c r="D113" s="169"/>
+      <c r="E113" s="169"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A114" s="42">
@@ -22389,13 +22383,13 @@
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A124" s="150" t="s">
+      <c r="A124" s="169" t="s">
         <v>491</v>
       </c>
-      <c r="B124" s="150"/>
-      <c r="C124" s="150"/>
-      <c r="D124" s="150"/>
-      <c r="E124" s="150"/>
+      <c r="B124" s="169"/>
+      <c r="C124" s="169"/>
+      <c r="D124" s="169"/>
+      <c r="E124" s="169"/>
       <c r="L124" s="44"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.75">
@@ -22486,13 +22480,13 @@
       <c r="C133" s="43"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A134" s="150" t="s">
+      <c r="A134" s="169" t="s">
         <v>125</v>
       </c>
-      <c r="B134" s="150"/>
-      <c r="C134" s="150"/>
-      <c r="D134" s="150"/>
-      <c r="E134" s="150"/>
+      <c r="B134" s="169"/>
+      <c r="C134" s="169"/>
+      <c r="D134" s="169"/>
+      <c r="E134" s="169"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A135" s="76" t="s">
@@ -22507,25 +22501,25 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A136" s="78"/>
-      <c r="B136" s="151" t="s">
+      <c r="B136" s="170" t="s">
         <v>513</v>
       </c>
-      <c r="C136" s="152"/>
-      <c r="D136" s="152"/>
-      <c r="E136" s="153"/>
+      <c r="C136" s="171"/>
+      <c r="D136" s="171"/>
+      <c r="E136" s="172"/>
       <c r="F136" s="77"/>
       <c r="G136" s="77"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A137" s="79"/>
-      <c r="B137" s="151" t="s">
+      <c r="B137" s="170" t="s">
         <v>514</v>
       </c>
-      <c r="C137" s="153"/>
-      <c r="D137" s="151" t="s">
+      <c r="C137" s="172"/>
+      <c r="D137" s="170" t="s">
         <v>515</v>
       </c>
-      <c r="E137" s="153"/>
+      <c r="E137" s="172"/>
       <c r="F137" s="77"/>
       <c r="G137" s="77"/>
     </row>
@@ -23072,13 +23066,13 @@
       <c r="G163" s="77"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A165" s="150" t="s">
+      <c r="A165" s="169" t="s">
         <v>212</v>
       </c>
-      <c r="B165" s="150"/>
-      <c r="C165" s="150"/>
-      <c r="D165" s="150"/>
-      <c r="E165" s="150"/>
+      <c r="B165" s="169"/>
+      <c r="C165" s="169"/>
+      <c r="D165" s="169"/>
+      <c r="E165" s="169"/>
       <c r="H165"/>
     </row>
     <row r="166" spans="1:8" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
@@ -23105,10 +23099,10 @@
       <c r="H168"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A169" s="150" t="s">
+      <c r="A169" s="169" t="s">
         <v>499</v>
       </c>
-      <c r="B169" s="150"/>
+      <c r="B169" s="169"/>
       <c r="H169"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.75">
@@ -23143,13 +23137,13 @@
       <c r="B173" s="55"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.75">
-      <c r="A174" s="150" t="s">
+      <c r="A174" s="169" t="s">
         <v>222</v>
       </c>
-      <c r="B174" s="150"/>
-      <c r="C174" s="150"/>
-      <c r="D174" s="150"/>
-      <c r="E174" s="150"/>
+      <c r="B174" s="169"/>
+      <c r="C174" s="169"/>
+      <c r="D174" s="169"/>
+      <c r="E174" s="169"/>
     </row>
     <row r="175" spans="1:8" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A175" s="46" t="s">
@@ -23169,13 +23163,13 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A178" s="150" t="s">
+      <c r="A178" s="169" t="s">
         <v>215</v>
       </c>
-      <c r="B178" s="150"/>
-      <c r="C178" s="150"/>
-      <c r="D178" s="150"/>
-      <c r="E178" s="150"/>
+      <c r="B178" s="169"/>
+      <c r="C178" s="169"/>
+      <c r="D178" s="169"/>
+      <c r="E178" s="169"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A179" s="47" t="s">
@@ -23203,13 +23197,13 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A183" s="150" t="s">
+      <c r="A183" s="169" t="s">
         <v>217</v>
       </c>
-      <c r="B183" s="150"/>
-      <c r="C183" s="150"/>
-      <c r="D183" s="150"/>
-      <c r="E183" s="150"/>
+      <c r="B183" s="169"/>
+      <c r="C183" s="169"/>
+      <c r="D183" s="169"/>
+      <c r="E183" s="169"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A184" s="74" t="s">
@@ -23243,13 +23237,13 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A188" s="150" t="s">
+      <c r="A188" s="169" t="s">
         <v>234</v>
       </c>
-      <c r="B188" s="150"/>
-      <c r="C188" s="150"/>
-      <c r="D188" s="150"/>
-      <c r="E188" s="150"/>
+      <c r="B188" s="169"/>
+      <c r="C188" s="169"/>
+      <c r="D188" s="169"/>
+      <c r="E188" s="169"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A189" s="44" t="s">
